--- a/example.xlsx
+++ b/example.xlsx
@@ -55,11 +55,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <color rgb="d10808"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <color rgb="d10808"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,11 +568,11 @@
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="87.83203125" customWidth="1"/>
+    <col min="8" max="8" width="75.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
@@ -622,37 +622,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Boris</v>
+        <v>Jewell</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>White</v>
+        <v>Schaefer</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Amos_Roob88@hotmail.com</v>
+        <v>Wilhelmine.Miller@gmail.com</v>
       </c>
       <c r="E2" s="5" t="str">
-        <v>manager</v>
+        <v>admin, manager</v>
       </c>
       <c r="F2" s="6">
-        <v>562882.73</v>
+        <v>502387.05</v>
       </c>
       <c r="G2" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>Bergnaum Group, Gerlach, Corwin and Huel, Fahey Inc, Mohr - Rau</v>
+        <v/>
       </c>
       <c r="I2" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L2" s="8">
-        <v>45050.949964039355</v>
+        <v>45059.20959097222</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
@@ -660,37 +660,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>Darrion</v>
+        <v>Deven</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Ruecker</v>
+        <v>Treutel</v>
       </c>
       <c r="D3" s="4" t="str">
-        <v>Raegan97@gmail.com</v>
+        <v>Rosalinda.Feest37@yahoo.com</v>
       </c>
       <c r="E3" s="9" t="str">
-        <v>admin, user, manager, guest</v>
+        <v>guest</v>
       </c>
       <c r="F3" s="6">
-        <v>529476.04</v>
+        <v>588916.97</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4" t="str">
-        <v>Bednar and Sons, Gislason, Wisozk and Lebsack</v>
+        <v>Macejkovic LLC, Watsica, Ankunding and Kirlin, Hills, Paucek and Feest</v>
       </c>
       <c r="I3" s="7">
         <v>8</v>
       </c>
       <c r="J3" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K3" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L3" s="8">
-        <v>45160.81211396991</v>
+        <v>45164.5944452662</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
@@ -698,37 +698,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Kaitlin</v>
+        <v>Florida</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Gleichner</v>
+        <v>Durgan</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Arlene.Leffler10@hotmail.com</v>
+        <v>Annabelle.Russel@gmail.com</v>
       </c>
       <c r="E4" s="9" t="str">
-        <v>admin, manager, guest</v>
+        <v>user, manager</v>
       </c>
       <c r="F4" s="6">
-        <v>46610.6</v>
+        <v>234606.01</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="str">
-        <v>Kling, Schamberger and Shanahan, Rogahn - Johnson</v>
+        <v/>
       </c>
       <c r="I4" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <v>N/A</v>
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5</v>
       </c>
       <c r="L4" s="8">
-        <v>44965.59511797454</v>
+        <v>45037.156146863425</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -736,37 +736,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>Juanita</v>
+        <v>Kasey</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Reilly</v>
+        <v>Pfeffer</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>Jamie_Franey36@gmail.com</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <v>admin, user, manager, guest</v>
+        <v>Zula2@hotmail.com</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <v>admin, manager</v>
       </c>
       <c r="F5" s="6">
-        <v>315261.17</v>
+        <v>223373.99</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="str">
-        <v/>
+        <v>Crist - Runolfsdottir</v>
       </c>
       <c r="I5" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <v>N/A</v>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>8</v>
       </c>
       <c r="L5" s="8">
-        <v>45224.975095497684</v>
+        <v>45154.28490810185</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
@@ -774,37 +774,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Raquel</v>
+        <v>Salvatore</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Maggio</v>
+        <v>Feest</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Syble.Marquardt79@yahoo.com</v>
-      </c>
-      <c r="E6" s="5" t="str">
+        <v>Amely.Hilpert@gmail.com</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <v>manager, guest</v>
       </c>
       <c r="F6" s="6">
-        <v>515586.81</v>
+        <v>582290.16</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>Rau, Rolfson and Gibson</v>
+        <v>Donnelly Inc, Miller LLC, Morar Inc</v>
       </c>
       <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="8">
-        <v>44934.93865380787</v>
+        <v>44922.9991275</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
@@ -812,37 +812,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>Monserrat</v>
+        <v>Vladimir</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Labadie</v>
+        <v>DuBuque</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Roman72@gmail.com</v>
+        <v>Bryon_Ankunding9@hotmail.com</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>manager, guest</v>
+        <v>admin</v>
       </c>
       <c r="F7" s="6">
-        <v>537157.28</v>
+        <v>883169.16</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>Daniel, O'Kon and Ortiz, Stanton - Gibson</v>
+        <v>Boyer Group, Kuvalis LLC</v>
       </c>
       <c r="I7" s="7">
         <v>8</v>
       </c>
       <c r="J7" s="4">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <v>N/A</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
       </c>
       <c r="L7" s="8">
-        <v>44942.71157709491</v>
+        <v>45125.20094164352</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
@@ -850,37 +850,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Willie</v>
+        <v>Toy</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Langworth</v>
+        <v>Gislason</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>Nakia.Hickle@hotmail.com</v>
+        <v>Marques_Luettgen@gmail.com</v>
       </c>
       <c r="E8" s="9" t="str">
-        <v>admin, user, guest</v>
+        <v>user, manager</v>
       </c>
       <c r="F8" s="6">
-        <v>313614</v>
+        <v>784932.57</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>Collins and Sons, Blanda and Sons, Marks and Sons</v>
+        <v>Mraz LLC</v>
       </c>
       <c r="I8" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="4" t="str">
-        <v>N/A</v>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" s="8">
-        <v>45074.400084166664</v>
+        <v>45185.64358398148</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
@@ -888,37 +888,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>Meghan</v>
+        <v>Collin</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Hammes</v>
+        <v>Waelchi</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>Ferne.Kihn20@yahoo.com</v>
+        <v>Anais.Bergnaum@gmail.com</v>
       </c>
       <c r="E9" s="9" t="str">
-        <v>admin, user, manager, guest</v>
+        <v>manager</v>
       </c>
       <c r="F9" s="6">
-        <v>373682.1</v>
+        <v>338715.98</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>Armstrong - Mertz, Mraz Inc, Lindgren, Emard and Ryan, Kessler, Homenick and Hilll</v>
+        <v>McCullough Group, Cartwright Inc, Abernathy Group, Berge Inc</v>
       </c>
       <c r="I9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="4">
-        <v>4</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <v>N/A</v>
+        <v>7</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
       </c>
       <c r="L9" s="8">
-        <v>44998.5254146875</v>
+        <v>45023.99084547454</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
@@ -926,37 +926,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Mabelle</v>
+        <v>Casimir</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Reichert</v>
+        <v>Dietrich</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Zella_Willms-Konopelski@hotmail.com</v>
+        <v>Jazmyn.Bogisich52@hotmail.com</v>
       </c>
       <c r="E10" s="9" t="str">
-        <v>admin, user, guest</v>
+        <v>manager, guest</v>
       </c>
       <c r="F10" s="6">
-        <v>762565.15</v>
+        <v>885701.75</v>
       </c>
       <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I10" s="7">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="str">
-        <v>Bashirian Group</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="K10" s="4">
         <v>7</v>
       </c>
-      <c r="J10" s="4">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <v>N/A</v>
-      </c>
       <c r="L10" s="8">
-        <v>45076.00578954861</v>
+        <v>44991.15771571759</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
@@ -964,37 +964,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>Nina</v>
+        <v>Kirsten</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>Schinner</v>
+        <v>White</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>Shayne.Nader@yahoo.com</v>
+        <v>Ruth_Mitchell25@hotmail.com</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>guest</v>
+        <v>admin</v>
       </c>
       <c r="F11" s="6">
-        <v>890979.82</v>
+        <v>937222.48</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4" t="str">
-        <v/>
+        <v>Monahan LLC</v>
       </c>
       <c r="I11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L11" s="8">
-        <v>44999.13215576389</v>
+        <v>45153.52713135417</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1013,7 @@
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1029,112 +1029,112 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="4" t="str">
-        <v>Boris</v>
+        <v>Jewell</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>White</v>
+        <v>Schaefer</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Amos_Roob88@hotmail.com</v>
+        <v>Wilhelmine.Miller@gmail.com</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="str">
-        <v>Darrion</v>
+        <v>Deven</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>Ruecker</v>
+        <v>Treutel</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Raegan97@gmail.com</v>
+        <v>Rosalinda.Feest37@yahoo.com</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="4" t="str">
-        <v>Kaitlin</v>
+        <v>Florida</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Gleichner</v>
+        <v>Durgan</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Arlene.Leffler10@hotmail.com</v>
+        <v>Annabelle.Russel@gmail.com</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="4" t="str">
-        <v>Juanita</v>
+        <v>Kasey</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>Reilly</v>
+        <v>Pfeffer</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Jamie_Franey36@gmail.com</v>
+        <v>Zula2@hotmail.com</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="4" t="str">
-        <v>Raquel</v>
+        <v>Salvatore</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Maggio</v>
+        <v>Feest</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Syble.Marquardt79@yahoo.com</v>
+        <v>Amely.Hilpert@gmail.com</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="str">
-        <v>Monserrat</v>
+        <v>Vladimir</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>Labadie</v>
+        <v>DuBuque</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Roman72@gmail.com</v>
+        <v>Bryon_Ankunding9@hotmail.com</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="str">
-        <v>Willie</v>
+        <v>Toy</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Langworth</v>
+        <v>Gislason</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Nakia.Hickle@hotmail.com</v>
+        <v>Marques_Luettgen@gmail.com</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="4" t="str">
-        <v>Meghan</v>
+        <v>Collin</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>Hammes</v>
+        <v>Waelchi</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Ferne.Kihn20@yahoo.com</v>
+        <v>Anais.Bergnaum@gmail.com</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="4" t="str">
-        <v>Mabelle</v>
+        <v>Casimir</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Reichert</v>
+        <v>Dietrich</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Zella_Willms-Konopelski@hotmail.com</v>
+        <v>Jazmyn.Bogisich52@hotmail.com</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="4" t="str">
-        <v>Nina</v>
+        <v>Kirsten</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>Schinner</v>
+        <v>White</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>Shayne.Nader@yahoo.com</v>
+        <v>Ruth_Mitchell25@hotmail.com</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -55,11 +56,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <color rgb="d10808"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <color rgb="d10808"/>
     </font>
   </fonts>
   <fills count="3">
@@ -560,19 +561,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="75.83203125" customWidth="1"/>
+    <col min="8" max="8" width="95.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
@@ -622,37 +623,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Jewell</v>
+        <v>Brando</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Schaefer</v>
+        <v>Hayes</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Wilhelmine.Miller@gmail.com</v>
+        <v>Seth_Lemke@gmail.com</v>
       </c>
       <c r="E2" s="5" t="str">
-        <v>admin, manager</v>
+        <v>manager, guest</v>
       </c>
       <c r="F2" s="6">
-        <v>502387.05</v>
+        <v>926559.89</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v/>
+        <v>Franecki, Mills and Rutherford, Leannon and Sons, Gusikowski - Collins</v>
       </c>
       <c r="I2" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L2" s="8">
-        <v>45059.20959097222</v>
+        <v>45052.31842101852</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
@@ -660,37 +661,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>Deven</v>
+        <v>Lou</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Treutel</v>
+        <v>Pfannerstill</v>
       </c>
       <c r="D3" s="4" t="str">
-        <v>Rosalinda.Feest37@yahoo.com</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <v>guest</v>
+        <v>Domenick.Predovic@hotmail.com</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <v>user, manager, guest</v>
       </c>
       <c r="F3" s="6">
-        <v>588916.97</v>
+        <v>780359.85</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
       </c>
       <c r="H3" s="4" t="str">
-        <v>Macejkovic LLC, Watsica, Ankunding and Kirlin, Hills, Paucek and Feest</v>
+        <v>Schuppe - Stark, Rosenbaum, Welch and Schmidt, O'Connell, Mitchell and Mosciski</v>
       </c>
       <c r="I3" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L3" s="8">
-        <v>45164.5944452662</v>
+        <v>45064.035485775465</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
@@ -698,37 +699,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Florida</v>
+        <v>Darion</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Durgan</v>
+        <v>Beatty</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Annabelle.Russel@gmail.com</v>
+        <v>Efrain.Auer@gmail.com</v>
       </c>
       <c r="E4" s="9" t="str">
-        <v>user, manager</v>
+        <v>admin, guest</v>
       </c>
       <c r="F4" s="6">
-        <v>234606.01</v>
+        <v>471867.02</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4" t="str">
-        <v/>
+        <v>Huels, Durgan and Yost, Conn - Gerlach</v>
       </c>
       <c r="I4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4" s="8">
-        <v>45037.156146863425</v>
+        <v>44977.91254358796</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -736,37 +737,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>Kasey</v>
+        <v>Bernice</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Pfeffer</v>
+        <v>Nienow</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>Zula2@hotmail.com</v>
-      </c>
-      <c r="E5" s="5" t="str">
+        <v>Casimer.Brakus88@gmail.com</v>
+      </c>
+      <c r="E5" s="9" t="str">
         <v>admin, manager</v>
       </c>
       <c r="F5" s="6">
-        <v>223373.99</v>
+        <v>586717.05</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="str">
-        <v>Crist - Runolfsdottir</v>
+        <v>Greenfelder Inc</v>
       </c>
       <c r="I5" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L5" s="8">
-        <v>45154.28490810185</v>
+        <v>45154.270017476854</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
@@ -774,37 +775,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Salvatore</v>
+        <v>Christophe</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Feest</v>
+        <v>McGlynn-Howell</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Amely.Hilpert@gmail.com</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <v>manager, guest</v>
+        <v>Janis_Wunsch77@yahoo.com</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <v>manager</v>
       </c>
       <c r="F6" s="6">
-        <v>582290.16</v>
+        <v>850316.25</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4" t="str">
-        <v>Donnelly Inc, Miller LLC, Morar Inc</v>
+        <v>Stiedemann, Littel and Reichert, Jacobson, Beer and Zboncak, Weissnat Inc, Senger and Sons</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L6" s="8">
-        <v>44922.9991275</v>
+        <v>45213.86411216435</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
@@ -812,37 +813,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>Vladimir</v>
+        <v>Hollis</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>DuBuque</v>
+        <v>Koss</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Bryon_Ankunding9@hotmail.com</v>
+        <v>Verda.Gottlieb27@hotmail.com</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>admin</v>
+        <v>manager, guest</v>
       </c>
       <c r="F7" s="6">
-        <v>883169.16</v>
+        <v>313063.68</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>Boyer Group, Kuvalis LLC</v>
+        <v>Mills and Sons</v>
       </c>
       <c r="I7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="8">
-        <v>45125.20094164352</v>
+        <v>44985.60452905093</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
@@ -850,37 +851,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Toy</v>
+        <v>Danielle</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Gislason</v>
+        <v>Schaefer</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>Marques_Luettgen@gmail.com</v>
+        <v>Estefania62@gmail.com</v>
       </c>
       <c r="E8" s="9" t="str">
-        <v>user, manager</v>
+        <v>admin, manager</v>
       </c>
       <c r="F8" s="6">
-        <v>784932.57</v>
+        <v>506259.24</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4" t="str">
-        <v>Mraz LLC</v>
+        <v/>
       </c>
       <c r="I8" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="8">
-        <v>45185.64358398148</v>
+        <v>45156.43021204861</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
@@ -888,37 +889,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>Collin</v>
+        <v>Caterina</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Waelchi</v>
+        <v>Gorczany</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>Anais.Bergnaum@gmail.com</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <v>manager</v>
+        <v>Mafalda_Gleichner@gmail.com</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <v>guest</v>
       </c>
       <c r="F9" s="6">
-        <v>338715.98</v>
+        <v>866030.11</v>
       </c>
       <c r="G9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>McCullough Group, Cartwright Inc, Abernathy Group, Berge Inc</v>
+        <v>Terry Group</v>
       </c>
       <c r="I9" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L9" s="8">
-        <v>45023.99084547454</v>
+        <v>44999.1722203125</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
@@ -926,19 +927,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Casimir</v>
+        <v>Scotty</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Dietrich</v>
+        <v>Runolfsdottir</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Jazmyn.Bogisich52@hotmail.com</v>
+        <v>Veronica60@gmail.com</v>
       </c>
       <c r="E10" s="9" t="str">
-        <v>manager, guest</v>
+        <v>admin</v>
       </c>
       <c r="F10" s="6">
-        <v>885701.75</v>
+        <v>506901.04</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -947,16 +948,16 @@
         <v/>
       </c>
       <c r="I10" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L10" s="8">
-        <v>44991.15771571759</v>
+        <v>44912.906891527775</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
@@ -964,56 +965,3476 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>Kirsten</v>
+        <v>Hubert</v>
       </c>
       <c r="C11" s="4" t="str">
+        <v>D'Amore</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <v>Wilson.Emard@yahoo.com</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="F11" s="6">
+        <v>711080.14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <v>Abbott, Rodriguez and Wyman, Kub Group, Keeling Inc</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>44967.58669280093</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v>Gage</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>Braun</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>Kody.Shields@yahoo.com</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F12" s="6">
+        <v>771205</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>45156.962936689815</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <v>Ulices</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v>Langworth</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <v>Berry_Grady1@yahoo.com</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F13" s="6">
+        <v>604581.76</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <v>Lockman - Upton, Casper and Sons</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>9</v>
+      </c>
+      <c r="L13" s="8">
+        <v>45237.62977508102</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <v>Jayda</v>
+      </c>
+      <c r="C14" s="4" t="str">
         <v>White</v>
       </c>
-      <c r="D11" s="4" t="str">
-        <v>Ruth_Mitchell25@hotmail.com</v>
-      </c>
-      <c r="E11" s="5" t="str">
+      <c r="D14" s="4" t="str">
+        <v>Jermey81@hotmail.com</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F14" s="6">
+        <v>92447.32</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <v>Ondricka, Kuhlman and Brakus, Bins - Ryan</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4">
+        <v>8</v>
+      </c>
+      <c r="K14" s="4">
+        <v>6</v>
+      </c>
+      <c r="L14" s="8">
+        <v>45167.989595266205</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <v>Cyril</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v>Wisozk</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <v>Fernando.Hahn11@hotmail.com</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F15" s="6">
+        <v>708824.49</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <v>Rempel - Kozey, Parker, Cole and Moen, Weimann, Dooley and Renner</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>8</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L15" s="8">
+        <v>45025.073245196756</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>Theresa</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>Powlowski</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>Macey.Swaniawski83@hotmail.com</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="F16" s="6">
+        <v>780684.71</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <v>Cummerata Inc, Hodkiewicz - Larkin</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>45179.208274606484</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <v>Sheila</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <v>Mann-Durgan</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <v>Derek.Bartoletti@gmail.com</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F17" s="6">
+        <v>431792.12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <v>Hartmann, Waters and Haley, Abernathy LLC, Cassin LLC, Hahn - Ritchie</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L17" s="8">
+        <v>45090.8790287963</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <v>Harry</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v>Hickle</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <v>Trevor39@yahoo.com</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F18" s="6">
+        <v>21831.3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <v>Stracke - O'Reilly, Will - Hettinger, McLaughlin - Kihn, Green - Halvorson</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
+        <v>44965.93971737268</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <v>Ken</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <v>Kessler</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <v>Brooklyn15@hotmail.com</v>
+      </c>
+      <c r="E19" s="9" t="str">
         <v>admin</v>
       </c>
-      <c r="F11" s="6">
-        <v>937222.48</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F19" s="6">
+        <v>310454.39</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <v>Robel, Bartoletti and Kessler, Veum, Bernier and Harber, Weissnat Inc</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8">
+        <v>45149.34579582176</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>Sabrina</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>Dickens</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>Noemi21@gmail.com</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="F20" s="6">
+        <v>392900.85</v>
+      </c>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="str">
-        <v>Monahan LLC</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H20" s="4" t="str">
+        <v>Wilkinson - Durgan</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4">
+        <v>4</v>
+      </c>
+      <c r="L20" s="8">
+        <v>45234.3754925</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <v>Kristopher</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <v>Hessel</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <v>Myah34@hotmail.com</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="F21" s="6">
+        <v>261414.3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <v>Casper Inc, Kub, Wintheiser and Haag, Harber - Wehner, McCullough Inc</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L21" s="8">
+        <v>44988.41965375</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>Payton</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>Doyle</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>Tyree69@gmail.com</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F22" s="6">
+        <v>42610.59</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I22" s="7">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>9</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="8">
+        <v>45127.73932475694</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <v>Dayne</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <v>Schroeder</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <v>Lorna.Hessel@gmail.com</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="F23" s="6">
+        <v>437569.03</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v>Kuhic, Sanford and Kassulke, Pfannerstill Group</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>9</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L23" s="8">
+        <v>45052.445802152775</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>Hilario</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>Zboncak</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>Amaya_Cassin27@yahoo.com</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F24" s="6">
+        <v>442785.09</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <v>Braun and Sons, Anderson, Armstrong and Emard, Kunde LLC, Hermann and Sons</v>
+      </c>
+      <c r="I24" s="7">
         <v>6</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L24" s="8">
+        <v>45055.1338702662</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <v>Adelia</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <v>Nikolaus</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <v>Everardo_OConnell@yahoo.com</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="F25" s="6">
+        <v>887377.29</v>
+      </c>
+      <c r="G25" s="4">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <v>Friesen, Reynolds and Kutch, Dach - Balistreri, Cummings Group, Pacocha Inc</v>
+      </c>
+      <c r="I25" s="7">
         <v>9</v>
       </c>
-      <c r="K11" s="4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="L11" s="8">
-        <v>45153.52713135417</v>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>45115.937372430555</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>Yasmin</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>Bartell</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>Casey_Kessler56@hotmail.com</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="F26" s="6">
+        <v>833583.85</v>
+      </c>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <v>Ryan, Roob and Doyle, Cummings - Turcotte, Fisher Inc</v>
+      </c>
+      <c r="I26" s="7">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4">
+        <v>9</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L26" s="8">
+        <v>45231.53006672454</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <v>Randall</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <v>Jast</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <v>Camren24@gmail.com</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="F27" s="6">
+        <v>338814.3</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <v>Von, Jacobs and Wolff</v>
+      </c>
+      <c r="I27" s="7">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4">
+        <v>4</v>
+      </c>
+      <c r="K27" s="4">
+        <v>9</v>
+      </c>
+      <c r="L27" s="8">
+        <v>45186.36550136574</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v>Dale</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v>Kozey</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <v>George_Predovic@yahoo.com</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <v>user, manager, guest</v>
+      </c>
+      <c r="F28" s="6">
+        <v>590399.39</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I28" s="7">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
+        <v>7</v>
+      </c>
+      <c r="K28" s="4">
+        <v>8</v>
+      </c>
+      <c r="L28" s="8">
+        <v>45202.815583344905</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <v>Elta</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <v>Schamberger</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <v>Della.Vandervort@gmail.com</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="F29" s="6">
+        <v>810255.39</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+      <c r="H29" s="4" t="str">
+        <v>Hoeger - Cartwright, Carter and Sons, Stokes, Howe and Hagenes, Davis - Cremin</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>6</v>
+      </c>
+      <c r="L29" s="8">
+        <v>45261.41700826389</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v>Ward</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>O'Conner</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <v>Ceasar13@hotmail.com</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F30" s="6">
+        <v>933553.28</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <v>Okuneva, Aufderhar and Smith, Pfeffer - Abernathy, Kunde, Ward and Considine</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L30" s="8">
+        <v>44933.694002766206</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <v>Hoppe</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <v>Effie86@gmail.com</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="F31" s="6">
+        <v>663515.74</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <v>Gorczany - Rau, Prohaska and Sons, Simonis - Blick</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="4">
+        <v>8</v>
+      </c>
+      <c r="L31" s="8">
+        <v>45095.102936689815</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v>Carmelo</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>Hilll</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <v>Albina_Oberbrunner@yahoo.com</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F32" s="6">
+        <v>318587.86</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <v>Steuber - Bechtelar, Nikolaus Inc, Turner, Wolff and Connelly, Kling - Bosco</v>
+      </c>
+      <c r="I32" s="7">
+        <v>9</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>44978.78060261574</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <v>Sophie</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <v>Walker</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <v>Mackenzie_Kuphal13@hotmail.com</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F33" s="6">
+        <v>692586.36</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I33" s="7">
+        <v>5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2</v>
+      </c>
+      <c r="L33" s="8">
+        <v>45186.873391284724</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>Erik</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>Cassin</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <v>Loyal_Jaskolski36@hotmail.com</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F34" s="6">
+        <v>335391.99</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <v>Volkman - Von, Bins, Nolan and Vandervort, Predovic - Rodriguez</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>6</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L34" s="8">
+        <v>45012.27351204861</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <v>Joshua</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <v>Hackett</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <v>Grayson.Kub@gmail.com</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="F35" s="6">
+        <v>292338.87</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="str">
+        <v>Watsica Group, Brakus, Bogan and Reichert</v>
+      </c>
+      <c r="I35" s="7">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4">
+        <v>5</v>
+      </c>
+      <c r="K35" s="4">
+        <v>9</v>
+      </c>
+      <c r="L35" s="8">
+        <v>45015.95864601852</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>Ryann</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>Armstrong-Monahan</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <v>Jillian.Lebsack51@hotmail.com</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F36" s="6">
+        <v>764150.34</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4" t="str">
+        <v>Greenfelder Inc, Johnston and Sons</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>8</v>
+      </c>
+      <c r="K36" s="4">
+        <v>5</v>
+      </c>
+      <c r="L36" s="8">
+        <v>45008.537768622686</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <v>Meaghan</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <v>Heaney</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <v>Stanford.Schoen59@hotmail.com</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="F37" s="6">
+        <v>594308.68</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I37" s="7">
+        <v>9</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>6</v>
+      </c>
+      <c r="L37" s="8">
+        <v>45214.77200297454</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>Salvatore</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>Champlin</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <v>Floy.Mraz-Stiedemann@hotmail.com</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="F38" s="6">
+        <v>34258.03</v>
+      </c>
+      <c r="G38" s="4">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4" t="str">
+        <v>Bernier - Swift, Schmeler - Hudson, Boyle LLC, Marvin LLC</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>9</v>
+      </c>
+      <c r="L38" s="8">
+        <v>45052.50276739583</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <v>Ron</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <v>Pollich</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <v>Norene.Aufderhar19@hotmail.com</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F39" s="6">
+        <v>276311.56</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4" t="str">
+        <v>Stamm - Ward, Hilll and Sons, Klocko, Miller and Kovacek, Walter, Murazik and Schulist</v>
+      </c>
+      <c r="I39" s="7">
+        <v>9</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4</v>
+      </c>
+      <c r="K39" s="4">
+        <v>2</v>
+      </c>
+      <c r="L39" s="8">
+        <v>44996.344733460646</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v>Eva</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <v>Kihn</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <v>Duncan25@hotmail.com</v>
+      </c>
+      <c r="E40" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F40" s="6">
+        <v>676219.9</v>
+      </c>
+      <c r="G40" s="4">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4" t="str">
+        <v>Reilly, Jacobs and Hickle, Gutkowski Inc, Gorczany - Daniel, Boyer - Altenwerth</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L40" s="8">
+        <v>45041.99884599537</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <v>Rossie</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <v>Cartwright</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <v>Joel.Rohan76@hotmail.com</v>
+      </c>
+      <c r="E41" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="F41" s="6">
+        <v>466585.72</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I41" s="7">
+        <v>5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>44904.05842814815</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>Idell</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v>Hoppe</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <v>Anika_Bechtelar-Krajcik@hotmail.com</v>
+      </c>
+      <c r="E42" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="F42" s="6">
+        <v>962051.73</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I42" s="7">
+        <v>2</v>
+      </c>
+      <c r="J42" s="4">
+        <v>8</v>
+      </c>
+      <c r="K42" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L42" s="8">
+        <v>45194.245144837965</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <v>Germaine</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <v>Krajcik</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <v>Manuel_Schiller@gmail.com</v>
+      </c>
+      <c r="E43" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="F43" s="6">
+        <v>579978.75</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4" t="str">
+        <v>Stokes - Nicolas, Ortiz, Dickinson and Runolfsson</v>
+      </c>
+      <c r="I43" s="7">
+        <v>9</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>6</v>
+      </c>
+      <c r="L43" s="8">
+        <v>45021.88141565972</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>Leon</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v>Barrows-Zulauf</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <v>Jackeline_Hodkiewicz57@gmail.com</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F44" s="6">
+        <v>484918.06</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4" t="str">
+        <v>Rosenbaum LLC, Schaden Inc</v>
+      </c>
+      <c r="I44" s="7">
+        <v>2</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>9</v>
+      </c>
+      <c r="L44" s="8">
+        <v>45056.395872395835</v>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <v>Rylee</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <v>Heller</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <v>Earline_Skiles85@hotmail.com</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="F45" s="6">
+        <v>908893.91</v>
+      </c>
+      <c r="G45" s="4">
+        <v>3</v>
+      </c>
+      <c r="H45" s="4" t="str">
+        <v>Feil, Jakubowski and Fahey, Connelly - Renner, Nader, Feil and Herzog</v>
+      </c>
+      <c r="I45" s="7">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4</v>
+      </c>
+      <c r="K45" s="4">
+        <v>9</v>
+      </c>
+      <c r="L45" s="8">
+        <v>45084.935041006946</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>Dan</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>Spencer</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <v>Dudley_Daugherty@yahoo.com</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="F46" s="6">
+        <v>768871.1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>3</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <v>Roberts - Weissnat, Beer, Langworth and Shanahan, Schmeler, Schmitt and Reilly</v>
+      </c>
+      <c r="I46" s="7">
+        <v>8</v>
+      </c>
+      <c r="J46" s="4">
+        <v>9</v>
+      </c>
+      <c r="K46" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L46" s="8">
+        <v>45111.43853732639</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <v>Sedrick</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <v>Mohr</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <v>Brown.Will59@yahoo.com</v>
+      </c>
+      <c r="E47" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="F47" s="6">
+        <v>814503.32</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4</v>
+      </c>
+      <c r="H47" s="4" t="str">
+        <v>Anderson, Anderson and Gislason, Littel - Nienow, Stroman - Streich, Cremin Group</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>6</v>
+      </c>
+      <c r="K47" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L47" s="8">
+        <v>45246.95620369213</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>Meggie</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v>Runte</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <v>Adelle_Sanford@hotmail.com</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F48" s="6">
+        <v>123417.38</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>2</v>
+      </c>
+      <c r="K48" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L48" s="8">
+        <v>45026.52696403935</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <v>Lizzie</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <v>Judy_Cronin@hotmail.com</v>
+      </c>
+      <c r="E49" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F49" s="6">
+        <v>421627.74</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4" t="str">
+        <v>Wintheiser - Luettgen, Yundt, Ortiz and Thompson</v>
+      </c>
+      <c r="I49" s="7">
+        <v>7</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>9</v>
+      </c>
+      <c r="L49" s="8">
+        <v>44988.77236753472</v>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Florence</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>Steuber</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <v>Granville86@hotmail.com</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="F50" s="6">
+        <v>971551.7</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>Williamson - Harris, Bogan Group</v>
+      </c>
+      <c r="I50" s="7">
+        <v>5</v>
+      </c>
+      <c r="J50" s="4">
+        <v>8</v>
+      </c>
+      <c r="K50" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L50" s="8">
+        <v>44945.909519560184</v>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <v>Jammie</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <v>O'Conner</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <v>Kacey.Homenick33@gmail.com</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="F51" s="6">
+        <v>866464.05</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4" t="str">
+        <v>Heathcote and Sons, Littel - Rempel</v>
+      </c>
+      <c r="I51" s="7">
+        <v>5</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3</v>
+      </c>
+      <c r="L51" s="8">
+        <v>45099.9878187963</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Kelsie</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v>Hartmann</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <v>Shirley_Wuckert-Hodkiewicz@gmail.com</v>
+      </c>
+      <c r="E52" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="F52" s="6">
+        <v>23355.47</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="str">
+        <v>Block - Kautzer</v>
+      </c>
+      <c r="I52" s="7">
+        <v>3</v>
+      </c>
+      <c r="J52" s="4">
+        <v>3</v>
+      </c>
+      <c r="K52" s="4">
+        <v>5</v>
+      </c>
+      <c r="L52" s="8">
+        <v>45156.607919201386</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <v>Merle</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <v>Bins</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <v>Earnest.Walsh@gmail.com</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <v>user, manager, guest</v>
+      </c>
+      <c r="F53" s="6">
+        <v>965502.55</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I53" s="7">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4">
+        <v>8</v>
+      </c>
+      <c r="K53" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L53" s="8">
+        <v>44978.03928030092</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>Quincy</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>Willms</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <v>Stephan.Cronin@yahoo.com</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F54" s="6">
+        <v>116960.44</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I54" s="7">
+        <v>4</v>
+      </c>
+      <c r="J54" s="4">
+        <v>5</v>
+      </c>
+      <c r="K54" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L54" s="8">
+        <v>45192.45049974537</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <v>Brook</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <v>Klein</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <v>Mertie.Watsica-Kulas36@yahoo.com</v>
+      </c>
+      <c r="E55" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="F55" s="6">
+        <v>153872.09</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4</v>
+      </c>
+      <c r="H55" s="4" t="str">
+        <v>Hilpert, Turner and Ortiz, Bogisich and Sons, Marvin and Sons, Monahan - Altenwerth</v>
+      </c>
+      <c r="I55" s="7">
+        <v>7</v>
+      </c>
+      <c r="J55" s="4">
+        <v>5</v>
+      </c>
+      <c r="K55" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L55" s="8">
+        <v>45103.78249626157</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>Sibyl</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>Kreiger</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <v>Estrella60@hotmail.com</v>
+      </c>
+      <c r="E56" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F56" s="6">
+        <v>187296.04</v>
+      </c>
+      <c r="G56" s="4">
+        <v>4</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <v>Paucek, Wisozk and Anderson, Baumbach - Braun, Pollich - Emard, Johns, Legros and Rice</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>4</v>
+      </c>
+      <c r="K56" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L56" s="8">
+        <v>45031.45447582176</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <v>Lucio</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <v>Hilll</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <v>Virginie.Bins@hotmail.com</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="F57" s="6">
+        <v>525877.62</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4" t="str">
+        <v>Beatty, Sipes and Braun, Sanford, Gerhold and Raynor</v>
+      </c>
+      <c r="I57" s="7">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4">
+        <v>6</v>
+      </c>
+      <c r="K57" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L57" s="8">
+        <v>44965.16710866898</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>Nannie</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>Hamill</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <v>Mona_Prohaska43@gmail.com</v>
+      </c>
+      <c r="E58" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F58" s="6">
+        <v>198051.33</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4" t="str">
+        <v>Schmitt - Lindgren, Roberts, Macejkovic and Okuneva, Kiehn, Marvin and Goyette</v>
+      </c>
+      <c r="I58" s="7">
+        <v>3</v>
+      </c>
+      <c r="J58" s="4">
+        <v>5</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8">
+        <v>45043.3735125463</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <v>Jalon</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <v>Dooley</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <v>Frank62@hotmail.com</v>
+      </c>
+      <c r="E59" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F59" s="6">
+        <v>200681.61</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I59" s="7">
+        <v>3</v>
+      </c>
+      <c r="J59" s="4">
+        <v>4</v>
+      </c>
+      <c r="K59" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L59" s="8">
+        <v>45012.36318104167</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>Smith</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <v>Zelda.Lesch@hotmail.com</v>
+      </c>
+      <c r="E60" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="F60" s="6">
+        <v>762264.7</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4" t="str">
+        <v>Shields - Ortiz, Bechtelar Inc</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>9</v>
+      </c>
+      <c r="K60" s="4">
+        <v>6</v>
+      </c>
+      <c r="L60" s="8">
+        <v>45068.665909710646</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <v>Garrison</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <v>Considine</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <v>Camille.Veum73@gmail.com</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F61" s="6">
+        <v>885551.67</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4" t="str">
+        <v>Welch, Parisian and Johns, Ryan and Sons</v>
+      </c>
+      <c r="I61" s="7">
+        <v>5</v>
+      </c>
+      <c r="J61" s="4">
+        <v>4</v>
+      </c>
+      <c r="K61" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L61" s="8">
+        <v>44904.77550163194</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>Rosalind</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>Schmidt</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <v>Edison85@yahoo.com</v>
+      </c>
+      <c r="E62" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="F62" s="6">
+        <v>252053.68</v>
+      </c>
+      <c r="G62" s="4">
+        <v>2</v>
+      </c>
+      <c r="H62" s="4" t="str">
+        <v>Zboncak LLC, Johnston Group</v>
+      </c>
+      <c r="I62" s="7">
+        <v>7</v>
+      </c>
+      <c r="J62" s="4">
+        <v>6</v>
+      </c>
+      <c r="K62" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L62" s="8">
+        <v>45187.80330626157</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <v>Jacklyn</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <v>Olson</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <v>Watson.Tremblay97@gmail.com</v>
+      </c>
+      <c r="E63" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="F63" s="6">
+        <v>886876.56</v>
+      </c>
+      <c r="G63" s="4">
+        <v>3</v>
+      </c>
+      <c r="H63" s="4" t="str">
+        <v>Mertz, Davis and Bartoletti, Bogan and Sons, O'Conner, Okuneva and Klocko</v>
+      </c>
+      <c r="I63" s="7">
+        <v>7</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2</v>
+      </c>
+      <c r="K63" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L63" s="8">
+        <v>45174.878392708335</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Ova</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>Jakubowski</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <v>Giovanny29@gmail.com</v>
+      </c>
+      <c r="E64" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F64" s="6">
+        <v>465442.65</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4" t="str">
+        <v>Nolan, Heaney and Cormier, Gislason - Terry, Dibbert Inc</v>
+      </c>
+      <c r="I64" s="7">
+        <v>6</v>
+      </c>
+      <c r="J64" s="4">
+        <v>6</v>
+      </c>
+      <c r="K64" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L64" s="8">
+        <v>45005.84888961806</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <v>Jovan</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <v>Champlin</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <v>Brenda.Will@gmail.com</v>
+      </c>
+      <c r="E65" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="F65" s="6">
+        <v>39541.52</v>
+      </c>
+      <c r="G65" s="4">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4" t="str">
+        <v>Tromp Group, Lemke, Langosh and Cummerata, Mitchell, Wintheiser and Frami</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>4</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8">
+        <v>45003.72090010417</v>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>Marty</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>Mraz</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <v>Elbert92@hotmail.com</v>
+      </c>
+      <c r="E66" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F66" s="6">
+        <v>606934.63</v>
+      </c>
+      <c r="G66" s="4">
+        <v>3</v>
+      </c>
+      <c r="H66" s="4" t="str">
+        <v>Hyatt - Oberbrunner, Wintheiser - Upton, Becker, Bergstrom and Sauer</v>
+      </c>
+      <c r="I66" s="7">
+        <v>3</v>
+      </c>
+      <c r="J66" s="4">
+        <v>8</v>
+      </c>
+      <c r="K66" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L66" s="8">
+        <v>45047.45083540509</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <v>Tyrese</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <v>Rath</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <v>Orion2@yahoo.com</v>
+      </c>
+      <c r="E67" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="F67" s="6">
+        <v>516409.54</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="str">
+        <v>Cronin Inc, Walker LLC</v>
+      </c>
+      <c r="I67" s="7">
+        <v>2</v>
+      </c>
+      <c r="J67" s="4">
+        <v>6</v>
+      </c>
+      <c r="K67" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L67" s="8">
+        <v>44947.05971755787</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>Art</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>Wisozk</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <v>Hazel7@yahoo.com</v>
+      </c>
+      <c r="E68" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F68" s="6">
+        <v>892872.32</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4" t="str">
+        <v>Grant - Funk, Kling - Dickinson</v>
+      </c>
+      <c r="I68" s="7">
+        <v>5</v>
+      </c>
+      <c r="J68" s="4">
+        <v>3</v>
+      </c>
+      <c r="K68" s="4">
+        <v>9</v>
+      </c>
+      <c r="L68" s="8">
+        <v>45030.643163912035</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <v>Ryder</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <v>Greenfelder</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <v>Westley.Lockman61@yahoo.com</v>
+      </c>
+      <c r="E69" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="F69" s="6">
+        <v>190217.46</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="str">
+        <v>Kuvalis LLC</v>
+      </c>
+      <c r="I69" s="7">
+        <v>5</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L69" s="8">
+        <v>45102.432175277776</v>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>Joey</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>Huels</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <v>Westley17@gmail.com</v>
+      </c>
+      <c r="E70" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F70" s="6">
+        <v>647821.51</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <v>Volkman - Abshire</v>
+      </c>
+      <c r="I70" s="7">
+        <v>9</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L70" s="8">
+        <v>44959.11030840278</v>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <v>Erik</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <v>Cormier</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <v>Sherman_Pfeffer@gmail.com</v>
+      </c>
+      <c r="E71" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="F71" s="6">
+        <v>427226.22</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4" t="str">
+        <v>Kuhlman, Boyle and Balistreri</v>
+      </c>
+      <c r="I71" s="7">
+        <v>9</v>
+      </c>
+      <c r="J71" s="4">
+        <v>6</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <v>45096.66732530093</v>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Dorothea</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>Mayer</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <v>Anais60@gmail.com</v>
+      </c>
+      <c r="E72" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F72" s="6">
+        <v>407393.66</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I72" s="7">
+        <v>4</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="8">
+        <v>45141.30572094907</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <v>Hermina</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <v>Heathcote</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <v>Eleanora_Thiel@hotmail.com</v>
+      </c>
+      <c r="E73" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="F73" s="6">
+        <v>251481.28</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4" t="str">
+        <v>Torphy, Keeling and Smitham, Simonis, Lynch and Volkman</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>8</v>
+      </c>
+      <c r="K73" s="4">
+        <v>5</v>
+      </c>
+      <c r="L73" s="8">
+        <v>44936.18984232639</v>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>Loma</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v>Muller</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <v>Antwan59@yahoo.com</v>
+      </c>
+      <c r="E74" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="F74" s="6">
+        <v>120407.85</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4" t="str">
+        <v>Klein - Schmeler</v>
+      </c>
+      <c r="I74" s="7">
+        <v>9</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="4">
+        <v>4</v>
+      </c>
+      <c r="L74" s="8">
+        <v>44899.15647837963</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="str">
+        <v>Halle</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <v>Casper</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <v>Phyllis.Pagac4@hotmail.com</v>
+      </c>
+      <c r="E75" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="F75" s="6">
+        <v>26544.05</v>
+      </c>
+      <c r="G75" s="4">
+        <v>3</v>
+      </c>
+      <c r="H75" s="4" t="str">
+        <v>Torphy and Sons, Bailey, Willms and Crooks, Turcotte Group</v>
+      </c>
+      <c r="I75" s="7">
+        <v>6</v>
+      </c>
+      <c r="J75" s="4">
+        <v>8</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <v>44981.39075662037</v>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>Durward</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>Greenfelder</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <v>Carolanne_Franecki@gmail.com</v>
+      </c>
+      <c r="E76" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="F76" s="6">
+        <v>827535.63</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <v>McLaughlin Group, Hilll, Marvin and Stracke</v>
+      </c>
+      <c r="I76" s="7">
+        <v>6</v>
+      </c>
+      <c r="J76" s="4">
+        <v>4</v>
+      </c>
+      <c r="K76" s="4">
+        <v>8</v>
+      </c>
+      <c r="L76" s="8">
+        <v>45230.467930439816</v>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4" t="str">
+        <v>Dorothea</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <v>Mraz</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <v>Tamia54@yahoo.com</v>
+      </c>
+      <c r="E77" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F77" s="6">
+        <v>494321.52</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I77" s="7">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L77" s="8">
+        <v>45129.55405028935</v>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>Quinten</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>Morissette</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v>Cheyanne.Zulauf@hotmail.com</v>
+      </c>
+      <c r="E78" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F78" s="6">
+        <v>266574.29</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <v>Cruickshank LLC</v>
+      </c>
+      <c r="I78" s="7">
+        <v>3</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+      <c r="L78" s="8">
+        <v>45003.291336215276</v>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4" t="str">
+        <v>Hertha</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <v>Schiller</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <v>Kellie.Borer@gmail.com</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F79" s="6">
+        <v>58771.13</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I79" s="7">
+        <v>3</v>
+      </c>
+      <c r="J79" s="4">
+        <v>7</v>
+      </c>
+      <c r="K79" s="4">
+        <v>8</v>
+      </c>
+      <c r="L79" s="8">
+        <v>45167.811033032405</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>Tatum</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>Leannon</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>Miles71@gmail.com</v>
+      </c>
+      <c r="E80" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F80" s="6">
+        <v>229223.67</v>
+      </c>
+      <c r="G80" s="4">
+        <v>2</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <v>Hintz, Kulas and Larkin, Wilderman - Erdman</v>
+      </c>
+      <c r="I80" s="7">
+        <v>2</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L80" s="8">
+        <v>45100.55479616898</v>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4" t="str">
+        <v>Maya</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <v>Muller</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <v>Chesley63@hotmail.com</v>
+      </c>
+      <c r="E81" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="F81" s="6">
+        <v>774045.99</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+      <c r="H81" s="4" t="str">
+        <v>Goyette - Wilkinson, Labadie LLC</v>
+      </c>
+      <c r="I81" s="7">
+        <v>7</v>
+      </c>
+      <c r="J81" s="4">
+        <v>6</v>
+      </c>
+      <c r="K81" s="4">
+        <v>3</v>
+      </c>
+      <c r="L81" s="8">
+        <v>45104.660134756945</v>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>Euna</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>Stokes</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>Madaline8@hotmail.com</v>
+      </c>
+      <c r="E82" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F82" s="6">
+        <v>398790.9</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I82" s="7">
+        <v>4</v>
+      </c>
+      <c r="J82" s="4">
+        <v>3</v>
+      </c>
+      <c r="K82" s="4">
+        <v>5</v>
+      </c>
+      <c r="L82" s="8">
+        <v>44954.11679392361</v>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="str">
+        <v>Corbin</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <v>Kihn</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <v>Jeramie_Hayes20@hotmail.com</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F83" s="6">
+        <v>65709.25</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3</v>
+      </c>
+      <c r="H83" s="4" t="str">
+        <v>Dach - Spencer, Waelchi - Klein, Dickens, Crooks and Collier</v>
+      </c>
+      <c r="I83" s="7">
+        <v>9</v>
+      </c>
+      <c r="J83" s="4">
+        <v>5</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="8">
+        <v>45243.50156332176</v>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>Cleve</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>Schiller</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v>Ashlynn.Schoen@gmail.com</v>
+      </c>
+      <c r="E84" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F84" s="6">
+        <v>68221.74</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <v>Weissnat - Oberbrunner, Blanda, Cruickshank and Lakin</v>
+      </c>
+      <c r="I84" s="7">
+        <v>2</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="8">
+        <v>45212.434352662036</v>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4" t="str">
+        <v>Leola</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <v>Effertz</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <v>Liza29@gmail.com</v>
+      </c>
+      <c r="E85" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="F85" s="6">
+        <v>938781.47</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="H85" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I85" s="7">
+        <v>6</v>
+      </c>
+      <c r="J85" s="4">
+        <v>7</v>
+      </c>
+      <c r="K85" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L85" s="8">
+        <v>44899.36693769676</v>
+      </c>
+    </row>
+    <row r="86" ht="30" customHeight="1">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>Cristina</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>Franey-Oberbrunner</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v>Kane.Gulgowski36@yahoo.com</v>
+      </c>
+      <c r="E86" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="F86" s="6">
+        <v>999610.84</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>Nader Group</v>
+      </c>
+      <c r="I86" s="7">
+        <v>6</v>
+      </c>
+      <c r="J86" s="4">
+        <v>5</v>
+      </c>
+      <c r="K86" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L86" s="8">
+        <v>44899.96517859954</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4" t="str">
+        <v>Amalia</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <v>Schroeder</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <v>Brian.Cassin38@hotmail.com</v>
+      </c>
+      <c r="E87" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="F87" s="6">
+        <v>241105.42</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="H87" s="4" t="str">
+        <v>Lehner, Stoltenberg and Weissnat, Lockman, Hoppe and Kuhlman</v>
+      </c>
+      <c r="I87" s="7">
+        <v>8</v>
+      </c>
+      <c r="J87" s="4">
+        <v>7</v>
+      </c>
+      <c r="K87" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L87" s="8">
+        <v>45217.80047353009</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>Treva</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>Mohr</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>Chester_Lemke20@hotmail.com</v>
+      </c>
+      <c r="E88" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F88" s="6">
+        <v>495796.78</v>
+      </c>
+      <c r="G88" s="4">
+        <v>4</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <v>Kuhlman Group, Yost - Thompson, Thiel Group, Stracke, Rau and Maggio</v>
+      </c>
+      <c r="I88" s="7">
+        <v>8</v>
+      </c>
+      <c r="J88" s="4">
+        <v>6</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="8">
+        <v>45257.58131826389</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4" t="str">
+        <v>Christopher</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <v>McCullough</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <v>Reinhold23@hotmail.com</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="F89" s="6">
+        <v>130938.01</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4" t="str">
+        <v>Mitchell, Muller and Boyle</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>5</v>
+      </c>
+      <c r="K89" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L89" s="8">
+        <v>44988.88499939815</v>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>Jamir</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>Ferry</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v>Zachery_Stehr@yahoo.com</v>
+      </c>
+      <c r="E90" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="F90" s="6">
+        <v>588400.89</v>
+      </c>
+      <c r="G90" s="4">
+        <v>2</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <v>Reynolds - Breitenberg, Ernser - Herzog</v>
+      </c>
+      <c r="I90" s="7">
+        <v>6</v>
+      </c>
+      <c r="J90" s="4">
+        <v>6</v>
+      </c>
+      <c r="K90" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L90" s="8">
+        <v>45221.85317141204</v>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4" t="str">
+        <v>Estell</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <v>Mertz</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <v>Brennan89@hotmail.com</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="F91" s="6">
+        <v>514283.53</v>
+      </c>
+      <c r="G91" s="4">
+        <v>4</v>
+      </c>
+      <c r="H91" s="4" t="str">
+        <v>Hettinger - Little, Littel - Bode, White, Zieme and Abshire, Carroll - Kohler</v>
+      </c>
+      <c r="I91" s="7">
+        <v>9</v>
+      </c>
+      <c r="J91" s="4">
+        <v>9</v>
+      </c>
+      <c r="K91" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L91" s="8">
+        <v>45240.065200868055</v>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>Jayson</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>Schamberger</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>Emiliano_Franecki99@yahoo.com</v>
+      </c>
+      <c r="E92" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="F92" s="6">
+        <v>460934.79</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I92" s="7">
+        <v>4</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>5</v>
+      </c>
+      <c r="L92" s="8">
+        <v>45060.92107737269</v>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <v>Jana</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <v>Farrell</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <v>Daron_Tillman@yahoo.com</v>
+      </c>
+      <c r="E93" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F93" s="6">
+        <v>697694.61</v>
+      </c>
+      <c r="G93" s="4">
+        <v>4</v>
+      </c>
+      <c r="H93" s="4" t="str">
+        <v>Weimann - West, MacGyver - Pouros, Gutmann, Flatley and Schaden, Huel - Rice</v>
+      </c>
+      <c r="I93" s="7">
+        <v>9</v>
+      </c>
+      <c r="J93" s="4">
+        <v>8</v>
+      </c>
+      <c r="K93" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L93" s="8">
+        <v>44966.950335092595</v>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>Davion</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v>Lubowitz</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <v>Christ.Batz@gmail.com</v>
+      </c>
+      <c r="E94" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="F94" s="6">
+        <v>213273.17</v>
+      </c>
+      <c r="G94" s="4">
+        <v>3</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <v>Beahan - Langworth, Hettinger, Will and Schultz, Herzog - Schaden</v>
+      </c>
+      <c r="I94" s="7">
+        <v>8</v>
+      </c>
+      <c r="J94" s="4">
+        <v>8</v>
+      </c>
+      <c r="K94" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L94" s="8">
+        <v>45084.067677569445</v>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <v>Malika</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <v>Hauck</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <v>Regan_Doyle26@yahoo.com</v>
+      </c>
+      <c r="E95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F95" s="6">
+        <v>127636.06</v>
+      </c>
+      <c r="G95" s="4">
+        <v>3</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <v>Rohan - Klein, Bogisich - Bogan, Larkin, Bogisich and Russel</v>
+      </c>
+      <c r="I95" s="7">
+        <v>3</v>
+      </c>
+      <c r="J95" s="4">
+        <v>9</v>
+      </c>
+      <c r="K95" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L95" s="8">
+        <v>45074.659047719906</v>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>Betsy</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v>Sipes</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <v>Jerad.Tillman@yahoo.com</v>
+      </c>
+      <c r="E96" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F96" s="6">
+        <v>50203.22</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <v>8</v>
+      </c>
+      <c r="K96" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L96" s="8">
+        <v>45242.83239094907</v>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <v>Sanford</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <v>Bernhard</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <v>Piper31@gmail.com</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F97" s="6">
+        <v>866505.23</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I97" s="7">
+        <v>5</v>
+      </c>
+      <c r="J97" s="4">
+        <v>5</v>
+      </c>
+      <c r="K97" s="4">
+        <v>2</v>
+      </c>
+      <c r="L97" s="8">
+        <v>44917.789146979165</v>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>Kristina</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v>Ratke</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v>Marie.Mills89@hotmail.com</v>
+      </c>
+      <c r="E98" s="5" t="str">
+        <v/>
+      </c>
+      <c r="F98" s="6">
+        <v>45756.64</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <v>Beahan, Nienow and Bayer</v>
+      </c>
+      <c r="I98" s="7">
+        <v>8</v>
+      </c>
+      <c r="J98" s="4">
+        <v>8</v>
+      </c>
+      <c r="K98" s="4">
+        <v>5</v>
+      </c>
+      <c r="L98" s="8">
+        <v>45246.02058935185</v>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <v>Kyle</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <v>Kutch</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <v>Beryl93@gmail.com</v>
+      </c>
+      <c r="E99" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="F99" s="6">
+        <v>616393.52</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <v>Corwin - Mills, Medhurst Inc, Pacocha LLC, Mraz - Schultz</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1</v>
+      </c>
+      <c r="J99" s="4">
+        <v>7</v>
+      </c>
+      <c r="K99" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L99" s="8">
+        <v>44910.90710657407</v>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>Jasper</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>Bergnaum</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v>Jaycee_Schaden24@gmail.com</v>
+      </c>
+      <c r="E100" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="F100" s="6">
+        <v>100956.57</v>
+      </c>
+      <c r="G100" s="4">
+        <v>3</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>Kub - Keeling, Tromp LLC, Friesen LLC</v>
+      </c>
+      <c r="I100" s="7">
+        <v>6</v>
+      </c>
+      <c r="J100" s="4">
+        <v>6</v>
+      </c>
+      <c r="K100" s="4">
+        <v>3</v>
+      </c>
+      <c r="L100" s="8">
+        <v>45109.533466030094</v>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <v>Alva</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <v>Zboncak</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <v>Francis.Collins@hotmail.com</v>
+      </c>
+      <c r="E101" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="F101" s="6">
+        <v>787952</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4" t="str">
+        <v>Pfeffer, Hyatt and Franecki</v>
+      </c>
+      <c r="I101" s="7">
+        <v>6</v>
+      </c>
+      <c r="J101" s="4">
+        <v>9</v>
+      </c>
+      <c r="K101" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="L101" s="8">
+        <v>44965.47460596065</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1029,117 +4450,4061 @@
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="4" t="str">
-        <v>Jewell</v>
+        <v>Brando</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Schaefer</v>
+        <v>Hayes</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Wilhelmine.Miller@gmail.com</v>
+        <v>Seth_Lemke@gmail.com</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="str">
-        <v>Deven</v>
+        <v>Lou</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>Treutel</v>
+        <v>Pfannerstill</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Rosalinda.Feest37@yahoo.com</v>
+        <v>Domenick.Predovic@hotmail.com</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="4" t="str">
-        <v>Florida</v>
+        <v>Darion</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Durgan</v>
+        <v>Beatty</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Annabelle.Russel@gmail.com</v>
+        <v>Efrain.Auer@gmail.com</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="4" t="str">
-        <v>Kasey</v>
+        <v>Bernice</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>Pfeffer</v>
+        <v>Nienow</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Zula2@hotmail.com</v>
+        <v>Casimer.Brakus88@gmail.com</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="4" t="str">
-        <v>Salvatore</v>
+        <v>Christophe</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Feest</v>
+        <v>McGlynn-Howell</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Amely.Hilpert@gmail.com</v>
+        <v>Janis_Wunsch77@yahoo.com</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="str">
-        <v>Vladimir</v>
+        <v>Hollis</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>DuBuque</v>
+        <v>Koss</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Bryon_Ankunding9@hotmail.com</v>
+        <v>Verda.Gottlieb27@hotmail.com</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="str">
-        <v>Toy</v>
+        <v>Danielle</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Gislason</v>
+        <v>Schaefer</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Marques_Luettgen@gmail.com</v>
+        <v>Estefania62@gmail.com</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="4" t="str">
-        <v>Collin</v>
+        <v>Caterina</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>Waelchi</v>
+        <v>Gorczany</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Anais.Bergnaum@gmail.com</v>
+        <v>Mafalda_Gleichner@gmail.com</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="4" t="str">
-        <v>Casimir</v>
+        <v>Scotty</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Dietrich</v>
+        <v>Runolfsdottir</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Jazmyn.Bogisich52@hotmail.com</v>
+        <v>Veronica60@gmail.com</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="4" t="str">
-        <v>Kirsten</v>
+        <v>Hubert</v>
       </c>
       <c r="B11" s="4" t="str">
+        <v>D'Amore</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <v>Wilson.Emard@yahoo.com</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="4" t="str">
+        <v>Gage</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <v>Braun</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>Kody.Shields@yahoo.com</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="4" t="str">
+        <v>Ulices</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <v>Langworth</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v>Berry_Grady1@yahoo.com</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="4" t="str">
+        <v>Jayda</v>
+      </c>
+      <c r="B14" s="4" t="str">
         <v>White</v>
       </c>
-      <c r="C11" s="4" t="str">
-        <v>Ruth_Mitchell25@hotmail.com</v>
+      <c r="C14" s="4" t="str">
+        <v>Jermey81@hotmail.com</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="4" t="str">
+        <v>Cyril</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <v>Wisozk</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v>Fernando.Hahn11@hotmail.com</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="4" t="str">
+        <v>Theresa</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <v>Powlowski</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>Macey.Swaniawski83@hotmail.com</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="4" t="str">
+        <v>Sheila</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <v>Mann-Durgan</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <v>Derek.Bartoletti@gmail.com</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="4" t="str">
+        <v>Harry</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <v>Hickle</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v>Trevor39@yahoo.com</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="4" t="str">
+        <v>Ken</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <v>Kessler</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <v>Brooklyn15@hotmail.com</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="4" t="str">
+        <v>Sabrina</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>Dickens</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>Noemi21@gmail.com</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="4" t="str">
+        <v>Kristopher</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <v>Hessel</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <v>Myah34@hotmail.com</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="4" t="str">
+        <v>Payton</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v>Doyle</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>Tyree69@gmail.com</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="4" t="str">
+        <v>Dayne</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <v>Schroeder</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <v>Lorna.Hessel@gmail.com</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="4" t="str">
+        <v>Hilario</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <v>Zboncak</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>Amaya_Cassin27@yahoo.com</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="4" t="str">
+        <v>Adelia</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <v>Nikolaus</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <v>Everardo_OConnell@yahoo.com</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="4" t="str">
+        <v>Yasmin</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <v>Bartell</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>Casey_Kessler56@hotmail.com</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="4" t="str">
+        <v>Randall</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <v>Jast</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <v>Camren24@gmail.com</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="4" t="str">
+        <v>Dale</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v>Kozey</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <v>George_Predovic@yahoo.com</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="4" t="str">
+        <v>Elta</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <v>Schamberger</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <v>Della.Vandervort@gmail.com</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="4" t="str">
+        <v>Ward</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v>O'Conner</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <v>Ceasar13@hotmail.com</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="4" t="str">
+        <v>Mathias</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <v>Hoppe</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <v>Effie86@gmail.com</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="4" t="str">
+        <v>Carmelo</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v>Hilll</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <v>Albina_Oberbrunner@yahoo.com</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="4" t="str">
+        <v>Sophie</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <v>Walker</v>
+      </c>
+      <c r="C33" s="4" t="str">
+        <v>Mackenzie_Kuphal13@hotmail.com</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="4" t="str">
+        <v>Erik</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>Cassin</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <v>Loyal_Jaskolski36@hotmail.com</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="4" t="str">
+        <v>Joshua</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <v>Hackett</v>
+      </c>
+      <c r="C35" s="4" t="str">
+        <v>Grayson.Kub@gmail.com</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="4" t="str">
+        <v>Ryann</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>Armstrong-Monahan</v>
+      </c>
+      <c r="C36" s="4" t="str">
+        <v>Jillian.Lebsack51@hotmail.com</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="4" t="str">
+        <v>Meaghan</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <v>Heaney</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <v>Stanford.Schoen59@hotmail.com</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="4" t="str">
+        <v>Salvatore</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>Champlin</v>
+      </c>
+      <c r="C38" s="4" t="str">
+        <v>Floy.Mraz-Stiedemann@hotmail.com</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="4" t="str">
+        <v>Ron</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <v>Pollich</v>
+      </c>
+      <c r="C39" s="4" t="str">
+        <v>Norene.Aufderhar19@hotmail.com</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="4" t="str">
+        <v>Eva</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v>Kihn</v>
+      </c>
+      <c r="C40" s="4" t="str">
+        <v>Duncan25@hotmail.com</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="4" t="str">
+        <v>Rossie</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <v>Cartwright</v>
+      </c>
+      <c r="C41" s="4" t="str">
+        <v>Joel.Rohan76@hotmail.com</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="4" t="str">
+        <v>Idell</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>Hoppe</v>
+      </c>
+      <c r="C42" s="4" t="str">
+        <v>Anika_Bechtelar-Krajcik@hotmail.com</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1">
+      <c r="A43" s="4" t="str">
+        <v>Germaine</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <v>Krajcik</v>
+      </c>
+      <c r="C43" s="4" t="str">
+        <v>Manuel_Schiller@gmail.com</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1">
+      <c r="A44" s="4" t="str">
+        <v>Leon</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>Barrows-Zulauf</v>
+      </c>
+      <c r="C44" s="4" t="str">
+        <v>Jackeline_Hodkiewicz57@gmail.com</v>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="4" t="str">
+        <v>Rylee</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <v>Heller</v>
+      </c>
+      <c r="C45" s="4" t="str">
+        <v>Earline_Skiles85@hotmail.com</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="4" t="str">
+        <v>Dan</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>Spencer</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <v>Dudley_Daugherty@yahoo.com</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="4" t="str">
+        <v>Sedrick</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <v>Mohr</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <v>Brown.Will59@yahoo.com</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="4" t="str">
+        <v>Meggie</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>Runte</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <v>Adelle_Sanford@hotmail.com</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="4" t="str">
+        <v>Lizzie</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <v>Judy_Cronin@hotmail.com</v>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="4" t="str">
+        <v>Florence</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>Steuber</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <v>Granville86@hotmail.com</v>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="4" t="str">
+        <v>Jammie</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <v>O'Conner</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <v>Kacey.Homenick33@gmail.com</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="4" t="str">
+        <v>Kelsie</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>Hartmann</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <v>Shirley_Wuckert-Hodkiewicz@gmail.com</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1">
+      <c r="A53" s="4" t="str">
+        <v>Merle</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <v>Bins</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <v>Earnest.Walsh@gmail.com</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="4" t="str">
+        <v>Quincy</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>Willms</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <v>Stephan.Cronin@yahoo.com</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="4" t="str">
+        <v>Brook</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <v>Klein</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <v>Mertie.Watsica-Kulas36@yahoo.com</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="4" t="str">
+        <v>Sibyl</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>Kreiger</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <v>Estrella60@hotmail.com</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="4" t="str">
+        <v>Lucio</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <v>Hilll</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <v>Virginie.Bins@hotmail.com</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="4" t="str">
+        <v>Nannie</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>Hamill</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <v>Mona_Prohaska43@gmail.com</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="4" t="str">
+        <v>Jalon</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <v>Dooley</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <v>Frank62@hotmail.com</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="4" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>Smith</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <v>Zelda.Lesch@hotmail.com</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="4" t="str">
+        <v>Garrison</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <v>Considine</v>
+      </c>
+      <c r="C61" s="4" t="str">
+        <v>Camille.Veum73@gmail.com</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="4" t="str">
+        <v>Rosalind</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>Schmidt</v>
+      </c>
+      <c r="C62" s="4" t="str">
+        <v>Edison85@yahoo.com</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="4" t="str">
+        <v>Jacklyn</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <v>Olson</v>
+      </c>
+      <c r="C63" s="4" t="str">
+        <v>Watson.Tremblay97@gmail.com</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="4" t="str">
+        <v>Ova</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>Jakubowski</v>
+      </c>
+      <c r="C64" s="4" t="str">
+        <v>Giovanny29@gmail.com</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="4" t="str">
+        <v>Jovan</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <v>Champlin</v>
+      </c>
+      <c r="C65" s="4" t="str">
+        <v>Brenda.Will@gmail.com</v>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="4" t="str">
+        <v>Marty</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>Mraz</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <v>Elbert92@hotmail.com</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1">
+      <c r="A67" s="4" t="str">
+        <v>Tyrese</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <v>Rath</v>
+      </c>
+      <c r="C67" s="4" t="str">
+        <v>Orion2@yahoo.com</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="A68" s="4" t="str">
+        <v>Art</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>Wisozk</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <v>Hazel7@yahoo.com</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1">
+      <c r="A69" s="4" t="str">
+        <v>Ryder</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <v>Greenfelder</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <v>Westley.Lockman61@yahoo.com</v>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="4" t="str">
+        <v>Joey</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>Huels</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <v>Westley17@gmail.com</v>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="4" t="str">
+        <v>Erik</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <v>Cormier</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <v>Sherman_Pfeffer@gmail.com</v>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="4" t="str">
+        <v>Dorothea</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>Mayer</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <v>Anais60@gmail.com</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="4" t="str">
+        <v>Hermina</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <v>Heathcote</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <v>Eleanora_Thiel@hotmail.com</v>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="4" t="str">
+        <v>Loma</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>Muller</v>
+      </c>
+      <c r="C74" s="4" t="str">
+        <v>Antwan59@yahoo.com</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="4" t="str">
+        <v>Halle</v>
+      </c>
+      <c r="B75" s="4" t="str">
+        <v>Casper</v>
+      </c>
+      <c r="C75" s="4" t="str">
+        <v>Phyllis.Pagac4@hotmail.com</v>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="4" t="str">
+        <v>Durward</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>Greenfelder</v>
+      </c>
+      <c r="C76" s="4" t="str">
+        <v>Carolanne_Franecki@gmail.com</v>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="4" t="str">
+        <v>Dorothea</v>
+      </c>
+      <c r="B77" s="4" t="str">
+        <v>Mraz</v>
+      </c>
+      <c r="C77" s="4" t="str">
+        <v>Tamia54@yahoo.com</v>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="4" t="str">
+        <v>Quinten</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>Morissette</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>Cheyanne.Zulauf@hotmail.com</v>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1">
+      <c r="A79" s="4" t="str">
+        <v>Hertha</v>
+      </c>
+      <c r="B79" s="4" t="str">
+        <v>Schiller</v>
+      </c>
+      <c r="C79" s="4" t="str">
+        <v>Kellie.Borer@gmail.com</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1">
+      <c r="A80" s="4" t="str">
+        <v>Tatum</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>Leannon</v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v>Miles71@gmail.com</v>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="4" t="str">
+        <v>Maya</v>
+      </c>
+      <c r="B81" s="4" t="str">
+        <v>Muller</v>
+      </c>
+      <c r="C81" s="4" t="str">
+        <v>Chesley63@hotmail.com</v>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1">
+      <c r="A82" s="4" t="str">
+        <v>Euna</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>Stokes</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>Madaline8@hotmail.com</v>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1">
+      <c r="A83" s="4" t="str">
+        <v>Corbin</v>
+      </c>
+      <c r="B83" s="4" t="str">
+        <v>Kihn</v>
+      </c>
+      <c r="C83" s="4" t="str">
+        <v>Jeramie_Hayes20@hotmail.com</v>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1">
+      <c r="A84" s="4" t="str">
+        <v>Cleve</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>Schiller</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>Ashlynn.Schoen@gmail.com</v>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="4" t="str">
+        <v>Leola</v>
+      </c>
+      <c r="B85" s="4" t="str">
+        <v>Effertz</v>
+      </c>
+      <c r="C85" s="4" t="str">
+        <v>Liza29@gmail.com</v>
+      </c>
+    </row>
+    <row r="86" ht="30" customHeight="1">
+      <c r="A86" s="4" t="str">
+        <v>Cristina</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>Franey-Oberbrunner</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>Kane.Gulgowski36@yahoo.com</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1">
+      <c r="A87" s="4" t="str">
+        <v>Amalia</v>
+      </c>
+      <c r="B87" s="4" t="str">
+        <v>Schroeder</v>
+      </c>
+      <c r="C87" s="4" t="str">
+        <v>Brian.Cassin38@hotmail.com</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1">
+      <c r="A88" s="4" t="str">
+        <v>Treva</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>Mohr</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>Chester_Lemke20@hotmail.com</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1">
+      <c r="A89" s="4" t="str">
+        <v>Christopher</v>
+      </c>
+      <c r="B89" s="4" t="str">
+        <v>McCullough</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <v>Reinhold23@hotmail.com</v>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1">
+      <c r="A90" s="4" t="str">
+        <v>Jamir</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>Ferry</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>Zachery_Stehr@yahoo.com</v>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1">
+      <c r="A91" s="4" t="str">
+        <v>Estell</v>
+      </c>
+      <c r="B91" s="4" t="str">
+        <v>Mertz</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <v>Brennan89@hotmail.com</v>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1">
+      <c r="A92" s="4" t="str">
+        <v>Jayson</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>Schamberger</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>Emiliano_Franecki99@yahoo.com</v>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1">
+      <c r="A93" s="4" t="str">
+        <v>Jana</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <v>Farrell</v>
+      </c>
+      <c r="C93" s="4" t="str">
+        <v>Daron_Tillman@yahoo.com</v>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1">
+      <c r="A94" s="4" t="str">
+        <v>Davion</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>Lubowitz</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v>Christ.Batz@gmail.com</v>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1">
+      <c r="A95" s="4" t="str">
+        <v>Malika</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <v>Hauck</v>
+      </c>
+      <c r="C95" s="4" t="str">
+        <v>Regan_Doyle26@yahoo.com</v>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="4" t="str">
+        <v>Betsy</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>Sipes</v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v>Jerad.Tillman@yahoo.com</v>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1">
+      <c r="A97" s="4" t="str">
+        <v>Sanford</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <v>Bernhard</v>
+      </c>
+      <c r="C97" s="4" t="str">
+        <v>Piper31@gmail.com</v>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="4" t="str">
+        <v>Kristina</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>Ratke</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v>Marie.Mills89@hotmail.com</v>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1">
+      <c r="A99" s="4" t="str">
+        <v>Kyle</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <v>Kutch</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <v>Beryl93@gmail.com</v>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="4" t="str">
+        <v>Jasper</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>Bergnaum</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>Jaycee_Schaden24@gmail.com</v>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1">
+      <c r="A101" s="4" t="str">
+        <v>Alva</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <v>Zboncak</v>
+      </c>
+      <c r="C101" s="4" t="str">
+        <v>Francis.Collins@hotmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C101"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="95.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="3" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <v>Roles</v>
+      </c>
+      <c r="C1" s="3" t="str">
+        <v>Balance</v>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v>Nb orgs</v>
+      </c>
+      <c r="E1" s="3" t="str">
+        <v>Orgs</v>
+      </c>
+      <c r="F1" s="3" t="str">
+        <v>General score</v>
+      </c>
+      <c r="G1" s="3" t="str">
+        <v>Technical score</v>
+      </c>
+      <c r="H1" s="3" t="str">
+        <v>Interview score</v>
+      </c>
+      <c r="I1" s="3" t="str">
+        <v>Created at</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C2" s="6">
+        <v>926559.89</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <v>Franecki, Mills and Rutherford, Leannon and Sons, Gusikowski - Collins</v>
+      </c>
+      <c r="F2" s="7">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I2" s="8">
+        <v>45052.31842101852</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="str">
+        <v>user, manager, guest</v>
+      </c>
+      <c r="C3" s="6">
+        <v>780359.85</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <v>Schuppe - Stark, Rosenbaum, Welch and Schmidt, O'Connell, Mitchell and Mosciski</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I3" s="8">
+        <v>45064.035485775465</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="C4" s="6">
+        <v>471867.02</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <v>Huels, Durgan and Yost, Conn - Gerlach</v>
+      </c>
+      <c r="F4" s="7">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>44977.91254358796</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C5" s="6">
+        <v>586717.05</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <v>Greenfelder Inc</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45154.270017476854</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C6" s="6">
+        <v>850316.25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <v>Stiedemann, Littel and Reichert, Jacobson, Beer and Zboncak, Weissnat Inc, Senger and Sons</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45213.86411216435</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C7" s="6">
+        <v>313063.68</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <v>Mills and Sons</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>44985.60452905093</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C8" s="6">
+        <v>506259.24</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45156.43021204861</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C9" s="6">
+        <v>866030.11</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <v>Terry Group</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8">
+        <v>44999.1722203125</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C10" s="6">
+        <v>506901.04</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I10" s="8">
+        <v>44912.906891527775</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="C11" s="6">
+        <v>711080.14</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <v>Abbott, Rodriguez and Wyman, Kub Group, Keeling Inc</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>44967.58669280093</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C12" s="6">
+        <v>771205</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>45156.962936689815</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C13" s="6">
+        <v>604581.76</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <v>Lockman - Upton, Casper and Sons</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>9</v>
+      </c>
+      <c r="I13" s="8">
+        <v>45237.62977508102</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C14" s="6">
+        <v>92447.32</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <v>Ondricka, Kuhlman and Brakus, Bins - Ryan</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8">
+        <v>45167.989595266205</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C15" s="6">
+        <v>708824.49</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <v>Rempel - Kozey, Parker, Cole and Moen, Weimann, Dooley and Renner</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45025.073245196756</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C16" s="6">
+        <v>780684.71</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <v>Cummerata Inc, Hodkiewicz - Larkin</v>
+      </c>
+      <c r="F16" s="7">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>45179.208274606484</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C17" s="6">
+        <v>431792.12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <v>Hartmann, Waters and Haley, Abernathy LLC, Cassin LLC, Hahn - Ritchie</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I17" s="8">
+        <v>45090.8790287963</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C18" s="6">
+        <v>21831.3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <v>Stracke - O'Reilly, Will - Hettinger, McLaughlin - Kihn, Green - Halvorson</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>44965.93971737268</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C19" s="6">
+        <v>310454.39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <v>Robel, Bartoletti and Kessler, Veum, Bernier and Harber, Weissnat Inc</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8">
+        <v>45149.34579582176</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="C20" s="6">
+        <v>392900.85</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>Wilkinson - Durgan</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>45234.3754925</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C21" s="6">
+        <v>261414.3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <v>Casper Inc, Kub, Wintheiser and Haag, Harber - Wehner, McCullough Inc</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I21" s="8">
+        <v>44988.41965375</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42610.59</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F22" s="7">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>45127.73932475694</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="C23" s="6">
+        <v>437569.03</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <v>Kuhic, Sanford and Kassulke, Pfannerstill Group</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I23" s="8">
+        <v>45052.445802152775</v>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C24" s="6">
+        <v>442785.09</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v>Braun and Sons, Anderson, Armstrong and Emard, Kunde LLC, Hermann and Sons</v>
+      </c>
+      <c r="F24" s="7">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I24" s="8">
+        <v>45055.1338702662</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="C25" s="6">
+        <v>887377.29</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <v>Friesen, Reynolds and Kutch, Dach - Balistreri, Cummings Group, Pacocha Inc</v>
+      </c>
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45115.937372430555</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C26" s="6">
+        <v>833583.85</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v>Ryan, Roob and Doyle, Cummings - Turcotte, Fisher Inc</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>9</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I26" s="8">
+        <v>45231.53006672454</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="C27" s="6">
+        <v>338814.3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <v>Von, Jacobs and Wolff</v>
+      </c>
+      <c r="F27" s="7">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9</v>
+      </c>
+      <c r="I27" s="8">
+        <v>45186.36550136574</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="str">
+        <v>user, manager, guest</v>
+      </c>
+      <c r="C28" s="6">
+        <v>590399.39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>7</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45202.815583344905</v>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="C29" s="6">
+        <v>810255.39</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="str">
+        <v>Hoeger - Cartwright, Carter and Sons, Stokes, Howe and Hagenes, Davis - Cremin</v>
+      </c>
+      <c r="F29" s="7">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>6</v>
+      </c>
+      <c r="I29" s="8">
+        <v>45261.41700826389</v>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C30" s="6">
+        <v>933553.28</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <v>Okuneva, Aufderhar and Smith, Pfeffer - Abernathy, Kunde, Ward and Considine</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I30" s="8">
+        <v>44933.694002766206</v>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="C31" s="6">
+        <v>663515.74</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <v>Gorczany - Rau, Prohaska and Sons, Simonis - Blick</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>8</v>
+      </c>
+      <c r="I31" s="8">
+        <v>45095.102936689815</v>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C32" s="6">
+        <v>318587.86</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <v>Steuber - Bechtelar, Nikolaus Inc, Turner, Wolff and Connelly, Kling - Bosco</v>
+      </c>
+      <c r="F32" s="7">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <v>44978.78060261574</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C33" s="6">
+        <v>692586.36</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="8">
+        <v>45186.873391284724</v>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C34" s="6">
+        <v>335391.99</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <v>Volkman - Von, Bins, Nolan and Vandervort, Predovic - Rodriguez</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I34" s="8">
+        <v>45012.27351204861</v>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="C35" s="6">
+        <v>292338.87</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <v>Watsica Group, Brakus, Bogan and Reichert</v>
+      </c>
+      <c r="F35" s="7">
+        <v>6</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4">
+        <v>9</v>
+      </c>
+      <c r="I35" s="8">
+        <v>45015.95864601852</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C36" s="6">
+        <v>764150.34</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="str">
+        <v>Greenfelder Inc, Johnston and Sons</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
+      <c r="I36" s="8">
+        <v>45008.537768622686</v>
+      </c>
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="C37" s="6">
+        <v>594308.68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F37" s="7">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>6</v>
+      </c>
+      <c r="I37" s="8">
+        <v>45214.77200297454</v>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="C38" s="6">
+        <v>34258.03</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="str">
+        <v>Bernier - Swift, Schmeler - Hudson, Boyle LLC, Marvin LLC</v>
+      </c>
+      <c r="F38" s="7">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>9</v>
+      </c>
+      <c r="I38" s="8">
+        <v>45052.50276739583</v>
+      </c>
+    </row>
+    <row r="39" ht="30" customHeight="1">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C39" s="6">
+        <v>276311.56</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="str">
+        <v>Stamm - Ward, Hilll and Sons, Klocko, Miller and Kovacek, Walter, Murazik and Schulist</v>
+      </c>
+      <c r="F39" s="7">
+        <v>9</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>44996.344733460646</v>
+      </c>
+    </row>
+    <row r="40" ht="30" customHeight="1">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C40" s="6">
+        <v>676219.9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4" t="str">
+        <v>Reilly, Jacobs and Hickle, Gutkowski Inc, Gorczany - Daniel, Boyer - Altenwerth</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I40" s="8">
+        <v>45041.99884599537</v>
+      </c>
+    </row>
+    <row r="41" ht="30" customHeight="1">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C41" s="6">
+        <v>466585.72</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>44904.05842814815</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="C42" s="6">
+        <v>962051.73</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F42" s="7">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I42" s="8">
+        <v>45194.245144837965</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="C43" s="6">
+        <v>579978.75</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4" t="str">
+        <v>Stokes - Nicolas, Ortiz, Dickinson and Runolfsson</v>
+      </c>
+      <c r="F43" s="7">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3</v>
+      </c>
+      <c r="H43" s="4">
+        <v>6</v>
+      </c>
+      <c r="I43" s="8">
+        <v>45021.88141565972</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C44" s="6">
+        <v>484918.06</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <v>Rosenbaum LLC, Schaden Inc</v>
+      </c>
+      <c r="F44" s="7">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>9</v>
+      </c>
+      <c r="I44" s="8">
+        <v>45056.395872395835</v>
+      </c>
+    </row>
+    <row r="45" ht="30" customHeight="1">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C45" s="6">
+        <v>908893.91</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <v>Feil, Jakubowski and Fahey, Connelly - Renner, Nader, Feil and Herzog</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
+      <c r="H45" s="4">
+        <v>9</v>
+      </c>
+      <c r="I45" s="8">
+        <v>45084.935041006946</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="C46" s="6">
+        <v>768871.1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <v>Roberts - Weissnat, Beer, Langworth and Shanahan, Schmeler, Schmitt and Reilly</v>
+      </c>
+      <c r="F46" s="7">
+        <v>8</v>
+      </c>
+      <c r="G46" s="4">
+        <v>9</v>
+      </c>
+      <c r="H46" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I46" s="8">
+        <v>45111.43853732639</v>
+      </c>
+    </row>
+    <row r="47" ht="30" customHeight="1">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="C47" s="6">
+        <v>814503.32</v>
+      </c>
+      <c r="D47" s="4">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <v>Anderson, Anderson and Gislason, Littel - Nienow, Stroman - Streich, Cremin Group</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6</v>
+      </c>
+      <c r="H47" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I47" s="8">
+        <v>45246.95620369213</v>
+      </c>
+    </row>
+    <row r="48" ht="30" customHeight="1">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C48" s="6">
+        <v>123417.38</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I48" s="8">
+        <v>45026.52696403935</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C49" s="6">
+        <v>421627.74</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <v>Wintheiser - Luettgen, Yundt, Ortiz and Thompson</v>
+      </c>
+      <c r="F49" s="7">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>9</v>
+      </c>
+      <c r="I49" s="8">
+        <v>44988.77236753472</v>
+      </c>
+    </row>
+    <row r="50" ht="30" customHeight="1">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="C50" s="6">
+        <v>971551.7</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <v>Williamson - Harris, Bogan Group</v>
+      </c>
+      <c r="F50" s="7">
+        <v>5</v>
+      </c>
+      <c r="G50" s="4">
+        <v>8</v>
+      </c>
+      <c r="H50" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I50" s="8">
+        <v>44945.909519560184</v>
+      </c>
+    </row>
+    <row r="51" ht="30" customHeight="1">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C51" s="6">
+        <v>866464.05</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <v>Heathcote and Sons, Littel - Rempel</v>
+      </c>
+      <c r="F51" s="7">
+        <v>5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>3</v>
+      </c>
+      <c r="I51" s="8">
+        <v>45099.9878187963</v>
+      </c>
+    </row>
+    <row r="52" ht="30" customHeight="1">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="C52" s="6">
+        <v>23355.47</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <v>Block - Kautzer</v>
+      </c>
+      <c r="F52" s="7">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4">
+        <v>3</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5</v>
+      </c>
+      <c r="I52" s="8">
+        <v>45156.607919201386</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <v>user, manager, guest</v>
+      </c>
+      <c r="C53" s="6">
+        <v>965502.55</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="7">
+        <v>2</v>
+      </c>
+      <c r="G53" s="4">
+        <v>8</v>
+      </c>
+      <c r="H53" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I53" s="8">
+        <v>44978.03928030092</v>
+      </c>
+    </row>
+    <row r="54" ht="30" customHeight="1">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C54" s="6">
+        <v>116960.44</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5</v>
+      </c>
+      <c r="H54" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I54" s="8">
+        <v>45192.45049974537</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C55" s="6">
+        <v>153872.09</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <v>Hilpert, Turner and Ortiz, Bogisich and Sons, Marvin and Sons, Monahan - Altenwerth</v>
+      </c>
+      <c r="F55" s="7">
+        <v>7</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5</v>
+      </c>
+      <c r="H55" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I55" s="8">
+        <v>45103.78249626157</v>
+      </c>
+    </row>
+    <row r="56" ht="30" customHeight="1">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C56" s="6">
+        <v>187296.04</v>
+      </c>
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <v>Paucek, Wisozk and Anderson, Baumbach - Braun, Pollich - Emard, Johns, Legros and Rice</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>4</v>
+      </c>
+      <c r="H56" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I56" s="8">
+        <v>45031.45447582176</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="C57" s="6">
+        <v>525877.62</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4" t="str">
+        <v>Beatty, Sipes and Braun, Sanford, Gerhold and Raynor</v>
+      </c>
+      <c r="F57" s="7">
+        <v>5</v>
+      </c>
+      <c r="G57" s="4">
+        <v>6</v>
+      </c>
+      <c r="H57" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I57" s="8">
+        <v>44965.16710866898</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C58" s="6">
+        <v>198051.33</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <v>Schmitt - Lindgren, Roberts, Macejkovic and Okuneva, Kiehn, Marvin and Goyette</v>
+      </c>
+      <c r="F58" s="7">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="8">
+        <v>45043.3735125463</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C59" s="6">
+        <v>200681.61</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F59" s="7">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4</v>
+      </c>
+      <c r="H59" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I59" s="8">
+        <v>45012.36318104167</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="C60" s="6">
+        <v>762264.7</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <v>Shields - Ortiz, Bechtelar Inc</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>9</v>
+      </c>
+      <c r="H60" s="4">
+        <v>6</v>
+      </c>
+      <c r="I60" s="8">
+        <v>45068.665909710646</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C61" s="6">
+        <v>885551.67</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <v>Welch, Parisian and Johns, Ryan and Sons</v>
+      </c>
+      <c r="F61" s="7">
+        <v>5</v>
+      </c>
+      <c r="G61" s="4">
+        <v>4</v>
+      </c>
+      <c r="H61" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I61" s="8">
+        <v>44904.77550163194</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="C62" s="6">
+        <v>252053.68</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <v>Zboncak LLC, Johnston Group</v>
+      </c>
+      <c r="F62" s="7">
+        <v>7</v>
+      </c>
+      <c r="G62" s="4">
+        <v>6</v>
+      </c>
+      <c r="H62" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I62" s="8">
+        <v>45187.80330626157</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="C63" s="6">
+        <v>886876.56</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <v>Mertz, Davis and Bartoletti, Bogan and Sons, O'Conner, Okuneva and Klocko</v>
+      </c>
+      <c r="F63" s="7">
+        <v>7</v>
+      </c>
+      <c r="G63" s="4">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I63" s="8">
+        <v>45174.878392708335</v>
+      </c>
+    </row>
+    <row r="64" ht="30" customHeight="1">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C64" s="6">
+        <v>465442.65</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <v>Nolan, Heaney and Cormier, Gislason - Terry, Dibbert Inc</v>
+      </c>
+      <c r="F64" s="7">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4">
+        <v>6</v>
+      </c>
+      <c r="H64" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I64" s="8">
+        <v>45005.84888961806</v>
+      </c>
+    </row>
+    <row r="65" ht="30" customHeight="1">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="C65" s="6">
+        <v>39541.52</v>
+      </c>
+      <c r="D65" s="4">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4" t="str">
+        <v>Tromp Group, Lemke, Langosh and Cummerata, Mitchell, Wintheiser and Frami</v>
+      </c>
+      <c r="F65" s="7">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>4</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="8">
+        <v>45003.72090010417</v>
+      </c>
+    </row>
+    <row r="66" ht="30" customHeight="1">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C66" s="6">
+        <v>606934.63</v>
+      </c>
+      <c r="D66" s="4">
+        <v>3</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <v>Hyatt - Oberbrunner, Wintheiser - Upton, Becker, Bergstrom and Sauer</v>
+      </c>
+      <c r="F66" s="7">
+        <v>3</v>
+      </c>
+      <c r="G66" s="4">
+        <v>8</v>
+      </c>
+      <c r="H66" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I66" s="8">
+        <v>45047.45083540509</v>
+      </c>
+    </row>
+    <row r="67" ht="30" customHeight="1">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="C67" s="6">
+        <v>516409.54</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <v>Cronin Inc, Walker LLC</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I67" s="8">
+        <v>44947.05971755787</v>
+      </c>
+    </row>
+    <row r="68" ht="30" customHeight="1">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C68" s="6">
+        <v>892872.32</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <v>Grant - Funk, Kling - Dickinson</v>
+      </c>
+      <c r="F68" s="7">
+        <v>5</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3</v>
+      </c>
+      <c r="H68" s="4">
+        <v>9</v>
+      </c>
+      <c r="I68" s="8">
+        <v>45030.643163912035</v>
+      </c>
+    </row>
+    <row r="69" ht="30" customHeight="1">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="str">
+        <v>admin, guest</v>
+      </c>
+      <c r="C69" s="6">
+        <v>190217.46</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <v>Kuvalis LLC</v>
+      </c>
+      <c r="F69" s="7">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I69" s="8">
+        <v>45102.432175277776</v>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C70" s="6">
+        <v>647821.51</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <v>Volkman - Abshire</v>
+      </c>
+      <c r="F70" s="7">
+        <v>9</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I70" s="8">
+        <v>44959.11030840278</v>
+      </c>
+    </row>
+    <row r="71" ht="30" customHeight="1">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="C71" s="6">
+        <v>427226.22</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <v>Kuhlman, Boyle and Balistreri</v>
+      </c>
+      <c r="F71" s="7">
+        <v>9</v>
+      </c>
+      <c r="G71" s="4">
+        <v>6</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <v>45096.66732530093</v>
+      </c>
+    </row>
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C72" s="6">
+        <v>407393.66</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F72" s="7">
+        <v>4</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <v>45141.30572094907</v>
+      </c>
+    </row>
+    <row r="73" ht="30" customHeight="1">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="C73" s="6">
+        <v>251481.28</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <v>Torphy, Keeling and Smitham, Simonis, Lynch and Volkman</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>8</v>
+      </c>
+      <c r="H73" s="4">
+        <v>5</v>
+      </c>
+      <c r="I73" s="8">
+        <v>44936.18984232639</v>
+      </c>
+    </row>
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <v>user</v>
+      </c>
+      <c r="C74" s="6">
+        <v>120407.85</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <v>Klein - Schmeler</v>
+      </c>
+      <c r="F74" s="7">
+        <v>9</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="H74" s="4">
+        <v>4</v>
+      </c>
+      <c r="I74" s="8">
+        <v>44899.15647837963</v>
+      </c>
+    </row>
+    <row r="75" ht="30" customHeight="1">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="C75" s="6">
+        <v>26544.05</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <v>Torphy and Sons, Bailey, Willms and Crooks, Turcotte Group</v>
+      </c>
+      <c r="F75" s="7">
+        <v>6</v>
+      </c>
+      <c r="G75" s="4">
+        <v>8</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <v>44981.39075662037</v>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <v>manager, guest</v>
+      </c>
+      <c r="C76" s="6">
+        <v>827535.63</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <v>McLaughlin Group, Hilll, Marvin and Stracke</v>
+      </c>
+      <c r="F76" s="7">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4">
+        <v>4</v>
+      </c>
+      <c r="H76" s="4">
+        <v>8</v>
+      </c>
+      <c r="I76" s="8">
+        <v>45230.467930439816</v>
+      </c>
+    </row>
+    <row r="77" ht="30" customHeight="1">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C77" s="6">
+        <v>494321.52</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I77" s="8">
+        <v>45129.55405028935</v>
+      </c>
+    </row>
+    <row r="78" ht="30" customHeight="1">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C78" s="6">
+        <v>266574.29</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>Cruickshank LLC</v>
+      </c>
+      <c r="F78" s="7">
+        <v>3</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="8">
+        <v>45003.291336215276</v>
+      </c>
+    </row>
+    <row r="79" ht="30" customHeight="1">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C79" s="6">
+        <v>58771.13</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F79" s="7">
+        <v>3</v>
+      </c>
+      <c r="G79" s="4">
+        <v>7</v>
+      </c>
+      <c r="H79" s="4">
+        <v>8</v>
+      </c>
+      <c r="I79" s="8">
+        <v>45167.811033032405</v>
+      </c>
+    </row>
+    <row r="80" ht="30" customHeight="1">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C80" s="6">
+        <v>229223.67</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v>Hintz, Kulas and Larkin, Wilderman - Erdman</v>
+      </c>
+      <c r="F80" s="7">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I80" s="8">
+        <v>45100.55479616898</v>
+      </c>
+    </row>
+    <row r="81" ht="30" customHeight="1">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="str">
+        <v>admin, user, guest</v>
+      </c>
+      <c r="C81" s="6">
+        <v>774045.99</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4" t="str">
+        <v>Goyette - Wilkinson, Labadie LLC</v>
+      </c>
+      <c r="F81" s="7">
+        <v>7</v>
+      </c>
+      <c r="G81" s="4">
+        <v>6</v>
+      </c>
+      <c r="H81" s="4">
+        <v>3</v>
+      </c>
+      <c r="I81" s="8">
+        <v>45104.660134756945</v>
+      </c>
+    </row>
+    <row r="82" ht="30" customHeight="1">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C82" s="6">
+        <v>398790.9</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F82" s="7">
+        <v>4</v>
+      </c>
+      <c r="G82" s="4">
+        <v>3</v>
+      </c>
+      <c r="H82" s="4">
+        <v>5</v>
+      </c>
+      <c r="I82" s="8">
+        <v>44954.11679392361</v>
+      </c>
+    </row>
+    <row r="83" ht="30" customHeight="1">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C83" s="6">
+        <v>65709.25</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" s="4" t="str">
+        <v>Dach - Spencer, Waelchi - Klein, Dickens, Crooks and Collier</v>
+      </c>
+      <c r="F83" s="7">
+        <v>9</v>
+      </c>
+      <c r="G83" s="4">
+        <v>5</v>
+      </c>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="8">
+        <v>45243.50156332176</v>
+      </c>
+    </row>
+    <row r="84" ht="30" customHeight="1">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C84" s="6">
+        <v>68221.74</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v>Weissnat - Oberbrunner, Blanda, Cruickshank and Lakin</v>
+      </c>
+      <c r="F84" s="7">
+        <v>2</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" s="8">
+        <v>45212.434352662036</v>
+      </c>
+    </row>
+    <row r="85" ht="30" customHeight="1">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="str">
+        <v>admin, user, manager</v>
+      </c>
+      <c r="C85" s="6">
+        <v>938781.47</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F85" s="7">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I85" s="8">
+        <v>44899.36693769676</v>
+      </c>
+    </row>
+    <row r="86" ht="30" customHeight="1">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="str">
+        <v>guest</v>
+      </c>
+      <c r="C86" s="6">
+        <v>999610.84</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>Nader Group</v>
+      </c>
+      <c r="F86" s="7">
+        <v>6</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I86" s="8">
+        <v>44899.96517859954</v>
+      </c>
+    </row>
+    <row r="87" ht="30" customHeight="1">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="str">
+        <v>admin, manager, guest</v>
+      </c>
+      <c r="C87" s="6">
+        <v>241105.42</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <v>Lehner, Stoltenberg and Weissnat, Lockman, Hoppe and Kuhlman</v>
+      </c>
+      <c r="F87" s="7">
+        <v>8</v>
+      </c>
+      <c r="G87" s="4">
+        <v>7</v>
+      </c>
+      <c r="H87" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I87" s="8">
+        <v>45217.80047353009</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C88" s="6">
+        <v>495796.78</v>
+      </c>
+      <c r="D88" s="4">
+        <v>4</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v>Kuhlman Group, Yost - Thompson, Thiel Group, Stracke, Rau and Maggio</v>
+      </c>
+      <c r="F88" s="7">
+        <v>8</v>
+      </c>
+      <c r="G88" s="4">
+        <v>6</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
+        <v>45257.58131826389</v>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>user, manager</v>
+      </c>
+      <c r="C89" s="6">
+        <v>130938.01</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4" t="str">
+        <v>Mitchell, Muller and Boyle</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <v>5</v>
+      </c>
+      <c r="H89" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I89" s="8">
+        <v>44988.88499939815</v>
+      </c>
+    </row>
+    <row r="90" ht="30" customHeight="1">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C90" s="6">
+        <v>588400.89</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v>Reynolds - Breitenberg, Ernser - Herzog</v>
+      </c>
+      <c r="F90" s="7">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4">
+        <v>6</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I90" s="8">
+        <v>45221.85317141204</v>
+      </c>
+    </row>
+    <row r="91" ht="30" customHeight="1">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>manager</v>
+      </c>
+      <c r="C91" s="6">
+        <v>514283.53</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <v>Hettinger - Little, Littel - Bode, White, Zieme and Abshire, Carroll - Kohler</v>
+      </c>
+      <c r="F91" s="7">
+        <v>9</v>
+      </c>
+      <c r="G91" s="4">
+        <v>9</v>
+      </c>
+      <c r="H91" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I91" s="8">
+        <v>45240.065200868055</v>
+      </c>
+    </row>
+    <row r="92" ht="30" customHeight="1">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="str">
+        <v>admin, user</v>
+      </c>
+      <c r="C92" s="6">
+        <v>460934.79</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F92" s="7">
+        <v>4</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>5</v>
+      </c>
+      <c r="I92" s="8">
+        <v>45060.92107737269</v>
+      </c>
+    </row>
+    <row r="93" ht="30" customHeight="1">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C93" s="6">
+        <v>697694.61</v>
+      </c>
+      <c r="D93" s="4">
+        <v>4</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <v>Weimann - West, MacGyver - Pouros, Gutmann, Flatley and Schaden, Huel - Rice</v>
+      </c>
+      <c r="F93" s="7">
+        <v>9</v>
+      </c>
+      <c r="G93" s="4">
+        <v>8</v>
+      </c>
+      <c r="H93" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I93" s="8">
+        <v>44966.950335092595</v>
+      </c>
+    </row>
+    <row r="94" ht="30" customHeight="1">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="str">
+        <v>user, guest</v>
+      </c>
+      <c r="C94" s="6">
+        <v>213273.17</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v>Beahan - Langworth, Hettinger, Will and Schultz, Herzog - Schaden</v>
+      </c>
+      <c r="F94" s="7">
+        <v>8</v>
+      </c>
+      <c r="G94" s="4">
+        <v>8</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I94" s="8">
+        <v>45084.067677569445</v>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C95" s="6">
+        <v>127636.06</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <v>Rohan - Klein, Bogisich - Bogan, Larkin, Bogisich and Russel</v>
+      </c>
+      <c r="F95" s="7">
+        <v>3</v>
+      </c>
+      <c r="G95" s="4">
+        <v>9</v>
+      </c>
+      <c r="H95" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I95" s="8">
+        <v>45074.659047719906</v>
+      </c>
+    </row>
+    <row r="96" ht="30" customHeight="1">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C96" s="6">
+        <v>50203.22</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <v>8</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I96" s="8">
+        <v>45242.83239094907</v>
+      </c>
+    </row>
+    <row r="97" ht="30" customHeight="1">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C97" s="6">
+        <v>866505.23</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F97" s="7">
+        <v>5</v>
+      </c>
+      <c r="G97" s="4">
+        <v>5</v>
+      </c>
+      <c r="H97" s="4">
+        <v>2</v>
+      </c>
+      <c r="I97" s="8">
+        <v>44917.789146979165</v>
+      </c>
+    </row>
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="str">
+        <v/>
+      </c>
+      <c r="C98" s="6">
+        <v>45756.64</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v>Beahan, Nienow and Bayer</v>
+      </c>
+      <c r="F98" s="7">
+        <v>8</v>
+      </c>
+      <c r="G98" s="4">
+        <v>8</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5</v>
+      </c>
+      <c r="I98" s="8">
+        <v>45246.02058935185</v>
+      </c>
+    </row>
+    <row r="99" ht="30" customHeight="1">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C99" s="6">
+        <v>616393.52</v>
+      </c>
+      <c r="D99" s="4">
+        <v>4</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <v>Corwin - Mills, Medhurst Inc, Pacocha LLC, Mraz - Schultz</v>
+      </c>
+      <c r="F99" s="7">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I99" s="8">
+        <v>44910.90710657407</v>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="str">
+        <v>admin, manager</v>
+      </c>
+      <c r="C100" s="6">
+        <v>100956.57</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v>Kub - Keeling, Tromp LLC, Friesen LLC</v>
+      </c>
+      <c r="F100" s="7">
+        <v>6</v>
+      </c>
+      <c r="G100" s="4">
+        <v>6</v>
+      </c>
+      <c r="H100" s="4">
+        <v>3</v>
+      </c>
+      <c r="I100" s="8">
+        <v>45109.533466030094</v>
+      </c>
+    </row>
+    <row r="101" ht="30" customHeight="1">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="str">
+        <v>admin, user, manager, guest</v>
+      </c>
+      <c r="C101" s="6">
+        <v>787952</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <v>Pfeffer, Hyatt and Franecki</v>
+      </c>
+      <c r="F101" s="7">
+        <v>6</v>
+      </c>
+      <c r="G101" s="4">
+        <v>9</v>
+      </c>
+      <c r="H101" s="4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I101" s="8">
+        <v>44965.47460596065</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I101"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -569,25 +569,25 @@
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="187.83203125" customWidth="1"/>
+    <col min="8" max="8" width="195.83203125" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
     <col min="12" max="12" width="23.83203125" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" customWidth="1"/>
-    <col min="17" max="17" width="18.83203125" customWidth="1"/>
-    <col min="18" max="18" width="33.83203125" customWidth="1"/>
-    <col min="19" max="19" width="33.83203125" customWidth="1"/>
-    <col min="20" max="20" width="24.83203125" customWidth="1"/>
-    <col min="21" max="21" width="24.83203125" customWidth="1"/>
-    <col min="22" max="22" width="21.83203125" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="21.83203125" customWidth="1"/>
+    <col min="20" max="20" width="31.83203125" customWidth="1"/>
+    <col min="21" max="21" width="20.83203125" customWidth="1"/>
+    <col min="22" max="22" width="36.83203125" customWidth="1"/>
     <col min="23" max="23" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -629,34 +629,34 @@
         <v>Created at</v>
       </c>
       <c r="M1" s="3" t="str">
-        <v>Murazik LLC</v>
+        <v>Dach, Mertz and Schaefer</v>
       </c>
       <c r="N1" s="3" t="str">
-        <v>Rice and Sons</v>
+        <v>Nolan Group</v>
       </c>
       <c r="O1" s="3" t="str">
-        <v>Hammes Group</v>
+        <v>Block Group</v>
       </c>
       <c r="P1" s="3" t="str">
-        <v>McCullough - Hilpert</v>
+        <v>Sawayn, Feeney and White</v>
       </c>
       <c r="Q1" s="3" t="str">
-        <v>Rau - Goodwin</v>
+        <v>Ziemann - Murphy</v>
       </c>
       <c r="R1" s="3" t="str">
-        <v>Dooley, Mante and Morissette</v>
+        <v>Corkery LLC</v>
       </c>
       <c r="S1" s="3" t="str">
-        <v>Kemmer, Kautzer and Luettgen</v>
+        <v>Mueller - Skiles</v>
       </c>
       <c r="T1" s="3" t="str">
-        <v>Cartwright - Kohler</v>
+        <v>Nienow, Bogan and Leuschke</v>
       </c>
       <c r="U1" s="3" t="str">
-        <v>Bernier - Powlowski</v>
+        <v>Leuschke - Feil</v>
       </c>
       <c r="V1" s="3" t="str">
-        <v>Langosh and Sons</v>
+        <v>Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="W1" s="3" t="str">
         <v>Test</v>
@@ -667,52 +667,52 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>Hilbert</v>
+        <v>Angelica</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>Grimes</v>
+        <v>Will</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>Linwood13@hotmail.com</v>
+        <v>Emmanuel.Barrows@yahoo.com</v>
       </c>
       <c r="E2" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, user</v>
       </c>
       <c r="F2" s="6">
-        <v>304893.65</v>
+        <v>497535.12</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>8</v>
-      </c>
-      <c r="J2" s="4">
-        <v>7</v>
       </c>
       <c r="K2" s="4">
         <v>9</v>
       </c>
       <c r="L2" s="8">
-        <v>45049.621967453706</v>
+        <v>45070.44918662037</v>
       </c>
       <c r="M2" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N2" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O2" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P2" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R2" s="4" t="str">
         <v>YES</v>
@@ -721,13 +721,13 @@
         <v>YES</v>
       </c>
       <c r="T2" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U2" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="V2" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W2" s="4">
         <v>0</v>
@@ -738,52 +738,52 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="str">
-        <v>Avery</v>
+        <v>Mathilde</v>
       </c>
       <c r="C3" s="4" t="str">
-        <v>Wisozk</v>
+        <v>Schmeler</v>
       </c>
       <c r="D3" s="4" t="str">
-        <v>Jeanette42@hotmail.com</v>
+        <v>Mozelle_Bergnaum80@gmail.com</v>
       </c>
       <c r="E3" s="9" t="str">
-        <v>user, guest</v>
+        <v>user, manager</v>
       </c>
       <c r="F3" s="6">
-        <v>5040.44</v>
+        <v>40104.48</v>
       </c>
       <c r="G3" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Ziemann - Murphy, Mueller - Skiles</v>
       </c>
       <c r="I3" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>7</v>
-      </c>
-      <c r="K3" s="4">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L3" s="8">
-        <v>45091.791900625</v>
+        <v>45103.4875690162</v>
       </c>
       <c r="M3" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N3" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O3" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P3" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R3" s="4" t="str">
         <v>NO</v>
@@ -792,10 +792,10 @@
         <v>YES</v>
       </c>
       <c r="T3" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U3" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V3" s="4" t="str">
         <v>NO</v>
@@ -809,40 +809,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>Lenore</v>
+        <v>Bria</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>Johns</v>
+        <v>Mertz</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>Keshaun_Spinka@hotmail.com</v>
+        <v>Eunice_Turner84@hotmail.com</v>
       </c>
       <c r="E4" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F4" s="6">
-        <v>937646.81</v>
+        <v>783416.43</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="str">
-        <v>McCullough - Hilpert</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
       </c>
       <c r="J4" s="4">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <v>N/A</v>
+        <v>8</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" s="8">
-        <v>45237.42360978009</v>
+        <v>45215.15139681713</v>
       </c>
       <c r="M4" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N4" s="4" t="str">
         <v>NO</v>
@@ -860,10 +860,10 @@
         <v>NO</v>
       </c>
       <c r="S4" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T4" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U4" s="4" t="str">
         <v>NO</v>
@@ -880,64 +880,64 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>Alana</v>
+        <v>Arden</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>Spinka</v>
+        <v>Boyer</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>Damian.OReilly28@hotmail.com</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <v>admin, guest</v>
+        <v>Joy71@hotmail.com</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <v>user, manager</v>
       </c>
       <c r="F5" s="6">
-        <v>594500.64</v>
+        <v>931746.28</v>
       </c>
       <c r="G5" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4" t="str">
-        <v>Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Nolan Group, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
         <v>2</v>
       </c>
       <c r="K5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="8">
-        <v>45098.597327256946</v>
+        <v>45035.76734590278</v>
       </c>
       <c r="M5" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N5" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O5" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P5" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R5" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S5" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T5" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U5" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V5" s="4" t="str">
         <v>YES</v>
@@ -951,64 +951,64 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>Krystel</v>
+        <v>Davion</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>Bernier</v>
+        <v>Waters</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Sarina_Bogisich@hotmail.com</v>
+        <v>Salvador.Hansen44@gmail.com</v>
       </c>
       <c r="E6" s="9" t="str">
-        <v/>
+        <v>user, manager</v>
       </c>
       <c r="F6" s="6">
-        <v>905578.42</v>
+        <v>370295.09</v>
       </c>
       <c r="G6" s="4">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Cartwright - Kohler, Bernier - Powlowski</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>7</v>
-      </c>
-      <c r="K6" s="4">
-        <v>8</v>
-      </c>
       <c r="L6" s="8">
-        <v>44995.837760925926</v>
+        <v>45203.97051383102</v>
       </c>
       <c r="M6" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N6" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O6" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P6" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R6" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S6" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T6" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U6" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V6" s="4" t="str">
         <v>NO</v>
@@ -1022,46 +1022,46 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>Jerrod</v>
+        <v>Henderson</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>Tremblay</v>
+        <v>Kohler</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Jack_Altenwerth32@hotmail.com</v>
+        <v>Flo51@hotmail.com</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin, user, guest</v>
       </c>
       <c r="F7" s="6">
-        <v>116999.93</v>
+        <v>623237.25</v>
       </c>
       <c r="G7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Sawayn, Feeney and White, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>8</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <v>N/A</v>
+      <c r="K7" s="4">
+        <v>8</v>
       </c>
       <c r="L7" s="8">
-        <v>44990.32835314815</v>
+        <v>45035.1711140162</v>
       </c>
       <c r="M7" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N7" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O7" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P7" s="4" t="str">
         <v>YES</v>
@@ -1070,7 +1070,7 @@
         <v>NO</v>
       </c>
       <c r="R7" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S7" s="4" t="str">
         <v>YES</v>
@@ -1093,64 +1093,64 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Orval</v>
+        <v>Cyrus</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>Kunde</v>
+        <v>Cruickshank</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>Tanner_Koch-Boyer85@gmail.com</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <v>admin, guest</v>
+        <v>Alana40@gmail.com</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <v>guest</v>
       </c>
       <c r="F8" s="6">
-        <v>548313.92</v>
+        <v>539932.02</v>
       </c>
       <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Nolan Group, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I8" s="7">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Bernier - Powlowski, Langosh and Sons</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
       <c r="J8" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K8" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L8" s="8">
-        <v>45086.67268751157</v>
+        <v>45183.359913761575</v>
       </c>
       <c r="M8" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N8" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O8" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P8" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R8" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="S8" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T8" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U8" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V8" s="4" t="str">
         <v>YES</v>
@@ -1164,37 +1164,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>Abbie</v>
+        <v>Daniella</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>Emmerich</v>
+        <v>Hammes</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>Travis_Jacobs12@gmail.com</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <v>admin, user</v>
+        <v>Jude_Emard@hotmail.com</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <v>manager, guest</v>
       </c>
       <c r="F9" s="6">
-        <v>662342.78</v>
+        <v>870491.84</v>
       </c>
       <c r="G9" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Ziemann - Murphy, Corkery LLC, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L9" s="8">
-        <v>45195.11928462963</v>
+        <v>45183.59094326389</v>
       </c>
       <c r="M9" s="4" t="str">
         <v>YES</v>
@@ -1203,28 +1203,28 @@
         <v>NO</v>
       </c>
       <c r="O9" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P9" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R9" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S9" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T9" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U9" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V9" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W9" s="4">
         <v>7</v>
@@ -1235,37 +1235,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>Monserrat</v>
+        <v>Camren</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>Walsh</v>
+        <v>Rowe</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>Aida_Fisher@hotmail.com</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>Lelia_King@hotmail.com</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <v>admin, manager, guest</v>
       </c>
       <c r="F10" s="6">
-        <v>53577.69</v>
+        <v>305614.92</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" s="4" t="str">
-        <v>McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>4</v>
-      </c>
       <c r="L10" s="8">
-        <v>45258.35842383102</v>
+        <v>44915.86050491898</v>
       </c>
       <c r="M10" s="4" t="str">
         <v>NO</v>
@@ -1274,28 +1274,28 @@
         <v>NO</v>
       </c>
       <c r="O10" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P10" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R10" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S10" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T10" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U10" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="V10" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W10" s="4">
         <v>8</v>
@@ -1306,37 +1306,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>Lemuel</v>
+        <v>Lavern</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>Brekke</v>
+        <v>Wyman</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>Roma.Cassin86@yahoo.com</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <v>admin</v>
+        <v>Johanna_Marquardt92@yahoo.com</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <v/>
       </c>
       <c r="F11" s="6">
-        <v>32069.49</v>
+        <v>373399.07</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" s="4" t="str">
-        <v>Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette</v>
+        <v>Block Group, Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <v>N/A</v>
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>9</v>
       </c>
       <c r="L11" s="8">
-        <v>45232.87722844908</v>
+        <v>45115.416001226855</v>
       </c>
       <c r="M11" s="4" t="str">
         <v>NO</v>
@@ -1348,25 +1348,25 @@
         <v>YES</v>
       </c>
       <c r="P11" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R11" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S11" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T11" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U11" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V11" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W11" s="4">
         <v>9</v>
@@ -1377,46 +1377,46 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>Alvis</v>
+        <v>Seth</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Bechtelar</v>
+        <v>Muller</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>Myah.Wiegand@yahoo.com</v>
+        <v>Nia.Morar92@gmail.com</v>
       </c>
       <c r="E12" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F12" s="6">
-        <v>816340.13</v>
+        <v>288675.96</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Rau - Goodwin, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L12" s="8">
-        <v>45063.31933945602</v>
+        <v>45217.49817425926</v>
       </c>
       <c r="M12" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N12" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O12" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P12" s="4" t="str">
         <v>NO</v>
@@ -1425,10 +1425,10 @@
         <v>YES</v>
       </c>
       <c r="R12" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S12" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T12" s="4" t="str">
         <v>YES</v>
@@ -1437,7 +1437,7 @@
         <v>NO</v>
       </c>
       <c r="V12" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W12" s="4">
         <v>10</v>
@@ -1448,43 +1448,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>Cierra</v>
+        <v>Nicolas</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>Greenfelder</v>
+        <v>Streich</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>Dena_Kulas@gmail.com</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <v>guest</v>
+        <v>Derek3@gmail.com</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <v>admin, user</v>
       </c>
       <c r="F13" s="6">
-        <v>695994.02</v>
+        <v>225405.72</v>
       </c>
       <c r="G13" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I13" s="7">
         <v>6</v>
       </c>
       <c r="J13" s="4">
-        <v>4</v>
-      </c>
-      <c r="K13" s="4">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L13" s="8">
-        <v>44933.00397168982</v>
+        <v>44939.11400045139</v>
       </c>
       <c r="M13" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N13" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O13" s="4" t="str">
         <v>YES</v>
@@ -1493,7 +1493,7 @@
         <v>YES</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R13" s="4" t="str">
         <v>NO</v>
@@ -1502,7 +1502,7 @@
         <v>NO</v>
       </c>
       <c r="T13" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U13" s="4" t="str">
         <v>NO</v>
@@ -1519,37 +1519,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>Alfredo</v>
+        <v>Frida</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Paucek</v>
+        <v>McLaughlin</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>Hazel_Sanford33@gmail.com</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <v>admin, guest</v>
+        <v>Chanel_Bechtelar@hotmail.com</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <v>manager, guest</v>
       </c>
       <c r="F14" s="6">
-        <v>548511.12</v>
+        <v>144236.77</v>
       </c>
       <c r="G14" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L14" s="8">
-        <v>45231.79789716435</v>
+        <v>45123.56816212963</v>
       </c>
       <c r="M14" s="4" t="str">
         <v>YES</v>
@@ -1558,13 +1558,13 @@
         <v>YES</v>
       </c>
       <c r="O14" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P14" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R14" s="4" t="str">
         <v>YES</v>
@@ -1573,13 +1573,13 @@
         <v>YES</v>
       </c>
       <c r="T14" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U14" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="V14" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W14" s="4">
         <v>12</v>
@@ -1590,64 +1590,64 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>Zackary</v>
+        <v>Amir</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>Schneider</v>
+        <v>Kulas</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>Marcelo_Von36@gmail.com</v>
+        <v>Otho_Klocko@gmail.com</v>
       </c>
       <c r="E15" s="9" t="str">
         <v/>
       </c>
       <c r="F15" s="6">
-        <v>234602.85</v>
+        <v>863539.06</v>
       </c>
       <c r="G15" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Corkery LLC, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I15" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K15" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L15" s="8">
-        <v>45224.207903090275</v>
+        <v>44967.767947430555</v>
       </c>
       <c r="M15" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N15" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O15" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P15" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q15" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R15" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S15" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T15" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U15" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V15" s="4" t="str">
         <v>YES</v>
@@ -1661,55 +1661,55 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>Doyle</v>
+        <v>Zion</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>Yost</v>
+        <v>Brekke-Langosh</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>Lionel.Krajcik-Kerluke36@yahoo.com</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <v>user, manager</v>
+        <v>Marquis_Spinka42@gmail.com</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F16" s="6">
-        <v>7086.59</v>
+        <v>645046.1</v>
       </c>
       <c r="G16" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Bernier - Powlowski</v>
+        <v>Nolan Group, Block Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I16" s="7">
+        <v>9</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
         <v>4</v>
       </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
       <c r="L16" s="8">
-        <v>45172.58331494213</v>
+        <v>45142.75952665509</v>
       </c>
       <c r="M16" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N16" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O16" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P16" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q16" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="R16" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S16" s="4" t="str">
         <v>YES</v>
@@ -1721,7 +1721,7 @@
         <v>YES</v>
       </c>
       <c r="V16" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W16" s="4">
         <v>14</v>
@@ -1732,64 +1732,64 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>Jovani</v>
+        <v>Cicero</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>Bins</v>
+        <v>Windler</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>Jovanny13@yahoo.com</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <v>guest</v>
+        <v>Merl.Ryan@hotmail.com</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <v>admin, user, manager</v>
       </c>
       <c r="F17" s="6">
-        <v>740758.72</v>
+        <v>974616.81</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="str">
-        <v>Rice and Sons, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Block Group, Ziemann - Murphy, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L17" s="8">
-        <v>45073.80799381944</v>
+        <v>45225.49980453704</v>
       </c>
       <c r="M17" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N17" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O17" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P17" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R17" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="S17" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T17" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U17" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V17" s="4" t="str">
         <v>YES</v>
@@ -1803,40 +1803,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>Jerod</v>
+        <v>Anjali</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Gutkowski</v>
+        <v>Shields</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>Wanda67@gmail.com</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <v>user, manager</v>
+        <v>Helmer.Cassin@gmail.com</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <v>admin, manager, guest</v>
       </c>
       <c r="F18" s="6">
-        <v>827334.8</v>
+        <v>132023.74</v>
       </c>
       <c r="G18" s="4">
         <v>4</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Dooley, Mante and Morissette, Langosh and Sons</v>
+        <v>Nolan Group, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L18" s="8">
-        <v>45259.95539321759</v>
+        <v>45244.753315381946</v>
       </c>
       <c r="M18" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N18" s="4" t="str">
         <v>YES</v>
@@ -1851,19 +1851,19 @@
         <v>NO</v>
       </c>
       <c r="R18" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S18" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T18" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U18" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V18" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W18" s="4">
         <v>16</v>
@@ -1874,40 +1874,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>Scarlett</v>
+        <v>Sigmund</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>Miller-Hodkiewicz</v>
+        <v>Romaguera</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>Nick_Yundt79@gmail.com</v>
+        <v>Lenna.Jakubowski@yahoo.com</v>
       </c>
       <c r="E19" s="9" t="str">
-        <v>user</v>
+        <v>user, manager</v>
       </c>
       <c r="F19" s="6">
-        <v>407083.06</v>
+        <v>576052.88</v>
       </c>
       <c r="G19" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Block Group, Ziemann - Murphy, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I19" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J19" s="4">
-        <v>7</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <v>N/A</v>
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
       </c>
       <c r="L19" s="8">
-        <v>45218.001005439815</v>
+        <v>44937.6253528588</v>
       </c>
       <c r="M19" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N19" s="4" t="str">
         <v>NO</v>
@@ -1922,16 +1922,16 @@
         <v>YES</v>
       </c>
       <c r="R19" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S19" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T19" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U19" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V19" s="4" t="str">
         <v>YES</v>
@@ -1945,67 +1945,67 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>Lonnie</v>
+        <v>Roslyn</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>Goyette</v>
+        <v>Spencer</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>Alexandria.Dietrich1@yahoo.com</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <v>admin, user, manager</v>
+        <v>Theron29@gmail.com</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <v>manager, guest</v>
       </c>
       <c r="F20" s="6">
-        <v>842568.38</v>
+        <v>388944.5</v>
       </c>
       <c r="G20" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="4" t="str">
-        <v>McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I20" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="8">
-        <v>45024.739126851855</v>
+        <v>45048.74000896991</v>
       </c>
       <c r="M20" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N20" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O20" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P20" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R20" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S20" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T20" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U20" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="V20" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W20" s="4">
         <v>18</v>
@@ -2016,64 +2016,64 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>Evelyn</v>
+        <v>Gladyce</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>Dietrich</v>
+        <v>Larson</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>Matteo_Cartwright87@hotmail.com</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <v>manager, guest</v>
+        <v>Scarlett59@yahoo.com</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <v>admin, manager, guest</v>
       </c>
       <c r="F21" s="6">
-        <v>812303.63</v>
+        <v>709187.77</v>
       </c>
       <c r="G21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4" t="str">
-        <v>Murazik LLC, Dooley, Mante and Morissette, Langosh and Sons</v>
+        <v>Block Group, Sawayn, Feeney and White, Mueller - Skiles, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I21" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J21" s="4">
-        <v>7</v>
-      </c>
-      <c r="K21" s="4">
         <v>1</v>
       </c>
+      <c r="K21" s="4" t="str">
+        <v>N/A</v>
+      </c>
       <c r="L21" s="8">
-        <v>45139.11078670139</v>
+        <v>44956.39382533565</v>
       </c>
       <c r="M21" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N21" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O21" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P21" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q21" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="R21" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S21" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T21" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U21" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V21" s="4" t="str">
         <v>YES</v>
@@ -2087,40 +2087,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>Horace</v>
+        <v>Cale</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Bechtelar</v>
+        <v>Mills</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>Elias.Ratke@gmail.com</v>
+        <v>Arch_OKeefe@yahoo.com</v>
       </c>
       <c r="E22" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, user, guest</v>
       </c>
       <c r="F22" s="6">
-        <v>365631.77</v>
+        <v>959794.33</v>
       </c>
       <c r="G22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I22" s="7">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
         <v>9</v>
-      </c>
-      <c r="J22" s="4">
-        <v>6</v>
       </c>
       <c r="K22" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L22" s="8">
-        <v>44986.285419837965</v>
+        <v>45253.37291939815</v>
       </c>
       <c r="M22" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N22" s="4" t="str">
         <v>NO</v>
@@ -2135,16 +2135,16 @@
         <v>NO</v>
       </c>
       <c r="R22" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S22" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T22" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U22" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V22" s="4" t="str">
         <v>NO</v>
@@ -2158,43 +2158,43 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>Dock</v>
+        <v>Margarete</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>Schiller</v>
+        <v>Bode</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>Horace_Lebsack@gmail.com</v>
-      </c>
-      <c r="E23" s="5" t="str">
-        <v>admin, guest</v>
+        <v>Darrick15@yahoo.com</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <v>manager</v>
       </c>
       <c r="F23" s="6">
-        <v>238829.47</v>
+        <v>531110.69</v>
       </c>
       <c r="G23" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Bernier - Powlowski</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I23" s="7">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
         <v>7</v>
       </c>
-      <c r="J23" s="4">
-        <v>8</v>
-      </c>
-      <c r="K23" s="4">
-        <v>8</v>
-      </c>
       <c r="L23" s="8">
-        <v>45022.30963707176</v>
+        <v>44997.83693722222</v>
       </c>
       <c r="M23" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N23" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O23" s="4" t="str">
         <v>YES</v>
@@ -2212,13 +2212,13 @@
         <v>NO</v>
       </c>
       <c r="T23" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U23" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="V23" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W23" s="4">
         <v>21</v>
@@ -2229,37 +2229,37 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>Joey</v>
+        <v>Nestor</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Hills</v>
+        <v>Ferry</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>Micah50@yahoo.com</v>
+        <v>Libbie.Powlowski@gmail.com</v>
       </c>
       <c r="E24" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin</v>
       </c>
       <c r="F24" s="6">
-        <v>210288.01</v>
+        <v>24420.56</v>
       </c>
       <c r="G24" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H24" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Sawayn, Feeney and White, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I24" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>3</v>
-      </c>
-      <c r="K24" s="4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L24" s="8">
-        <v>45244.991603773145</v>
+        <v>45242.52975592593</v>
       </c>
       <c r="M24" s="4" t="str">
         <v>YES</v>
@@ -2268,16 +2268,16 @@
         <v>YES</v>
       </c>
       <c r="O24" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P24" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="Q24" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R24" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S24" s="4" t="str">
         <v>YES</v>
@@ -2286,7 +2286,7 @@
         <v>NO</v>
       </c>
       <c r="U24" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V24" s="4" t="str">
         <v>NO</v>
@@ -2300,37 +2300,37 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>Madie</v>
+        <v>Malika</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>Schaden</v>
+        <v>Tillman</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>Aliyah_Wiegand@yahoo.com</v>
-      </c>
-      <c r="E25" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>Tyra.Emard@hotmail.com</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F25" s="6">
-        <v>859609.43</v>
+        <v>724217.86</v>
       </c>
       <c r="G25" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I25" s="7">
+        <v>4</v>
+      </c>
+      <c r="J25" s="4">
+        <v>8</v>
+      </c>
+      <c r="K25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <v>3</v>
-      </c>
       <c r="L25" s="8">
-        <v>45204.62248200231</v>
+        <v>44993.366874189815</v>
       </c>
       <c r="M25" s="4" t="str">
         <v>YES</v>
@@ -2348,16 +2348,16 @@
         <v>NO</v>
       </c>
       <c r="R25" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S25" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T25" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U25" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V25" s="4" t="str">
         <v>YES</v>
@@ -2371,40 +2371,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>Patience</v>
+        <v>Gregory</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Ankunding</v>
+        <v>Koss</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>Lina.McLaughlin67@yahoo.com</v>
+        <v>Tessie94@yahoo.com</v>
       </c>
       <c r="E26" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>user, manager</v>
       </c>
       <c r="F26" s="6">
-        <v>575769.65</v>
+        <v>528385.74</v>
       </c>
       <c r="G26" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Nolan Group, Ziemann - Murphy, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I26" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="4">
         <v>2</v>
       </c>
-      <c r="K26" s="4">
-        <v>2</v>
+      <c r="K26" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L26" s="8">
-        <v>44955.87120304398</v>
+        <v>44933.40168582176</v>
       </c>
       <c r="M26" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N26" s="4" t="str">
         <v>YES</v>
@@ -2413,7 +2413,7 @@
         <v>NO</v>
       </c>
       <c r="P26" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q26" s="4" t="str">
         <v>YES</v>
@@ -2422,13 +2422,13 @@
         <v>NO</v>
       </c>
       <c r="S26" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T26" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U26" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V26" s="4" t="str">
         <v>YES</v>
@@ -2442,67 +2442,67 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>Declan</v>
+        <v>Valerie</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>Hilpert</v>
+        <v>Roob</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>Doug31@gmail.com</v>
+        <v>Damian.Bailey88@yahoo.com</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin, manager</v>
       </c>
       <c r="F27" s="6">
-        <v>183191.2</v>
+        <v>404079.2</v>
       </c>
       <c r="G27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="4" t="str">
-        <v>Hammes Group, Kemmer, Kautzer and Luettgen, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Ziemann - Murphy, Corkery LLC</v>
       </c>
       <c r="I27" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" s="4">
-        <v>7</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <v>N/A</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
       </c>
       <c r="L27" s="8">
-        <v>45092.63691586805</v>
+        <v>45126.29094665509</v>
       </c>
       <c r="M27" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N27" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O27" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P27" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q27" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R27" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S27" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T27" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U27" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V27" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W27" s="4">
         <v>25</v>
@@ -2513,40 +2513,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>Juana</v>
+        <v>Dillan</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Leffler</v>
+        <v>Harber</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>Rylan_Walker@hotmail.com</v>
+        <v>Jaylin42@hotmail.com</v>
       </c>
       <c r="E28" s="9" t="str">
-        <v/>
+        <v>manager</v>
       </c>
       <c r="F28" s="6">
-        <v>839343.79</v>
+        <v>897543.36</v>
       </c>
       <c r="G28" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Corkery LLC, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I28" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J28" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="8">
-        <v>44911.937288912035</v>
+        <v>45159.61534895833</v>
       </c>
       <c r="M28" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N28" s="4" t="str">
         <v>NO</v>
@@ -2555,7 +2555,7 @@
         <v>NO</v>
       </c>
       <c r="P28" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q28" s="4" t="str">
         <v>NO</v>
@@ -2564,13 +2564,13 @@
         <v>YES</v>
       </c>
       <c r="S28" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T28" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U28" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V28" s="4" t="str">
         <v>YES</v>
@@ -2584,40 +2584,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="str">
-        <v>Stefan</v>
+        <v>Frieda</v>
       </c>
       <c r="C29" s="4" t="str">
-        <v>Kilback</v>
+        <v>Fisher</v>
       </c>
       <c r="D29" s="4" t="str">
-        <v>Parker51@yahoo.com</v>
-      </c>
-      <c r="E29" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>Aylin31@hotmail.com</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <v>admin</v>
       </c>
       <c r="F29" s="6">
-        <v>449583.03</v>
+        <v>775475.18</v>
       </c>
       <c r="G29" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L29" s="8">
-        <v>45227.039631099535</v>
+        <v>45009.2325374537</v>
       </c>
       <c r="M29" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N29" s="4" t="str">
         <v>NO</v>
@@ -2632,7 +2632,7 @@
         <v>NO</v>
       </c>
       <c r="R29" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S29" s="4" t="str">
         <v>YES</v>
@@ -2641,7 +2641,7 @@
         <v>YES</v>
       </c>
       <c r="U29" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V29" s="4" t="str">
         <v>YES</v>
@@ -2655,67 +2655,67 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>Jakayla</v>
+        <v>Lawrence</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Prosacco</v>
+        <v>Abshire</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>Elmo10@gmail.com</v>
-      </c>
-      <c r="E30" s="9" t="str">
-        <v>user, manager</v>
+        <v>Sydney_Boyle46@gmail.com</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <v>admin, guest</v>
       </c>
       <c r="F30" s="6">
-        <v>968324.65</v>
+        <v>716971.1</v>
       </c>
       <c r="G30" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>Rau - Goodwin, Kemmer, Kautzer and Luettgen, Bernier - Powlowski</v>
+        <v>Nolan Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I30" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K30" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L30" s="8">
-        <v>45095.20969357639</v>
+        <v>45202.23857809028</v>
       </c>
       <c r="M30" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N30" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O30" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="P30" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q30" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="R30" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S30" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T30" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U30" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V30" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W30" s="4">
         <v>28</v>
@@ -2726,40 +2726,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="str">
-        <v>Eldred</v>
+        <v>Tristian</v>
       </c>
       <c r="C31" s="4" t="str">
-        <v>Turcotte</v>
+        <v>Spinka</v>
       </c>
       <c r="D31" s="4" t="str">
-        <v>Mertie83@yahoo.com</v>
+        <v>Clovis59@yahoo.com</v>
       </c>
       <c r="E31" s="5" t="str">
         <v>admin, user, manager, guest</v>
       </c>
       <c r="F31" s="6">
-        <v>700197.02</v>
+        <v>341960.16</v>
       </c>
       <c r="G31" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H31" s="4" t="str">
-        <v>Rice and Sons, Dooley, Mante and Morissette, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I31" s="7">
         <v>3</v>
       </c>
       <c r="J31" s="4">
-        <v>7</v>
-      </c>
-      <c r="K31" s="4">
         <v>6</v>
       </c>
+      <c r="K31" s="4" t="str">
+        <v>N/A</v>
+      </c>
       <c r="L31" s="8">
-        <v>45224.4629927662</v>
+        <v>45114.484925578705</v>
       </c>
       <c r="M31" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N31" s="4" t="str">
         <v>YES</v>
@@ -2777,7 +2777,7 @@
         <v>YES</v>
       </c>
       <c r="S31" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T31" s="4" t="str">
         <v>YES</v>
@@ -2786,7 +2786,7 @@
         <v>YES</v>
       </c>
       <c r="V31" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W31" s="4">
         <v>29</v>
@@ -2797,67 +2797,67 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>Jazmyn</v>
+        <v>Jess</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Conroy</v>
+        <v>Morar</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>Georgette.Lind25@hotmail.com</v>
-      </c>
-      <c r="E32" s="9" t="str">
-        <v>manager, guest</v>
+        <v>Josie.Senger40@hotmail.com</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F32" s="6">
-        <v>304439.96</v>
+        <v>646772.41</v>
       </c>
       <c r="G32" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Corkery LLC, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I32" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="str">
-        <v>N/A</v>
+        <v>4</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
       </c>
       <c r="L32" s="8">
-        <v>44990.22572891204</v>
+        <v>44995.79682186343</v>
       </c>
       <c r="M32" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N32" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O32" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="P32" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q32" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R32" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S32" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T32" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U32" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V32" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W32" s="4">
         <v>30</v>
@@ -2868,25 +2868,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="str">
-        <v>Clarissa</v>
+        <v>Franco</v>
       </c>
       <c r="C33" s="4" t="str">
-        <v>Zulauf</v>
+        <v>Berge</v>
       </c>
       <c r="D33" s="4" t="str">
-        <v>Opal_Carter@yahoo.com</v>
-      </c>
-      <c r="E33" s="9" t="str">
-        <v>manager, guest</v>
+        <v>Kyler.Luettgen56@gmail.com</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <v>admin, manager, guest</v>
       </c>
       <c r="F33" s="6">
-        <v>404637.79</v>
+        <v>810616.66</v>
       </c>
       <c r="G33" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Block Group, Sawayn, Feeney and White, Mueller - Skiles</v>
       </c>
       <c r="I33" s="7">
         <v>1</v>
@@ -2898,13 +2898,13 @@
         <v>8</v>
       </c>
       <c r="L33" s="8">
-        <v>45104.08116267361</v>
+        <v>45165.66290984954</v>
       </c>
       <c r="M33" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N33" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O33" s="4" t="str">
         <v>YES</v>
@@ -2916,7 +2916,7 @@
         <v>NO</v>
       </c>
       <c r="R33" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S33" s="4" t="str">
         <v>YES</v>
@@ -2939,52 +2939,52 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>Quinn</v>
+        <v>Anya</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Satterfield</v>
+        <v>Welch</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>Joannie18@gmail.com</v>
+        <v>Henriette.Mayer99@gmail.com</v>
       </c>
       <c r="E34" s="9" t="str">
-        <v>user, guest</v>
+        <v>user</v>
       </c>
       <c r="F34" s="6">
-        <v>450199.91</v>
+        <v>426110.49</v>
       </c>
       <c r="G34" s="4">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Ziemann - Murphy, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I34" s="7">
         <v>4</v>
       </c>
-      <c r="H34" s="4" t="str">
-        <v>Hammes Group, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
-      </c>
-      <c r="I34" s="7">
-        <v>7</v>
-      </c>
       <c r="J34" s="4">
+        <v>8</v>
+      </c>
+      <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="K34" s="4" t="str">
-        <v>N/A</v>
-      </c>
       <c r="L34" s="8">
-        <v>45090.780328229164</v>
+        <v>45039.263029444446</v>
       </c>
       <c r="M34" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N34" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O34" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P34" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R34" s="4" t="str">
         <v>NO</v>
@@ -2993,7 +2993,7 @@
         <v>YES</v>
       </c>
       <c r="T34" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U34" s="4" t="str">
         <v>NO</v>
@@ -3010,37 +3010,37 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="str">
-        <v>Oral</v>
+        <v>Samson</v>
       </c>
       <c r="C35" s="4" t="str">
-        <v>Ruecker</v>
+        <v>Tremblay</v>
       </c>
       <c r="D35" s="4" t="str">
-        <v>Marilyne_Frami@hotmail.com</v>
-      </c>
-      <c r="E35" s="9" t="str">
-        <v>user</v>
+        <v>Ivy_Kerluke58@hotmail.com</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <v>admin</v>
       </c>
       <c r="F35" s="6">
-        <v>659498.32</v>
+        <v>421702.03</v>
       </c>
       <c r="G35" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Rau - Goodwin</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Ziemann - Murphy, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I35" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J35" s="4">
         <v>1</v>
       </c>
-      <c r="K35" s="4" t="str">
-        <v>N/A</v>
+      <c r="K35" s="4">
+        <v>3</v>
       </c>
       <c r="L35" s="8">
-        <v>45231.29435524306</v>
+        <v>45084.49283180555</v>
       </c>
       <c r="M35" s="4" t="str">
         <v>YES</v>
@@ -3061,7 +3061,7 @@
         <v>NO</v>
       </c>
       <c r="S35" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T35" s="4" t="str">
         <v>NO</v>
@@ -3070,7 +3070,7 @@
         <v>NO</v>
       </c>
       <c r="V35" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W35" s="4">
         <v>33</v>
@@ -3081,64 +3081,64 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>Sammie</v>
+        <v>Dorris</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Stokes</v>
+        <v>O'Hara</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>Margaretta.Kemmer@yahoo.com</v>
+        <v>Lue.Grant@gmail.com</v>
       </c>
       <c r="E36" s="9" t="str">
-        <v>guest</v>
+        <v>user, guest</v>
       </c>
       <c r="F36" s="6">
-        <v>63981.16</v>
+        <v>947315.23</v>
       </c>
       <c r="G36" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H36" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Nolan Group, Ziemann - Murphy, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I36" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J36" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" s="8">
-        <v>44906.82973226852</v>
+        <v>44901.782798252316</v>
       </c>
       <c r="M36" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N36" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O36" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P36" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q36" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R36" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S36" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T36" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U36" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V36" s="4" t="str">
         <v>YES</v>
@@ -3152,55 +3152,55 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="str">
-        <v>Sandrine</v>
+        <v>Hans</v>
       </c>
       <c r="C37" s="4" t="str">
-        <v>Moen</v>
+        <v>Stokes</v>
       </c>
       <c r="D37" s="4" t="str">
-        <v>Katherine88@hotmail.com</v>
-      </c>
-      <c r="E37" s="9" t="str">
-        <v/>
+        <v>Mabelle4@hotmail.com</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <v>admin, manager, guest</v>
       </c>
       <c r="F37" s="6">
-        <v>814678.07</v>
+        <v>67472.5</v>
       </c>
       <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles</v>
+      </c>
+      <c r="I37" s="7">
+        <v>6</v>
+      </c>
+      <c r="J37" s="4">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4">
         <v>7</v>
       </c>
-      <c r="H37" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Bernier - Powlowski, Langosh and Sons</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>3</v>
-      </c>
-      <c r="K37" s="4" t="str">
-        <v>N/A</v>
-      </c>
       <c r="L37" s="8">
-        <v>45115.155696354166</v>
+        <v>45187.19219877315</v>
       </c>
       <c r="M37" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N37" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O37" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P37" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R37" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S37" s="4" t="str">
         <v>YES</v>
@@ -3209,10 +3209,10 @@
         <v>NO</v>
       </c>
       <c r="U37" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V37" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W37" s="4">
         <v>35</v>
@@ -3223,67 +3223,67 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>Chaya</v>
+        <v>Lon</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Kub</v>
+        <v>Fahey</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>Aubree22@gmail.com</v>
-      </c>
-      <c r="E38" s="9" t="str">
-        <v>manager</v>
+        <v>Saige14@hotmail.com</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <v>admin, user</v>
       </c>
       <c r="F38" s="6">
-        <v>768859.95</v>
+        <v>929756.15</v>
       </c>
       <c r="G38" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette</v>
+        <v>Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I38" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J38" s="4">
-        <v>7</v>
-      </c>
-      <c r="K38" s="4">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="K38" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L38" s="8">
-        <v>45227.73728056713</v>
+        <v>45152.350992997686</v>
       </c>
       <c r="M38" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N38" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O38" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P38" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R38" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S38" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T38" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U38" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V38" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W38" s="4">
         <v>36</v>
@@ -3294,43 +3294,43 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="str">
-        <v>Janiya</v>
+        <v>Justyn</v>
       </c>
       <c r="C39" s="4" t="str">
-        <v>Toy-Crooks</v>
+        <v>Abernathy</v>
       </c>
       <c r="D39" s="4" t="str">
-        <v>Shanelle67@yahoo.com</v>
-      </c>
-      <c r="E39" s="5" t="str">
-        <v>admin, guest</v>
+        <v>Derrick_Kozey5@gmail.com</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <v>user, guest</v>
       </c>
       <c r="F39" s="6">
-        <v>701939.83</v>
+        <v>100169.16</v>
       </c>
       <c r="G39" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H39" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I39" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J39" s="4">
         <v>9</v>
       </c>
       <c r="K39" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L39" s="8">
-        <v>45020.13073107639</v>
+        <v>45072.762255497684</v>
       </c>
       <c r="M39" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N39" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O39" s="4" t="str">
         <v>NO</v>
@@ -3339,10 +3339,10 @@
         <v>YES</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R39" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S39" s="4" t="str">
         <v>YES</v>
@@ -3365,43 +3365,43 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>Macey</v>
+        <v>Brad</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Marvin</v>
+        <v>Mohr</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>Scot.Jacobs83@yahoo.com</v>
-      </c>
-      <c r="E40" s="9" t="str">
-        <v>user, guest</v>
+        <v>Eulah.McKenzie@hotmail.com</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <v>admin, guest</v>
       </c>
       <c r="F40" s="6">
-        <v>685910.98</v>
+        <v>863519.73</v>
       </c>
       <c r="G40" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="4">
         <v>8</v>
       </c>
-      <c r="J40" s="4">
-        <v>3</v>
-      </c>
-      <c r="K40" s="4">
-        <v>9</v>
+      <c r="K40" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L40" s="8">
-        <v>45025.76736233796</v>
+        <v>45240.81095857639</v>
       </c>
       <c r="M40" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N40" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O40" s="4" t="str">
         <v>YES</v>
@@ -3410,13 +3410,13 @@
         <v>YES</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R40" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S40" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T40" s="4" t="str">
         <v>YES</v>
@@ -3436,46 +3436,46 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="str">
-        <v>Taya</v>
+        <v>Duane</v>
       </c>
       <c r="C41" s="4" t="str">
-        <v>Abshire</v>
+        <v>Rice</v>
       </c>
       <c r="D41" s="4" t="str">
-        <v>Braeden13@gmail.com</v>
-      </c>
-      <c r="E41" s="5" t="str">
-        <v>admin, user</v>
+        <v>Hortense_Terry49@yahoo.com</v>
+      </c>
+      <c r="E41" s="9" t="str">
+        <v>manager, guest</v>
       </c>
       <c r="F41" s="6">
-        <v>896305.19</v>
+        <v>860144.47</v>
       </c>
       <c r="G41" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" s="4" t="str">
-        <v>Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Nolan Group, Ziemann - Murphy, Corkery LLC, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I41" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K41" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L41" s="8">
-        <v>45247.29088207176</v>
+        <v>44941.94398615741</v>
       </c>
       <c r="M41" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N41" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O41" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P41" s="4" t="str">
         <v>NO</v>
@@ -3496,7 +3496,7 @@
         <v>YES</v>
       </c>
       <c r="V41" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W41" s="4">
         <v>39</v>
@@ -3507,43 +3507,43 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>Lila</v>
+        <v>Camren</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Raynor</v>
+        <v>Rempel-Nolan</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>Noemie_Legros@yahoo.com</v>
+        <v>Velma.Stroman42@hotmail.com</v>
       </c>
       <c r="E42" s="9" t="str">
-        <v>manager</v>
+        <v>guest</v>
       </c>
       <c r="F42" s="6">
-        <v>667947.11</v>
+        <v>168734.9</v>
       </c>
       <c r="G42" s="4">
         <v>5</v>
       </c>
       <c r="H42" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Ziemann - Murphy, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I42" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
       </c>
-      <c r="K42" s="4">
-        <v>7</v>
+      <c r="K42" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L42" s="8">
-        <v>44961.094429108794</v>
+        <v>45177.86124575231</v>
       </c>
       <c r="M42" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N42" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O42" s="4" t="str">
         <v>NO</v>
@@ -3558,13 +3558,13 @@
         <v>NO</v>
       </c>
       <c r="S42" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T42" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U42" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V42" s="4" t="str">
         <v>NO</v>
@@ -3578,49 +3578,49 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="str">
-        <v>Norma</v>
+        <v>Devan</v>
       </c>
       <c r="C43" s="4" t="str">
-        <v>Davis</v>
+        <v>Denesik</v>
       </c>
       <c r="D43" s="4" t="str">
-        <v>Anais34@gmail.com</v>
+        <v>Antoinette.Koch@yahoo.com</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>admin, manager</v>
+        <v>admin, guest</v>
       </c>
       <c r="F43" s="6">
-        <v>26509.05</v>
+        <v>218452.86</v>
       </c>
       <c r="G43" s="4">
+        <v>3</v>
+      </c>
+      <c r="H43" s="4" t="str">
+        <v>Block Group, Ziemann - Murphy, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I43" s="7">
+        <v>4</v>
+      </c>
+      <c r="J43" s="4">
         <v>5</v>
-      </c>
-      <c r="H43" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
-      </c>
-      <c r="I43" s="7">
-        <v>7</v>
-      </c>
-      <c r="J43" s="4">
-        <v>7</v>
       </c>
       <c r="K43" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L43" s="8">
-        <v>45082.19202097222</v>
+        <v>45246.41323571759</v>
       </c>
       <c r="M43" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N43" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O43" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P43" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q43" s="4" t="str">
         <v>YES</v>
@@ -3629,7 +3629,7 @@
         <v>NO</v>
       </c>
       <c r="S43" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T43" s="4" t="str">
         <v>NO</v>
@@ -3649,37 +3649,37 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>Jeromy</v>
+        <v>Nelle</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Zemlak</v>
+        <v>Swift</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>Marietta.Connelly38@gmail.com</v>
+        <v>Juana29@hotmail.com</v>
       </c>
       <c r="E44" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin, manager</v>
       </c>
       <c r="F44" s="6">
-        <v>953603.28</v>
+        <v>370639.38</v>
       </c>
       <c r="G44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Hammes Group, Dooley, Mante and Morissette</v>
+        <v>Block Group, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>8</v>
-      </c>
-      <c r="K44" s="4" t="str">
-        <v>N/A</v>
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4</v>
       </c>
       <c r="L44" s="8">
-        <v>45065.06974130787</v>
+        <v>45111.166875613424</v>
       </c>
       <c r="M44" s="4" t="str">
         <v>NO</v>
@@ -3697,10 +3697,10 @@
         <v>NO</v>
       </c>
       <c r="R44" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S44" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T44" s="4" t="str">
         <v>NO</v>
@@ -3709,7 +3709,7 @@
         <v>NO</v>
       </c>
       <c r="V44" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W44" s="4">
         <v>42</v>
@@ -3720,40 +3720,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="str">
-        <v>Verla</v>
+        <v>Theodore</v>
       </c>
       <c r="C45" s="4" t="str">
-        <v>Herzog</v>
+        <v>Koch</v>
       </c>
       <c r="D45" s="4" t="str">
-        <v>Dorthy_DAmore42@gmail.com</v>
-      </c>
-      <c r="E45" s="5" t="str">
-        <v>admin, user, guest</v>
+        <v>Anya.Pfeffer88@hotmail.com</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <v/>
       </c>
       <c r="F45" s="6">
-        <v>123710.22</v>
+        <v>581080.91</v>
       </c>
       <c r="G45" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H45" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Leuschke - Feil</v>
       </c>
       <c r="I45" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J45" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K45" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L45" s="8">
-        <v>45053.66117570602</v>
+        <v>44946.892118090276</v>
       </c>
       <c r="M45" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N45" s="4" t="str">
         <v>YES</v>
@@ -3768,16 +3768,16 @@
         <v>NO</v>
       </c>
       <c r="R45" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S45" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T45" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U45" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V45" s="4" t="str">
         <v>NO</v>
@@ -3791,64 +3791,64 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>Flavie</v>
+        <v>Ward</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Wyman</v>
+        <v>Heaney</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>Brayan25@hotmail.com</v>
+        <v>Lempi_Langworth@hotmail.com</v>
       </c>
       <c r="E46" s="5" t="str">
-        <v>admin, user, manager, guest</v>
+        <v>admin, manager</v>
       </c>
       <c r="F46" s="6">
-        <v>996883.33</v>
+        <v>389066.18</v>
       </c>
       <c r="G46" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette</v>
+        <v>Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I46" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4">
         <v>7</v>
       </c>
-      <c r="K46" s="4">
-        <v>9</v>
+      <c r="K46" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L46" s="8">
-        <v>45231.29614949074</v>
+        <v>45146.28535618055</v>
       </c>
       <c r="M46" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N46" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O46" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P46" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q46" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R46" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S46" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T46" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U46" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V46" s="4" t="str">
         <v>NO</v>
@@ -3862,40 +3862,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="str">
-        <v>Adela</v>
+        <v>Dortha</v>
       </c>
       <c r="C47" s="4" t="str">
-        <v>Berge</v>
+        <v>Sporer</v>
       </c>
       <c r="D47" s="4" t="str">
-        <v>Bell.Gibson55@gmail.com</v>
+        <v>Gertrude.Boyer@yahoo.com</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>admin</v>
+        <v>admin, manager, guest</v>
       </c>
       <c r="F47" s="6">
-        <v>439692.55</v>
+        <v>615789.86</v>
       </c>
       <c r="G47" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H47" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I47" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K47" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47" s="8">
-        <v>45093.64749737269</v>
+        <v>45198.98248868056</v>
       </c>
       <c r="M47" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N47" s="4" t="str">
         <v>YES</v>
@@ -3904,16 +3904,16 @@
         <v>YES</v>
       </c>
       <c r="P47" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q47" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R47" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S47" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T47" s="4" t="str">
         <v>YES</v>
@@ -3933,52 +3933,52 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>Immanuel</v>
+        <v>Luis</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Lemke</v>
+        <v>Trantow</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>Darlene_Kuvalis@hotmail.com</v>
-      </c>
-      <c r="E48" s="5" t="str">
-        <v>admin, user, guest</v>
+        <v>Sallie_Bruen@gmail.com</v>
+      </c>
+      <c r="E48" s="9" t="str">
+        <v>guest</v>
       </c>
       <c r="F48" s="6">
-        <v>955981.51</v>
+        <v>602152.7</v>
       </c>
       <c r="G48" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H48" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Nolan Group, Block Group, Corkery LLC, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I48" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4">
-        <v>6</v>
-      </c>
-      <c r="K48" s="4" t="str">
-        <v>N/A</v>
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
       </c>
       <c r="L48" s="8">
-        <v>45219.770878194446</v>
+        <v>45054.942342685186</v>
       </c>
       <c r="M48" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N48" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O48" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P48" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q48" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R48" s="4" t="str">
         <v>YES</v>
@@ -3987,13 +3987,13 @@
         <v>NO</v>
       </c>
       <c r="T48" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U48" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V48" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W48" s="4">
         <v>46</v>
@@ -4004,40 +4004,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="str">
-        <v>Casper</v>
+        <v>Ron</v>
       </c>
       <c r="C49" s="4" t="str">
-        <v>Durgan</v>
+        <v>Crist</v>
       </c>
       <c r="D49" s="4" t="str">
-        <v>Holly96@yahoo.com</v>
+        <v>Celestine_Shanahan@hotmail.com</v>
       </c>
       <c r="E49" s="9" t="str">
-        <v>manager, guest</v>
+        <v>user, manager, guest</v>
       </c>
       <c r="F49" s="6">
-        <v>816959.29</v>
+        <v>254070.62</v>
       </c>
       <c r="G49" s="4">
+        <v>5</v>
+      </c>
+      <c r="H49" s="4" t="str">
+        <v>Nolan Group, Sawayn, Feeney and White, Corkery LLC, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
+      </c>
+      <c r="I49" s="7">
         <v>4</v>
       </c>
-      <c r="H49" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Rau - Goodwin, Kemmer, Kautzer and Luettgen</v>
-      </c>
-      <c r="I49" s="7">
-        <v>5</v>
-      </c>
       <c r="J49" s="4">
-        <v>7</v>
-      </c>
-      <c r="K49" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L49" s="8">
-        <v>45021.32005549769</v>
+        <v>45136.15510480324</v>
       </c>
       <c r="M49" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N49" s="4" t="str">
         <v>YES</v>
@@ -4046,22 +4046,22 @@
         <v>NO</v>
       </c>
       <c r="P49" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q49" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R49" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S49" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T49" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U49" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V49" s="4" t="str">
         <v>NO</v>
@@ -4075,43 +4075,43 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>Joanny</v>
+        <v>Robert</v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Reilly</v>
+        <v>Von</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>Nicole_Larson@gmail.com</v>
+        <v>Marcelle_Moen47@yahoo.com</v>
       </c>
       <c r="E50" s="5" t="str">
-        <v>admin, user, guest</v>
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F50" s="6">
-        <v>842261.66</v>
+        <v>353416.39</v>
       </c>
       <c r="G50" s="4">
         <v>6</v>
       </c>
       <c r="H50" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Corkery LLC, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I50" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J50" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K50" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L50" s="8">
-        <v>44976.40899988426</v>
+        <v>44921.66314300926</v>
       </c>
       <c r="M50" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N50" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O50" s="4" t="str">
         <v>YES</v>
@@ -4120,19 +4120,19 @@
         <v>YES</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R50" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S50" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T50" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U50" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V50" s="4" t="str">
         <v>YES</v>
@@ -4146,37 +4146,37 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="str">
-        <v>Llewellyn</v>
+        <v>Uriah</v>
       </c>
       <c r="C51" s="4" t="str">
-        <v>Smith</v>
+        <v>Thiel</v>
       </c>
       <c r="D51" s="4" t="str">
-        <v>Ezequiel_Bartell@hotmail.com</v>
+        <v>Demarco86@hotmail.com</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, manager</v>
       </c>
       <c r="F51" s="6">
-        <v>352721.38</v>
+        <v>431427.52</v>
       </c>
       <c r="G51" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H51" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Nolan Group, Sawayn, Feeney and White, Ziemann - Murphy</v>
       </c>
       <c r="I51" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J51" s="4">
         <v>7</v>
       </c>
-      <c r="K51" s="4">
-        <v>9</v>
+      <c r="K51" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L51" s="8">
-        <v>45073.658107372685</v>
+        <v>45188.97579392361</v>
       </c>
       <c r="M51" s="4" t="str">
         <v>NO</v>
@@ -4185,7 +4185,7 @@
         <v>YES</v>
       </c>
       <c r="O51" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P51" s="4" t="str">
         <v>YES</v>
@@ -4194,16 +4194,16 @@
         <v>YES</v>
       </c>
       <c r="R51" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S51" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T51" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U51" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V51" s="4" t="str">
         <v>NO</v>
@@ -4217,46 +4217,46 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>Gayle</v>
+        <v>Freida</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Kling-Prosacco</v>
+        <v>Schmitt</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>Denis_Rau@hotmail.com</v>
+        <v>Sherwood.Ondricka@yahoo.com</v>
       </c>
       <c r="E52" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, manager</v>
       </c>
       <c r="F52" s="6">
-        <v>99952.58</v>
+        <v>193363.79</v>
       </c>
       <c r="G52" s="4">
         <v>5</v>
       </c>
       <c r="H52" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Rau - Goodwin, Dooley, Mante and Morissette, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Ziemann - Murphy, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I52" s="7">
+        <v>6</v>
+      </c>
+      <c r="J52" s="4">
         <v>0</v>
       </c>
-      <c r="J52" s="4">
-        <v>5</v>
-      </c>
       <c r="K52" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L52" s="8">
-        <v>45122.40892886574</v>
+        <v>44927.44428519676</v>
       </c>
       <c r="M52" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N52" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O52" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P52" s="4" t="str">
         <v>NO</v>
@@ -4265,10 +4265,10 @@
         <v>YES</v>
       </c>
       <c r="R52" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S52" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T52" s="4" t="str">
         <v>NO</v>
@@ -4288,40 +4288,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="4" t="str">
-        <v>Talia</v>
+        <v>Carmela</v>
       </c>
       <c r="C53" s="4" t="str">
-        <v>Moore</v>
+        <v>D'Amore</v>
       </c>
       <c r="D53" s="4" t="str">
-        <v>Cornelius.Tremblay@yahoo.com</v>
+        <v>Alysa.Leuschke85@hotmail.com</v>
       </c>
       <c r="E53" s="9" t="str">
         <v>guest</v>
       </c>
       <c r="F53" s="6">
-        <v>240119.14</v>
+        <v>537868.28</v>
       </c>
       <c r="G53" s="4">
         <v>5</v>
       </c>
       <c r="H53" s="4" t="str">
-        <v>Rice and Sons, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles</v>
       </c>
       <c r="I53" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J53" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L53" s="8">
-        <v>45154.2648640162</v>
+        <v>45180.88736685185</v>
       </c>
       <c r="M53" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N53" s="4" t="str">
         <v>YES</v>
@@ -4348,7 +4348,7 @@
         <v>NO</v>
       </c>
       <c r="V53" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W53" s="4">
         <v>51</v>
@@ -4359,40 +4359,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v>Bernardo</v>
+        <v>Gia</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v>Crona</v>
+        <v>Pagac</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>Ismael.Torphy@gmail.com</v>
-      </c>
-      <c r="E54" s="5" t="str">
-        <v>admin</v>
+        <v>Alysson.Koch85@yahoo.com</v>
+      </c>
+      <c r="E54" s="9" t="str">
+        <v/>
       </c>
       <c r="F54" s="6">
-        <v>33026.3</v>
+        <v>537489.03</v>
       </c>
       <c r="G54" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" s="4" t="str">
-        <v>McCullough - Hilpert, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I54" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J54" s="4">
-        <v>5</v>
-      </c>
-      <c r="K54" s="4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L54" s="8">
-        <v>44986.72366451389</v>
+        <v>45119.42106622685</v>
       </c>
       <c r="M54" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N54" s="4" t="str">
         <v>NO</v>
@@ -4404,22 +4404,22 @@
         <v>YES</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R54" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S54" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T54" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U54" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V54" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W54" s="4">
         <v>52</v>
@@ -4430,43 +4430,43 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="str">
-        <v>Van</v>
+        <v>Jayden</v>
       </c>
       <c r="C55" s="4" t="str">
-        <v>Ritchie</v>
+        <v>Bosco</v>
       </c>
       <c r="D55" s="4" t="str">
-        <v>Frieda.OConner30@yahoo.com</v>
+        <v>Brennan_Koss40@hotmail.com</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v>admin, user, manager</v>
+        <v>admin, user</v>
       </c>
       <c r="F55" s="6">
-        <v>446013.51</v>
+        <v>390381</v>
       </c>
       <c r="G55" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="K55" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L55" s="8">
-        <v>45253.3258153125</v>
+        <v>45128.29351696759</v>
       </c>
       <c r="M55" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N55" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O55" s="4" t="str">
         <v>YES</v>
@@ -4475,16 +4475,16 @@
         <v>YES</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R55" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S55" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T55" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U55" s="4" t="str">
         <v>NO</v>
@@ -4501,49 +4501,49 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>Mina</v>
+        <v>Justus</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Rempel</v>
+        <v>Schulist</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>Anastacio.Auer31@hotmail.com</v>
+        <v>Demetris_Wehner@yahoo.com</v>
       </c>
       <c r="E56" s="5" t="str">
-        <v>admin, manager</v>
+        <v>admin, user, manager</v>
       </c>
       <c r="F56" s="6">
-        <v>424572.11</v>
+        <v>440101.79</v>
       </c>
       <c r="G56" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H56" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I56" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L56" s="8">
-        <v>45261.78146868056</v>
+        <v>44923.21413462963</v>
       </c>
       <c r="M56" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N56" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O56" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P56" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q56" s="4" t="str">
         <v>YES</v>
@@ -4552,16 +4552,16 @@
         <v>YES</v>
       </c>
       <c r="S56" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T56" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U56" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="V56" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W56" s="4">
         <v>54</v>
@@ -4572,43 +4572,43 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="str">
-        <v>Jaylen</v>
+        <v>Dane</v>
       </c>
       <c r="C57" s="4" t="str">
-        <v>Greenholt</v>
+        <v>Batz</v>
       </c>
       <c r="D57" s="4" t="str">
-        <v>Harvey_McKenzie6@gmail.com</v>
+        <v>Audrey.Wuckert@gmail.com</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>admin</v>
+        <v>admin, manager</v>
       </c>
       <c r="F57" s="6">
-        <v>916680.78</v>
+        <v>970039.28</v>
       </c>
       <c r="G57" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H57" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I57" s="7">
+        <v>8</v>
+      </c>
+      <c r="J57" s="4">
         <v>1</v>
       </c>
-      <c r="J57" s="4">
-        <v>8</v>
-      </c>
-      <c r="K57" s="4">
-        <v>3</v>
+      <c r="K57" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L57" s="8">
-        <v>44925.35582269676</v>
+        <v>44972.218088472226</v>
       </c>
       <c r="M57" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N57" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O57" s="4" t="str">
         <v>YES</v>
@@ -4620,16 +4620,16 @@
         <v>YES</v>
       </c>
       <c r="R57" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S57" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T57" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U57" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V57" s="4" t="str">
         <v>NO</v>
@@ -4643,52 +4643,52 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>Bernie</v>
+        <v>Yesenia</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Corwin</v>
+        <v>Hackett</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>Lilyan_Gibson@gmail.com</v>
-      </c>
-      <c r="E58" s="9" t="str">
-        <v>user</v>
+        <v>Lulu0@yahoo.com</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <v>admin, user</v>
       </c>
       <c r="F58" s="6">
-        <v>396105.49</v>
+        <v>46684</v>
       </c>
       <c r="G58" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58" s="4" t="str">
-        <v>Rau - Goodwin, Kemmer, Kautzer and Luettgen, Cartwright - Kohler</v>
+        <v>Nolan Group, Sawayn, Feeney and White, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K58" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L58" s="8">
-        <v>45007.505003796294</v>
+        <v>45065.666825636574</v>
       </c>
       <c r="M58" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N58" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O58" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="P58" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q58" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R58" s="4" t="str">
         <v>NO</v>
@@ -4703,7 +4703,7 @@
         <v>NO</v>
       </c>
       <c r="V58" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W58" s="4">
         <v>56</v>
@@ -4714,52 +4714,52 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="str">
-        <v>Billie</v>
+        <v>Arianna</v>
       </c>
       <c r="C59" s="4" t="str">
-        <v>Shields-Bogisich</v>
+        <v>Bartell</v>
       </c>
       <c r="D59" s="4" t="str">
-        <v>Gwendolyn.Beatty82@yahoo.com</v>
+        <v>Jaime82@yahoo.com</v>
       </c>
       <c r="E59" s="9" t="str">
-        <v/>
+        <v>user, manager, guest</v>
       </c>
       <c r="F59" s="6">
-        <v>635693.93</v>
+        <v>678089.24</v>
       </c>
       <c r="G59" s="4">
         <v>4</v>
       </c>
       <c r="H59" s="4" t="str">
-        <v>Rau - Goodwin, Dooley, Mante and Morissette, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Corkery LLC, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I59" s="7">
         <v>4</v>
       </c>
       <c r="J59" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L59" s="8">
-        <v>45253.17036009259</v>
+        <v>45129.93612204861</v>
       </c>
       <c r="M59" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N59" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O59" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P59" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q59" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R59" s="4" t="str">
         <v>YES</v>
@@ -4768,13 +4768,13 @@
         <v>NO</v>
       </c>
       <c r="T59" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U59" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V59" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W59" s="4">
         <v>57</v>
@@ -4785,52 +4785,52 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="str">
-        <v>Leanna</v>
+        <v>Dave</v>
       </c>
       <c r="C60" s="4" t="str">
-        <v>Conn</v>
+        <v>Cruickshank</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>Donny.Hudson16@gmail.com</v>
+        <v>Jessy.Harber@gmail.com</v>
       </c>
       <c r="E60" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>manager, guest</v>
       </c>
       <c r="F60" s="6">
-        <v>661886.65</v>
+        <v>965693.76</v>
       </c>
       <c r="G60" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H60" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I60" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="K60" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L60" s="8">
-        <v>45213.610197905095</v>
+        <v>45082.73766583333</v>
       </c>
       <c r="M60" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N60" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O60" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P60" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="Q60" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R60" s="4" t="str">
         <v>NO</v>
@@ -4856,37 +4856,37 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="str">
-        <v>Robyn</v>
+        <v>Mollie</v>
       </c>
       <c r="C61" s="4" t="str">
-        <v>Homenick</v>
+        <v>Fadel</v>
       </c>
       <c r="D61" s="4" t="str">
-        <v>Bernita.Klocko@yahoo.com</v>
-      </c>
-      <c r="E61" s="9" t="str">
-        <v>user, manager</v>
+        <v>Jeramie.Cartwright@yahoo.com</v>
+      </c>
+      <c r="E61" s="5" t="str">
+        <v>admin, user, manager</v>
       </c>
       <c r="F61" s="6">
-        <v>279502.26</v>
+        <v>597498.87</v>
       </c>
       <c r="G61" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Mueller - Skiles</v>
       </c>
       <c r="I61" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L61" s="8">
-        <v>45227.046950972224</v>
+        <v>45225.14449284722</v>
       </c>
       <c r="M61" s="4" t="str">
         <v>YES</v>
@@ -4895,7 +4895,7 @@
         <v>YES</v>
       </c>
       <c r="O61" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P61" s="4" t="str">
         <v>NO</v>
@@ -4907,7 +4907,7 @@
         <v>NO</v>
       </c>
       <c r="S61" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T61" s="4" t="str">
         <v>NO</v>
@@ -4927,55 +4927,55 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>Shawna</v>
+        <v>Foster</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Carroll</v>
+        <v>Marquardt</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>Abbigail76@gmail.com</v>
-      </c>
-      <c r="E62" s="9" t="str">
-        <v>user</v>
+        <v>Garnet_Lakin35@yahoo.com</v>
+      </c>
+      <c r="E62" s="5" t="str">
+        <v>admin</v>
       </c>
       <c r="F62" s="6">
-        <v>530284.06</v>
+        <v>770564.25</v>
       </c>
       <c r="G62" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H62" s="4" t="str">
-        <v>Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I62" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J62" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K62" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L62" s="8">
-        <v>45104.18165146991</v>
+        <v>45014.76245840278</v>
       </c>
       <c r="M62" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N62" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O62" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P62" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q62" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R62" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S62" s="4" t="str">
         <v>YES</v>
@@ -4998,43 +4998,43 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="str">
-        <v>Roscoe</v>
+        <v>Antone</v>
       </c>
       <c r="C63" s="4" t="str">
-        <v>Cronin</v>
+        <v>Beahan</v>
       </c>
       <c r="D63" s="4" t="str">
-        <v>Retha88@yahoo.com</v>
+        <v>Sheldon81@gmail.com</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>admin, user, guest</v>
+        <v>admin, guest</v>
       </c>
       <c r="F63" s="6">
-        <v>248952.77</v>
+        <v>580936.57</v>
       </c>
       <c r="G63" s="4">
+        <v>8</v>
+      </c>
+      <c r="H63" s="4" t="str">
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I63" s="7">
+        <v>8</v>
+      </c>
+      <c r="J63" s="4">
         <v>5</v>
       </c>
-      <c r="H63" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, McCullough - Hilpert, Cartwright - Kohler, Langosh and Sons</v>
-      </c>
-      <c r="I63" s="7">
-        <v>4</v>
-      </c>
-      <c r="J63" s="4">
-        <v>9</v>
-      </c>
       <c r="K63" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L63" s="8">
-        <v>44956.08792207176</v>
+        <v>45147.70516188657</v>
       </c>
       <c r="M63" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N63" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O63" s="4" t="str">
         <v>YES</v>
@@ -5043,19 +5043,19 @@
         <v>YES</v>
       </c>
       <c r="Q63" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R63" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S63" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T63" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U63" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V63" s="4" t="str">
         <v>YES</v>
@@ -5069,55 +5069,55 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>Anahi</v>
+        <v>Turner</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Gutmann</v>
+        <v>Schowalter</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>Kelley.Jacobi44@hotmail.com</v>
+        <v>Queenie.Cronin31@gmail.com</v>
       </c>
       <c r="E64" s="5" t="str">
-        <v>admin, user, manager, guest</v>
+        <v>admin, user, manager</v>
       </c>
       <c r="F64" s="6">
-        <v>253522.57</v>
+        <v>666122.04</v>
       </c>
       <c r="G64" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H64" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler</v>
+        <v>Sawayn, Feeney and White, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I64" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64" s="4">
-        <v>2</v>
-      </c>
-      <c r="K64" s="4" t="str">
-        <v>N/A</v>
+        <v>6</v>
+      </c>
+      <c r="K64" s="4">
+        <v>4</v>
       </c>
       <c r="L64" s="8">
-        <v>45191.03684929398</v>
+        <v>45016.690258125</v>
       </c>
       <c r="M64" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N64" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O64" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P64" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="Q64" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R64" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S64" s="4" t="str">
         <v>NO</v>
@@ -5126,7 +5126,7 @@
         <v>YES</v>
       </c>
       <c r="U64" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V64" s="4" t="str">
         <v>NO</v>
@@ -5140,37 +5140,37 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="str">
-        <v>Carli</v>
+        <v>Myles</v>
       </c>
       <c r="C65" s="4" t="str">
-        <v>Rutherford</v>
+        <v>Schuster</v>
       </c>
       <c r="D65" s="4" t="str">
-        <v>Tate_Von23@hotmail.com</v>
-      </c>
-      <c r="E65" s="5" t="str">
-        <v>admin</v>
+        <v>Susana18@hotmail.com</v>
+      </c>
+      <c r="E65" s="9" t="str">
+        <v>manager</v>
       </c>
       <c r="F65" s="6">
-        <v>913008.48</v>
+        <v>832341.86</v>
       </c>
       <c r="G65" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Corkery LLC, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="4">
-        <v>4</v>
-      </c>
-      <c r="K65" s="4" t="str">
-        <v>N/A</v>
+        <v>9</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2</v>
       </c>
       <c r="L65" s="8">
-        <v>45222.44846601852</v>
+        <v>45254.77309969907</v>
       </c>
       <c r="M65" s="4" t="str">
         <v>YES</v>
@@ -5179,7 +5179,7 @@
         <v>NO</v>
       </c>
       <c r="O65" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P65" s="4" t="str">
         <v>NO</v>
@@ -5188,7 +5188,7 @@
         <v>NO</v>
       </c>
       <c r="R65" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S65" s="4" t="str">
         <v>NO</v>
@@ -5197,7 +5197,7 @@
         <v>YES</v>
       </c>
       <c r="U65" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V65" s="4" t="str">
         <v>NO</v>
@@ -5211,28 +5211,28 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>Rebeka</v>
+        <v>Felicita</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Beahan</v>
+        <v>Beatty</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>Estrella_Considine@yahoo.com</v>
-      </c>
-      <c r="E66" s="9" t="str">
-        <v/>
+        <v>Christiana.Cormier@hotmail.com</v>
+      </c>
+      <c r="E66" s="5" t="str">
+        <v>admin, user, guest</v>
       </c>
       <c r="F66" s="6">
-        <v>822287.7</v>
+        <v>479697.52</v>
       </c>
       <c r="G66" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Mueller - Skiles</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J66" s="4">
         <v>8</v>
@@ -5241,16 +5241,16 @@
         <v>N/A</v>
       </c>
       <c r="L66" s="8">
-        <v>44974.71901966435</v>
+        <v>45102.755250277776</v>
       </c>
       <c r="M66" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N66" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O66" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P66" s="4" t="str">
         <v>NO</v>
@@ -5262,13 +5262,13 @@
         <v>NO</v>
       </c>
       <c r="S66" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T66" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U66" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V66" s="4" t="str">
         <v>NO</v>
@@ -5282,61 +5282,61 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="str">
-        <v>Thelma</v>
+        <v>Augusta</v>
       </c>
       <c r="C67" s="4" t="str">
-        <v>Smitham</v>
+        <v>Von</v>
       </c>
       <c r="D67" s="4" t="str">
-        <v>Augusta_Dach39@hotmail.com</v>
+        <v>Alvera_Lesch91@gmail.com</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin, guest</v>
       </c>
       <c r="F67" s="6">
-        <v>291465.71</v>
+        <v>395628.68</v>
       </c>
       <c r="G67" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H67" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Sawayn, Feeney and White, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I67" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J67" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K67" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L67" s="8">
-        <v>45076.893918449074</v>
+        <v>44951.089002106484</v>
       </c>
       <c r="M67" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N67" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O67" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P67" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q67" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R67" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S67" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T67" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U67" s="4" t="str">
         <v>NO</v>
@@ -5353,52 +5353,52 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>Courtney</v>
+        <v>Daryl</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>Satterfield</v>
+        <v>Stiedemann</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>Carley.Goldner12@gmail.com</v>
-      </c>
-      <c r="E68" s="5" t="str">
-        <v>admin, user, manager</v>
+        <v>Celine_Ryan@yahoo.com</v>
+      </c>
+      <c r="E68" s="9" t="str">
+        <v>user</v>
       </c>
       <c r="F68" s="6">
-        <v>678062.19</v>
+        <v>247898.47</v>
       </c>
       <c r="G68" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>Hammes Group, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I68" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K68" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68" s="8">
-        <v>45255.98484790509</v>
+        <v>45140.140579976854</v>
       </c>
       <c r="M68" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N68" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O68" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P68" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q68" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R68" s="4" t="str">
         <v>YES</v>
@@ -5407,13 +5407,13 @@
         <v>YES</v>
       </c>
       <c r="T68" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U68" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V68" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W68" s="4">
         <v>66</v>
@@ -5424,64 +5424,64 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="str">
-        <v>Carlotta</v>
+        <v>Emory</v>
       </c>
       <c r="C69" s="4" t="str">
-        <v>Quigley</v>
+        <v>Heidenreich</v>
       </c>
       <c r="D69" s="4" t="str">
-        <v>Imelda26@hotmail.com</v>
-      </c>
-      <c r="E69" s="5" t="str">
-        <v>admin, user, guest</v>
+        <v>Marcella.Rosenbaum@hotmail.com</v>
+      </c>
+      <c r="E69" s="9" t="str">
+        <v>user</v>
       </c>
       <c r="F69" s="6">
-        <v>239510.53</v>
+        <v>719028.34</v>
       </c>
       <c r="G69" s="4">
         <v>5</v>
       </c>
       <c r="H69" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Block Group, Ziemann - Murphy, Corkery LLC, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I69" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K69" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L69" s="8">
-        <v>45246.97289668982</v>
+        <v>45011.35212775463</v>
       </c>
       <c r="M69" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N69" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O69" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P69" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q69" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R69" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S69" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T69" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U69" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V69" s="4" t="str">
         <v>YES</v>
@@ -5495,64 +5495,64 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>Ramiro</v>
+        <v>Miles</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Kovacek</v>
+        <v>Stehr</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>Kailee90@gmail.com</v>
+        <v>Otha_Jacobson@yahoo.com</v>
       </c>
       <c r="E70" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, manager</v>
       </c>
       <c r="F70" s="6">
-        <v>233473.06</v>
+        <v>806849.31</v>
       </c>
       <c r="G70" s="4">
+        <v>5</v>
+      </c>
+      <c r="H70" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Nienow, Bogan and Leuschke</v>
+      </c>
+      <c r="I70" s="7">
         <v>6</v>
       </c>
-      <c r="H70" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski</v>
-      </c>
-      <c r="I70" s="7">
+      <c r="J70" s="4">
         <v>7</v>
       </c>
-      <c r="J70" s="4">
-        <v>3</v>
-      </c>
       <c r="K70" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L70" s="8">
-        <v>45203.131700150465</v>
+        <v>44930.77129130787</v>
       </c>
       <c r="M70" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N70" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O70" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P70" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="Q70" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R70" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="S70" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T70" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U70" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V70" s="4" t="str">
         <v>NO</v>
@@ -5566,43 +5566,43 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="str">
-        <v>Vicente</v>
+        <v>Rogelio</v>
       </c>
       <c r="C71" s="4" t="str">
-        <v>Ritchie</v>
+        <v>Koch</v>
       </c>
       <c r="D71" s="4" t="str">
-        <v>Evans.Denesik96@hotmail.com</v>
+        <v>Kyla61@hotmail.com</v>
       </c>
       <c r="E71" s="9" t="str">
-        <v>user</v>
+        <v>user, manager</v>
       </c>
       <c r="F71" s="6">
-        <v>385517.54</v>
+        <v>918961.78</v>
       </c>
       <c r="G71" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H71" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I71" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J71" s="4">
+        <v>3</v>
+      </c>
+      <c r="K71" s="4">
         <v>1</v>
       </c>
-      <c r="K71" s="4" t="str">
-        <v>N/A</v>
-      </c>
       <c r="L71" s="8">
-        <v>45052.68124331019</v>
+        <v>45235.53351971065</v>
       </c>
       <c r="M71" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N71" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O71" s="4" t="str">
         <v>NO</v>
@@ -5611,22 +5611,22 @@
         <v>YES</v>
       </c>
       <c r="Q71" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R71" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S71" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T71" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U71" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V71" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W71" s="4">
         <v>69</v>
@@ -5637,37 +5637,37 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>Makenna</v>
+        <v>Malvina</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Wintheiser</v>
+        <v>Strosin</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>Brayan76@gmail.com</v>
-      </c>
-      <c r="E72" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>Ismael.Kohler40@yahoo.com</v>
+      </c>
+      <c r="E72" s="5" t="str">
+        <v>admin</v>
       </c>
       <c r="F72" s="6">
-        <v>615172.14</v>
+        <v>98218.07</v>
       </c>
       <c r="G72" s="4">
+        <v>5</v>
+      </c>
+      <c r="H72" s="4" t="str">
+        <v>Nolan Group, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I72" s="7">
+        <v>8</v>
+      </c>
+      <c r="J72" s="4">
         <v>4</v>
       </c>
-      <c r="H72" s="4" t="str">
-        <v>Rice and Sons, Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler</v>
-      </c>
-      <c r="I72" s="7">
-        <v>3</v>
-      </c>
-      <c r="J72" s="4">
-        <v>5</v>
-      </c>
-      <c r="K72" s="4">
-        <v>9</v>
+      <c r="K72" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L72" s="8">
-        <v>45063.75726759259</v>
+        <v>45080.12898833333</v>
       </c>
       <c r="M72" s="4" t="str">
         <v>NO</v>
@@ -5682,13 +5682,13 @@
         <v>NO</v>
       </c>
       <c r="Q72" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R72" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S72" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T72" s="4" t="str">
         <v>YES</v>
@@ -5697,7 +5697,7 @@
         <v>NO</v>
       </c>
       <c r="V72" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W72" s="4">
         <v>70</v>
@@ -5708,52 +5708,52 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="str">
-        <v>Germaine</v>
+        <v>Tracy</v>
       </c>
       <c r="C73" s="4" t="str">
-        <v>Ernser</v>
+        <v>Stoltenberg</v>
       </c>
       <c r="D73" s="4" t="str">
-        <v>Raquel.Hegmann16@gmail.com</v>
-      </c>
-      <c r="E73" s="9" t="str">
-        <v>user, guest</v>
+        <v>Claude_Heathcote@gmail.com</v>
+      </c>
+      <c r="E73" s="5" t="str">
+        <v>admin</v>
       </c>
       <c r="F73" s="6">
-        <v>564644.46</v>
+        <v>59886.59</v>
       </c>
       <c r="G73" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H73" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I73" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J73" s="4">
-        <v>7</v>
-      </c>
-      <c r="K73" s="4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K73" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L73" s="8">
-        <v>45164.879373634256</v>
+        <v>44933.20054789352</v>
       </c>
       <c r="M73" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N73" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O73" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P73" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q73" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R73" s="4" t="str">
         <v>NO</v>
@@ -5762,10 +5762,10 @@
         <v>YES</v>
       </c>
       <c r="T73" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U73" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V73" s="4" t="str">
         <v>YES</v>
@@ -5779,67 +5779,67 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>Tamia</v>
+        <v>Elijah</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Parisian</v>
+        <v>Wisozk</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>Arch77@yahoo.com</v>
-      </c>
-      <c r="E74" s="9" t="str">
-        <v>user, manager</v>
+        <v>Electa.Bednar38@yahoo.com</v>
+      </c>
+      <c r="E74" s="5" t="str">
+        <v>admin</v>
       </c>
       <c r="F74" s="6">
-        <v>865687.88</v>
+        <v>865905.25</v>
       </c>
       <c r="G74" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>Murazik LLC, Rau - Goodwin, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I74" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J74" s="4">
-        <v>8</v>
-      </c>
-      <c r="K74" s="4">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="K74" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L74" s="8">
-        <v>45048.669908275464</v>
+        <v>45256.03094784722</v>
       </c>
       <c r="M74" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N74" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O74" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P74" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q74" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R74" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S74" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T74" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U74" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V74" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W74" s="4">
         <v>72</v>
@@ -5850,46 +5850,46 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="str">
-        <v>Carmella</v>
+        <v>Reinhold</v>
       </c>
       <c r="C75" s="4" t="str">
-        <v>Auer</v>
+        <v>Schiller</v>
       </c>
       <c r="D75" s="4" t="str">
-        <v>Heidi28@gmail.com</v>
-      </c>
-      <c r="E75" s="5" t="str">
-        <v>admin</v>
+        <v>Carli.Schuppe@yahoo.com</v>
+      </c>
+      <c r="E75" s="9" t="str">
+        <v>user, manager</v>
       </c>
       <c r="F75" s="6">
-        <v>739563.7</v>
+        <v>520852.08</v>
       </c>
       <c r="G75" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H75" s="4" t="str">
-        <v>Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Bernier - Powlowski</v>
+        <v>Nolan Group, Sawayn, Feeney and White, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I75" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" s="4">
-        <v>7</v>
-      </c>
-      <c r="K75" s="4" t="str">
-        <v>N/A</v>
+        <v>3</v>
+      </c>
+      <c r="K75" s="4">
+        <v>4</v>
       </c>
       <c r="L75" s="8">
-        <v>45160.05936540509</v>
+        <v>44932.84587899306</v>
       </c>
       <c r="M75" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N75" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O75" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P75" s="4" t="str">
         <v>YES</v>
@@ -5898,19 +5898,19 @@
         <v>NO</v>
       </c>
       <c r="R75" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S75" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T75" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U75" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V75" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W75" s="4">
         <v>73</v>
@@ -5921,28 +5921,28 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>Ima</v>
+        <v>Delmer</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Shields</v>
+        <v>Upton</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>Damaris99@yahoo.com</v>
+        <v>Cleveland39@yahoo.com</v>
       </c>
       <c r="E76" s="5" t="str">
-        <v>admin</v>
+        <v>admin, manager, guest</v>
       </c>
       <c r="F76" s="6">
-        <v>167221.96</v>
+        <v>414685.79</v>
       </c>
       <c r="G76" s="4">
+        <v>7</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I76" s="7">
         <v>5</v>
-      </c>
-      <c r="H76" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Cartwright - Kohler</v>
-      </c>
-      <c r="I76" s="7">
-        <v>8</v>
       </c>
       <c r="J76" s="4">
         <v>3</v>
@@ -5951,7 +5951,7 @@
         <v>N/A</v>
       </c>
       <c r="L76" s="8">
-        <v>45101.58470224537</v>
+        <v>45166.66262005787</v>
       </c>
       <c r="M76" s="4" t="str">
         <v>NO</v>
@@ -5963,25 +5963,25 @@
         <v>YES</v>
       </c>
       <c r="P76" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q76" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="R76" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S76" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="T76" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U76" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="V76" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W76" s="4">
         <v>74</v>
@@ -5992,46 +5992,46 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="str">
-        <v>Austen</v>
+        <v>Sydney</v>
       </c>
       <c r="C77" s="4" t="str">
-        <v>Kovacek</v>
+        <v>Reinger</v>
       </c>
       <c r="D77" s="4" t="str">
-        <v>Meggie65@gmail.com</v>
+        <v>Cullen.Wiegand94@gmail.com</v>
       </c>
       <c r="E77" s="9" t="str">
-        <v>user, manager, guest</v>
+        <v>guest</v>
       </c>
       <c r="F77" s="6">
-        <v>67455.48</v>
+        <v>141655.49</v>
       </c>
       <c r="G77" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H77" s="4" t="str">
-        <v>Hammes Group, McCullough - Hilpert, Rau - Goodwin, Cartwright - Kohler</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
       </c>
       <c r="J77" s="4">
-        <v>9</v>
-      </c>
-      <c r="K77" s="4" t="str">
-        <v>N/A</v>
+        <v>2</v>
+      </c>
+      <c r="K77" s="4">
+        <v>7</v>
       </c>
       <c r="L77" s="8">
-        <v>45056.57517042824</v>
+        <v>45144.70547770833</v>
       </c>
       <c r="M77" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N77" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O77" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P77" s="4" t="str">
         <v>YES</v>
@@ -6043,16 +6043,16 @@
         <v>NO</v>
       </c>
       <c r="S77" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T77" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U77" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V77" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W77" s="4">
         <v>75</v>
@@ -6063,49 +6063,49 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="str">
-        <v>Norbert</v>
+        <v>Eliseo</v>
       </c>
       <c r="C78" s="4" t="str">
-        <v>Cassin</v>
+        <v>Nitzsche</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>Brianne86@yahoo.com</v>
-      </c>
-      <c r="E78" s="9" t="str">
-        <v>user, guest</v>
+        <v>Mariela39@yahoo.com</v>
+      </c>
+      <c r="E78" s="5" t="str">
+        <v>admin, manager</v>
       </c>
       <c r="F78" s="6">
-        <v>41974.9</v>
+        <v>268461.19</v>
       </c>
       <c r="G78" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H78" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Leuschke - Feil</v>
       </c>
       <c r="I78" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J78" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K78" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L78" s="8">
-        <v>45246.958201643516</v>
+        <v>45032.43472118056</v>
       </c>
       <c r="M78" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N78" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O78" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P78" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q78" s="4" t="str">
         <v>NO</v>
@@ -6120,10 +6120,10 @@
         <v>NO</v>
       </c>
       <c r="U78" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V78" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W78" s="4">
         <v>76</v>
@@ -6134,52 +6134,52 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="str">
-        <v>Jimmy</v>
+        <v>Jesse</v>
       </c>
       <c r="C79" s="4" t="str">
-        <v>Schaefer</v>
+        <v>Sawayn</v>
       </c>
       <c r="D79" s="4" t="str">
-        <v>Cassandre_Grimes@hotmail.com</v>
+        <v>Lonny20@gmail.com</v>
       </c>
       <c r="E79" s="9" t="str">
-        <v>guest</v>
+        <v>user, manager, guest</v>
       </c>
       <c r="F79" s="6">
-        <v>741808.03</v>
+        <v>560959.89</v>
       </c>
       <c r="G79" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Ziemann - Murphy</v>
       </c>
       <c r="I79" s="7">
+        <v>2</v>
+      </c>
+      <c r="J79" s="4">
+        <v>7</v>
+      </c>
+      <c r="K79" s="4">
         <v>1</v>
       </c>
-      <c r="J79" s="4">
-        <v>2</v>
-      </c>
-      <c r="K79" s="4">
-        <v>3</v>
-      </c>
       <c r="L79" s="8">
-        <v>44916.517165868056</v>
+        <v>44965.209385891205</v>
       </c>
       <c r="M79" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N79" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O79" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P79" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q79" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R79" s="4" t="str">
         <v>NO</v>
@@ -6191,7 +6191,7 @@
         <v>NO</v>
       </c>
       <c r="U79" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V79" s="4" t="str">
         <v>NO</v>
@@ -6205,64 +6205,64 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="str">
-        <v>Pete</v>
+        <v>Peter</v>
       </c>
       <c r="C80" s="4" t="str">
-        <v>Boyle</v>
+        <v>Schneider</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>Bertha78@hotmail.com</v>
+        <v>Penelope.Reinger@hotmail.com</v>
       </c>
       <c r="E80" s="5" t="str">
-        <v>admin, guest</v>
+        <v>admin, user, manager</v>
       </c>
       <c r="F80" s="6">
-        <v>941053.95</v>
+        <v>406461.44</v>
       </c>
       <c r="G80" s="4">
         <v>5</v>
       </c>
       <c r="H80" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Nolan Group, Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I80" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J80" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K80" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L80" s="8">
-        <v>44998.21147346065</v>
+        <v>44905.341548055556</v>
       </c>
       <c r="M80" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N80" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O80" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P80" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q80" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="R80" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S80" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T80" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U80" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V80" s="4" t="str">
         <v>NO</v>
@@ -6276,28 +6276,28 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="str">
-        <v>Allene</v>
+        <v>Rubye</v>
       </c>
       <c r="C81" s="4" t="str">
-        <v>Kling</v>
+        <v>Klein</v>
       </c>
       <c r="D81" s="4" t="str">
-        <v>Wilma50@yahoo.com</v>
-      </c>
-      <c r="E81" s="5" t="str">
-        <v>admin, user, manager</v>
+        <v>Carolanne.Walter@gmail.com</v>
+      </c>
+      <c r="E81" s="9" t="str">
+        <v/>
       </c>
       <c r="F81" s="6">
-        <v>631873</v>
+        <v>878396.55</v>
       </c>
       <c r="G81" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81" s="4" t="str">
-        <v>Murazik LLC, Rau - Goodwin, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC</v>
       </c>
       <c r="I81" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" s="4">
         <v>7</v>
@@ -6306,10 +6306,10 @@
         <v>N/A</v>
       </c>
       <c r="L81" s="8">
-        <v>45174.6349112963</v>
+        <v>45226.88122166667</v>
       </c>
       <c r="M81" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N81" s="4" t="str">
         <v>NO</v>
@@ -6318,25 +6318,25 @@
         <v>NO</v>
       </c>
       <c r="P81" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q81" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="R81" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S81" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T81" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U81" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V81" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W81" s="4">
         <v>79</v>
@@ -6347,37 +6347,37 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="str">
-        <v>Carlie</v>
+        <v>Carol</v>
       </c>
       <c r="C82" s="4" t="str">
-        <v>Dietrich</v>
+        <v>Parker</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>Margret_Champlin@gmail.com</v>
-      </c>
-      <c r="E82" s="5" t="str">
-        <v>admin, user</v>
+        <v>Marina_Boehm49@hotmail.com</v>
+      </c>
+      <c r="E82" s="9" t="str">
+        <v>user, manager</v>
       </c>
       <c r="F82" s="6">
-        <v>748956.75</v>
+        <v>339893.66</v>
       </c>
       <c r="G82" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H82" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Nolan Group, Block Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I82" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J82" s="4">
-        <v>6</v>
-      </c>
-      <c r="K82" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="K82" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L82" s="8">
-        <v>45053.04025935185</v>
+        <v>45112.13642326389</v>
       </c>
       <c r="M82" s="4" t="str">
         <v>NO</v>
@@ -6389,10 +6389,10 @@
         <v>YES</v>
       </c>
       <c r="P82" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q82" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R82" s="4" t="str">
         <v>YES</v>
@@ -6401,10 +6401,10 @@
         <v>YES</v>
       </c>
       <c r="T82" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U82" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V82" s="4" t="str">
         <v>NO</v>
@@ -6418,37 +6418,37 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="str">
-        <v>Geovany</v>
+        <v>Noelia</v>
       </c>
       <c r="C83" s="4" t="str">
-        <v>Towne</v>
+        <v>Daugherty</v>
       </c>
       <c r="D83" s="4" t="str">
-        <v>Coy.Macejkovic12@gmail.com</v>
+        <v>Michel53@hotmail.com</v>
       </c>
       <c r="E83" s="9" t="str">
-        <v/>
+        <v>manager, guest</v>
       </c>
       <c r="F83" s="6">
-        <v>479793.8</v>
+        <v>361022.96</v>
       </c>
       <c r="G83" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H83" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC</v>
       </c>
       <c r="I83" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" s="4">
-        <v>4</v>
-      </c>
-      <c r="K83" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K83" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L83" s="8">
-        <v>45031.372026840276</v>
+        <v>45230.29017414352</v>
       </c>
       <c r="M83" s="4" t="str">
         <v>NO</v>
@@ -6460,25 +6460,25 @@
         <v>YES</v>
       </c>
       <c r="P83" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q83" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R83" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S83" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="T83" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U83" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="V83" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W83" s="4">
         <v>81</v>
@@ -6489,49 +6489,49 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="str">
-        <v>Kellie</v>
+        <v>Caesar</v>
       </c>
       <c r="C84" s="4" t="str">
-        <v>Durgan</v>
+        <v>Bins</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>Erin.Schiller@gmail.com</v>
-      </c>
-      <c r="E84" s="5" t="str">
-        <v>admin</v>
+        <v>Logan53@yahoo.com</v>
+      </c>
+      <c r="E84" s="9" t="str">
+        <v>user, manager, guest</v>
       </c>
       <c r="F84" s="6">
-        <v>273172.17</v>
+        <v>150543</v>
       </c>
       <c r="G84" s="4">
         <v>4</v>
       </c>
       <c r="H84" s="4" t="str">
-        <v>Rice and Sons, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Cartwright - Kohler</v>
+        <v>Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I84" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L84" s="8">
-        <v>45201.95546440972</v>
+        <v>45246.150870729165</v>
       </c>
       <c r="M84" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N84" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O84" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="P84" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q84" s="4" t="str">
         <v>YES</v>
@@ -6543,10 +6543,10 @@
         <v>YES</v>
       </c>
       <c r="T84" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U84" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V84" s="4" t="str">
         <v>NO</v>
@@ -6560,55 +6560,55 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="str">
-        <v>Cecil</v>
+        <v>Jennifer</v>
       </c>
       <c r="C85" s="4" t="str">
-        <v>Schaefer</v>
+        <v>Weimann</v>
       </c>
       <c r="D85" s="4" t="str">
-        <v>Raven_Hyatt@yahoo.com</v>
+        <v>Oleta.Ortiz@gmail.com</v>
       </c>
       <c r="E85" s="9" t="str">
-        <v>user</v>
+        <v>manager</v>
       </c>
       <c r="F85" s="6">
-        <v>92377.4</v>
+        <v>403109.8</v>
       </c>
       <c r="G85" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H85" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles</v>
       </c>
       <c r="I85" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J85" s="4">
         <v>4</v>
       </c>
       <c r="K85" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" s="8">
-        <v>45008.07844549768</v>
+        <v>45153.35009355324</v>
       </c>
       <c r="M85" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N85" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O85" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="P85" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q85" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R85" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S85" s="4" t="str">
         <v>YES</v>
@@ -6631,52 +6631,52 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="str">
-        <v>Toby</v>
+        <v>Francis</v>
       </c>
       <c r="C86" s="4" t="str">
-        <v>Macejkovic</v>
+        <v>Boyle</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>Amir_Schimmel90@hotmail.com</v>
+        <v>Dorthy12@yahoo.com</v>
       </c>
       <c r="E86" s="5" t="str">
-        <v>admin, manager, guest</v>
+        <v>admin, guest</v>
       </c>
       <c r="F86" s="6">
-        <v>486623.03</v>
+        <v>290711.75</v>
       </c>
       <c r="G86" s="4">
+        <v>6</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Sawayn, Feeney and White, Corkery LLC, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I86" s="7">
         <v>3</v>
       </c>
-      <c r="H86" s="4" t="str">
-        <v>Rau - Goodwin, Dooley, Mante and Morissette, Cartwright - Kohler</v>
-      </c>
-      <c r="I86" s="7">
-        <v>4</v>
-      </c>
       <c r="J86" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K86" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L86" s="8">
-        <v>45239.74074459491</v>
+        <v>45089.552234537034</v>
       </c>
       <c r="M86" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N86" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O86" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P86" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q86" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R86" s="4" t="str">
         <v>YES</v>
@@ -6685,13 +6685,13 @@
         <v>NO</v>
       </c>
       <c r="T86" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U86" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="V86" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W86" s="4">
         <v>84</v>
@@ -6702,58 +6702,58 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="str">
-        <v>Dillon</v>
+        <v>Harrison</v>
       </c>
       <c r="C87" s="4" t="str">
-        <v>Miller</v>
+        <v>Beahan</v>
       </c>
       <c r="D87" s="4" t="str">
-        <v>Rick_Greenfelder93@yahoo.com</v>
+        <v>Gilda1@gmail.com</v>
       </c>
       <c r="E87" s="5" t="str">
-        <v>admin, user, guest</v>
+        <v>admin, guest</v>
       </c>
       <c r="F87" s="6">
-        <v>949954.26</v>
+        <v>956014.09</v>
       </c>
       <c r="G87" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Nienow, Bogan and Leuschke</v>
       </c>
       <c r="I87" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J87" s="4">
         <v>8</v>
       </c>
-      <c r="K87" s="4" t="str">
-        <v>N/A</v>
+      <c r="K87" s="4">
+        <v>3</v>
       </c>
       <c r="L87" s="8">
-        <v>45083.15116267361</v>
+        <v>44924.27337743055</v>
       </c>
       <c r="M87" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N87" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O87" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P87" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q87" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R87" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="S87" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T87" s="4" t="str">
         <v>YES</v>
@@ -6762,7 +6762,7 @@
         <v>NO</v>
       </c>
       <c r="V87" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W87" s="4">
         <v>85</v>
@@ -6773,67 +6773,67 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="str">
-        <v>Parker</v>
+        <v>Annabel</v>
       </c>
       <c r="C88" s="4" t="str">
-        <v>Durgan</v>
+        <v>Parisian</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>Alison.Gerhold@gmail.com</v>
-      </c>
-      <c r="E88" s="5" t="str">
-        <v>admin, guest</v>
+        <v>Marge.Hane41@hotmail.com</v>
+      </c>
+      <c r="E88" s="9" t="str">
+        <v>user, manager, guest</v>
       </c>
       <c r="F88" s="6">
-        <v>555632.42</v>
+        <v>290987.02</v>
       </c>
       <c r="G88" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H88" s="4" t="str">
-        <v>Rice and Sons, Dooley, Mante and Morissette, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Nolan Group, Block Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I88" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J88" s="4">
-        <v>3</v>
-      </c>
-      <c r="K88" s="4">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K88" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L88" s="8">
-        <v>45088.54928141204</v>
+        <v>45158.69423412037</v>
       </c>
       <c r="M88" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N88" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O88" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P88" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q88" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R88" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S88" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T88" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U88" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V88" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W88" s="4">
         <v>86</v>
@@ -6844,64 +6844,64 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="str">
-        <v>Anita</v>
+        <v>Sibyl</v>
       </c>
       <c r="C89" s="4" t="str">
-        <v>Lind</v>
+        <v>Little</v>
       </c>
       <c r="D89" s="4" t="str">
-        <v>Mohamed15@hotmail.com</v>
-      </c>
-      <c r="E89" s="9" t="str">
-        <v>manager, guest</v>
+        <v>Maeve85@hotmail.com</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>admin, user, manager, guest</v>
       </c>
       <c r="F89" s="6">
-        <v>903549.68</v>
+        <v>922611.77</v>
       </c>
       <c r="G89" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H89" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Ziemann - Murphy, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I89" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J89" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K89" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L89" s="8">
-        <v>45096.339389988425</v>
+        <v>45133.73208150463</v>
       </c>
       <c r="M89" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N89" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O89" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P89" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q89" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R89" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S89" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T89" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U89" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V89" s="4" t="str">
         <v>YES</v>
@@ -6915,40 +6915,40 @@
         <v>88</v>
       </c>
       <c r="B90" s="4" t="str">
-        <v>Armand</v>
+        <v>Mathilde</v>
       </c>
       <c r="C90" s="4" t="str">
-        <v>Graham</v>
+        <v>Connelly</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>Alysson_Koch64@gmail.com</v>
-      </c>
-      <c r="E90" s="5" t="str">
-        <v>admin, manager</v>
+        <v>Owen_Yost50@hotmail.com</v>
+      </c>
+      <c r="E90" s="9" t="str">
+        <v/>
       </c>
       <c r="F90" s="6">
-        <v>608072.68</v>
+        <v>945240.22</v>
       </c>
       <c r="G90" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H90" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Rau - Goodwin, Langosh and Sons</v>
+        <v>Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I90" s="7">
+        <v>7</v>
+      </c>
+      <c r="J90" s="4">
         <v>0</v>
       </c>
-      <c r="J90" s="4">
-        <v>5</v>
-      </c>
       <c r="K90" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L90" s="8">
-        <v>45019.87490383102</v>
+        <v>45063.345168645836</v>
       </c>
       <c r="M90" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N90" s="4" t="str">
         <v>NO</v>
@@ -6957,7 +6957,7 @@
         <v>YES</v>
       </c>
       <c r="P90" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q90" s="4" t="str">
         <v>YES</v>
@@ -6966,16 +6966,16 @@
         <v>NO</v>
       </c>
       <c r="S90" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T90" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U90" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V90" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W90" s="4">
         <v>88</v>
@@ -6986,55 +6986,55 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="str">
-        <v>Idella</v>
+        <v>Kyle</v>
       </c>
       <c r="C91" s="4" t="str">
-        <v>Braun</v>
+        <v>Mann</v>
       </c>
       <c r="D91" s="4" t="str">
-        <v>Deshawn_Marvin78@gmail.com</v>
+        <v>Brisa_Hegmann28@yahoo.com</v>
       </c>
       <c r="E91" s="5" t="str">
-        <v>admin</v>
+        <v>admin, user, guest</v>
       </c>
       <c r="F91" s="6">
-        <v>53841.18</v>
+        <v>492269.46</v>
       </c>
       <c r="G91" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen</v>
+        <v>Block Group, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I91" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L91" s="8">
-        <v>45224.40610180556</v>
+        <v>45111.12379417824</v>
       </c>
       <c r="M91" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N91" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O91" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P91" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q91" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R91" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S91" s="4" t="str">
         <v>YES</v>
@@ -7043,7 +7043,7 @@
         <v>NO</v>
       </c>
       <c r="U91" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V91" s="4" t="str">
         <v>NO</v>
@@ -7057,37 +7057,37 @@
         <v>90</v>
       </c>
       <c r="B92" s="4" t="str">
-        <v>Eddie</v>
+        <v>Mohamed</v>
       </c>
       <c r="C92" s="4" t="str">
-        <v>Yundt</v>
+        <v>Denesik</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>Kylee39@yahoo.com</v>
+        <v>Devyn33@hotmail.com</v>
       </c>
       <c r="E92" s="5" t="str">
-        <v>admin, user, manager</v>
+        <v>admin, manager, guest</v>
       </c>
       <c r="F92" s="6">
-        <v>628418.71</v>
+        <v>989888.81</v>
       </c>
       <c r="G92" s="4">
         <v>3</v>
       </c>
       <c r="H92" s="4" t="str">
-        <v>Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Block Group, Corkery LLC, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I92" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J92" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K92" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L92" s="8">
-        <v>45237.468963541665</v>
+        <v>45195.410335023145</v>
       </c>
       <c r="M92" s="4" t="str">
         <v>NO</v>
@@ -7096,7 +7096,7 @@
         <v>NO</v>
       </c>
       <c r="O92" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P92" s="4" t="str">
         <v>NO</v>
@@ -7105,19 +7105,19 @@
         <v>NO</v>
       </c>
       <c r="R92" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S92" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T92" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U92" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V92" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W92" s="4">
         <v>90</v>
@@ -7128,40 +7128,40 @@
         <v>91</v>
       </c>
       <c r="B93" s="4" t="str">
-        <v>Allison</v>
+        <v>Domenick</v>
       </c>
       <c r="C93" s="4" t="str">
-        <v>Oberbrunner</v>
+        <v>Harvey</v>
       </c>
       <c r="D93" s="4" t="str">
-        <v>Holden_Gleichner64@hotmail.com</v>
-      </c>
-      <c r="E93" s="5" t="str">
-        <v>admin</v>
+        <v>Jonathan32@hotmail.com</v>
+      </c>
+      <c r="E93" s="9" t="str">
+        <v>user, manager</v>
       </c>
       <c r="F93" s="6">
-        <v>175378.02</v>
+        <v>251291.74</v>
       </c>
       <c r="G93" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H93" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Cartwright - Kohler</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I93" s="7">
+        <v>1</v>
+      </c>
+      <c r="J93" s="4">
         <v>6</v>
       </c>
-      <c r="J93" s="4">
-        <v>1</v>
-      </c>
-      <c r="K93" s="4">
-        <v>0</v>
+      <c r="K93" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L93" s="8">
-        <v>45031.61766537037</v>
+        <v>45020.10638125</v>
       </c>
       <c r="M93" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N93" s="4" t="str">
         <v>YES</v>
@@ -7173,19 +7173,19 @@
         <v>YES</v>
       </c>
       <c r="Q93" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R93" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="S93" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T93" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="U93" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V93" s="4" t="str">
         <v>NO</v>
@@ -7199,46 +7199,46 @@
         <v>92</v>
       </c>
       <c r="B94" s="4" t="str">
-        <v>Nicklaus</v>
+        <v>Clementine</v>
       </c>
       <c r="C94" s="4" t="str">
-        <v>Hahn</v>
+        <v>Russel</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>Marina52@yahoo.com</v>
-      </c>
-      <c r="E94" s="5" t="str">
-        <v>admin</v>
+        <v>Kaylie_Langosh@hotmail.com</v>
+      </c>
+      <c r="E94" s="9" t="str">
+        <v>guest</v>
       </c>
       <c r="F94" s="6">
-        <v>265137.09</v>
+        <v>338569.95</v>
       </c>
       <c r="G94" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H94" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, Hammes Group, McCullough - Hilpert, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Dach, Mertz and Schaefer, Sawayn, Feeney and White, Ziemann - Murphy, Mueller - Skiles</v>
       </c>
       <c r="I94" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J94" s="4">
-        <v>4</v>
-      </c>
-      <c r="K94" s="4">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="K94" s="4" t="str">
+        <v>N/A</v>
       </c>
       <c r="L94" s="8">
-        <v>45105.45752200232</v>
+        <v>44928.46931327546</v>
       </c>
       <c r="M94" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N94" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O94" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P94" s="4" t="str">
         <v>YES</v>
@@ -7247,7 +7247,7 @@
         <v>YES</v>
       </c>
       <c r="R94" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S94" s="4" t="str">
         <v>YES</v>
@@ -7259,7 +7259,7 @@
         <v>NO</v>
       </c>
       <c r="V94" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W94" s="4">
         <v>92</v>
@@ -7270,61 +7270,61 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="str">
-        <v>Violet</v>
+        <v>Dax</v>
       </c>
       <c r="C95" s="4" t="str">
-        <v>Farrell</v>
+        <v>Kuhic</v>
       </c>
       <c r="D95" s="4" t="str">
-        <v>Jorge_Hoppe@gmail.com</v>
-      </c>
-      <c r="E95" s="5" t="str">
-        <v>admin, manager</v>
+        <v>Norbert.Stamm@hotmail.com</v>
+      </c>
+      <c r="E95" s="9" t="str">
+        <v>user, guest</v>
       </c>
       <c r="F95" s="6">
-        <v>607149.19</v>
+        <v>468105.97</v>
       </c>
       <c r="G95" s="4">
         <v>6</v>
       </c>
       <c r="H95" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Dooley, Mante and Morissette, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Dach, Mertz and Schaefer, Block Group, Ziemann - Murphy, Corkery LLC, Mueller - Skiles, Leuschke - Feil</v>
       </c>
       <c r="I95" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J95" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K95" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L95" s="8">
-        <v>44980.50820380787</v>
+        <v>45229.23088546297</v>
       </c>
       <c r="M95" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="N95" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O95" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P95" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q95" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R95" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S95" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T95" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U95" s="4" t="str">
         <v>YES</v>
@@ -7341,61 +7341,61 @@
         <v>94</v>
       </c>
       <c r="B96" s="4" t="str">
-        <v>Veronica</v>
+        <v>Vida</v>
       </c>
       <c r="C96" s="4" t="str">
-        <v>Littel</v>
+        <v>Mante</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>Jaunita91@gmail.com</v>
+        <v>Dorothy.Jones-Cremin@yahoo.com</v>
       </c>
       <c r="E96" s="9" t="str">
-        <v>user, guest</v>
+        <v/>
       </c>
       <c r="F96" s="6">
-        <v>313168.49</v>
+        <v>232934.96</v>
       </c>
       <c r="G96" s="4">
+        <v>3</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v>Corkery LLC, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
+      </c>
+      <c r="I96" s="7">
+        <v>3</v>
+      </c>
+      <c r="J96" s="4">
         <v>6</v>
       </c>
-      <c r="H96" s="4" t="str">
-        <v>Murazik LLC, Hammes Group, Rau - Goodwin, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Bernier - Powlowski</v>
-      </c>
-      <c r="I96" s="7">
-        <v>4</v>
-      </c>
-      <c r="J96" s="4">
-        <v>0</v>
-      </c>
       <c r="K96" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L96" s="8">
-        <v>45171.17280090278</v>
+        <v>45184.98293425926</v>
       </c>
       <c r="M96" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N96" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O96" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P96" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="Q96" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R96" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S96" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T96" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U96" s="4" t="str">
         <v>YES</v>
@@ -7412,46 +7412,46 @@
         <v>95</v>
       </c>
       <c r="B97" s="4" t="str">
-        <v>Junior</v>
+        <v>Sonny</v>
       </c>
       <c r="C97" s="4" t="str">
-        <v>Hand</v>
+        <v>Tromp</v>
       </c>
       <c r="D97" s="4" t="str">
-        <v>Matteo_Kessler29@hotmail.com</v>
+        <v>Trevion_Boyer@hotmail.com</v>
       </c>
       <c r="E97" s="9" t="str">
-        <v>user</v>
+        <v/>
       </c>
       <c r="F97" s="6">
-        <v>764392.18</v>
+        <v>974000.7</v>
       </c>
       <c r="G97" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H97" s="4" t="str">
-        <v>Murazik LLC, Rice and Sons, McCullough - Hilpert, Rau - Goodwin, Kemmer, Kautzer and Luettgen, Langosh and Sons</v>
+        <v>Nolan Group, Block Group, Sawayn, Feeney and White, Ziemann - Murphy, Nienow, Bogan and Leuschke, Leuschke - Feil, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I97" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J97" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K97" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" s="8">
-        <v>45039.175452881944</v>
+        <v>44975.277999652775</v>
       </c>
       <c r="M97" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N97" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="O97" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P97" s="4" t="str">
         <v>YES</v>
@@ -7463,13 +7463,13 @@
         <v>NO</v>
       </c>
       <c r="S97" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T97" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="U97" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V97" s="4" t="str">
         <v>YES</v>
@@ -7483,28 +7483,28 @@
         <v>96</v>
       </c>
       <c r="B98" s="4" t="str">
-        <v>Joany</v>
+        <v>Virgil</v>
       </c>
       <c r="C98" s="4" t="str">
-        <v>Boyer</v>
+        <v>Jakubowski-Dooley</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>Amara.Jacobs49@yahoo.com</v>
-      </c>
-      <c r="E98" s="5" t="str">
-        <v>admin, manager</v>
+        <v>Cathryn.Lindgren@gmail.com</v>
+      </c>
+      <c r="E98" s="9" t="str">
+        <v>manager, guest</v>
       </c>
       <c r="F98" s="6">
-        <v>120407.44</v>
+        <v>705115.6</v>
       </c>
       <c r="G98" s="4">
+        <v>4</v>
+      </c>
+      <c r="H98" s="4" t="str">
+        <v>Dach, Mertz and Schaefer, Nolan Group, Ziemann - Murphy, Strosin, Jenkins and Jakubowski</v>
+      </c>
+      <c r="I98" s="7">
         <v>5</v>
-      </c>
-      <c r="H98" s="4" t="str">
-        <v>McCullough - Hilpert, Dooley, Mante and Morissette, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Langosh and Sons</v>
-      </c>
-      <c r="I98" s="7">
-        <v>0</v>
       </c>
       <c r="J98" s="4">
         <v>0</v>
@@ -7513,31 +7513,31 @@
         <v>N/A</v>
       </c>
       <c r="L98" s="8">
-        <v>45202.34516949074</v>
+        <v>44989.46495376158</v>
       </c>
       <c r="M98" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="N98" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O98" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="P98" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q98" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R98" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="S98" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T98" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="U98" s="4" t="str">
         <v>NO</v>
@@ -7554,58 +7554,58 @@
         <v>97</v>
       </c>
       <c r="B99" s="4" t="str">
-        <v>Allan</v>
+        <v>Frances</v>
       </c>
       <c r="C99" s="4" t="str">
-        <v>Sanford</v>
+        <v>Lockman</v>
       </c>
       <c r="D99" s="4" t="str">
-        <v>Dangelo.Senger-Buckridge33@hotmail.com</v>
-      </c>
-      <c r="E99" s="9" t="str">
-        <v>user</v>
+        <v>Kyler19@hotmail.com</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <v>admin, user, guest</v>
       </c>
       <c r="F99" s="6">
-        <v>180976.06</v>
+        <v>816418.85</v>
       </c>
       <c r="G99" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H99" s="4" t="str">
-        <v>Rice and Sons, Hammes Group, Kemmer, Kautzer and Luettgen, Cartwright - Kohler, Bernier - Powlowski, Langosh and Sons</v>
+        <v>Sawayn, Feeney and White, Ziemann - Murphy, Corkery LLC, Nienow, Bogan and Leuschke, Leuschke - Feil</v>
       </c>
       <c r="I99" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J99" s="4">
         <v>0</v>
       </c>
       <c r="K99" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L99" s="8">
-        <v>45250.03694994213</v>
+        <v>45087.09097457176</v>
       </c>
       <c r="M99" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N99" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="O99" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="P99" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q99" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="R99" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S99" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="T99" s="4" t="str">
         <v>YES</v>
@@ -7614,7 +7614,7 @@
         <v>YES</v>
       </c>
       <c r="V99" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="W99" s="4">
         <v>97</v>
@@ -7625,64 +7625,64 @@
         <v>98</v>
       </c>
       <c r="B100" s="4" t="str">
-        <v>Casimir</v>
+        <v>Colby</v>
       </c>
       <c r="C100" s="4" t="str">
-        <v>Nitzsche</v>
+        <v>Leuschke</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>Edyth53@gmail.com</v>
+        <v>Watson_Metz85@gmail.com</v>
       </c>
       <c r="E100" s="5" t="str">
-        <v>admin, user, manager</v>
+        <v>admin, manager</v>
       </c>
       <c r="F100" s="6">
-        <v>731457.41</v>
+        <v>824020.01</v>
       </c>
       <c r="G100" s="4">
+        <v>5</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>Nolan Group, Sawayn, Feeney and White, Corkery LLC, Mueller - Skiles, Leuschke - Feil</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="4">
         <v>2</v>
-      </c>
-      <c r="H100" s="4" t="str">
-        <v>Rau - Goodwin, Dooley, Mante and Morissette</v>
-      </c>
-      <c r="I100" s="7">
-        <v>1</v>
-      </c>
-      <c r="J100" s="4">
-        <v>6</v>
       </c>
       <c r="K100" s="4" t="str">
         <v>N/A</v>
       </c>
       <c r="L100" s="8">
-        <v>44909.99750087963</v>
+        <v>45085.94334204861</v>
       </c>
       <c r="M100" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="N100" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="O100" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="P100" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="Q100" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="R100" s="4" t="str">
         <v>YES</v>
       </c>
       <c r="S100" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="T100" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="U100" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="V100" s="4" t="str">
         <v>NO</v>
@@ -7696,55 +7696,55 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="str">
-        <v>Bailey</v>
+        <v>Barton</v>
       </c>
       <c r="C101" s="4" t="str">
-        <v>Gerlach</v>
+        <v>Klocko</v>
       </c>
       <c r="D101" s="4" t="str">
-        <v>Stella_Lemke@yahoo.com</v>
+        <v>Koby3@hotmail.com</v>
       </c>
       <c r="E101" s="5" t="str">
-        <v>admin, user, manager, guest</v>
+        <v>admin, user, manager</v>
       </c>
       <c r="F101" s="6">
-        <v>174896.51</v>
+        <v>796248.03</v>
       </c>
       <c r="G101" s="4">
         <v>4</v>
       </c>
       <c r="H101" s="4" t="str">
-        <v>Murazik LLC, McCullough - Hilpert, Cartwright - Kohler, Bernier - Powlowski</v>
+        <v>Block Group, Corkery LLC, Nienow, Bogan and Leuschke, Strosin, Jenkins and Jakubowski</v>
       </c>
       <c r="I101" s="7">
+        <v>7</v>
+      </c>
+      <c r="J101" s="4">
         <v>3</v>
       </c>
-      <c r="J101" s="4">
-        <v>8</v>
-      </c>
-      <c r="K101" s="4" t="str">
-        <v>N/A</v>
+      <c r="K101" s="4">
+        <v>5</v>
       </c>
       <c r="L101" s="8">
-        <v>45043.57866695602</v>
+        <v>44981.731430381944</v>
       </c>
       <c r="M101" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N101" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="O101" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="P101" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="Q101" s="4" t="str">
         <v>NO</v>
       </c>
       <c r="R101" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="S101" s="4" t="str">
         <v>NO</v>
@@ -7753,10 +7753,10 @@
         <v>YES</v>
       </c>
       <c r="U101" s="4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="V101" s="4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="W101" s="4">
         <v>99</v>
@@ -7771,1130 +7771,522 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
       <c r="A1" s="3" t="str">
         <v>First name</v>
       </c>
-      <c r="B1" s="3" t="str">
-        <v>Last name</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>Email</v>
-      </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="4" t="str">
-        <v>Hilbert</v>
-      </c>
-      <c r="B2" s="4" t="str">
-        <v>Grimes</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v>Linwood13@hotmail.com</v>
+        <v>Angelica</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="str">
-        <v>Avery</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <v>Wisozk</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <v>Jeanette42@hotmail.com</v>
+        <v>Mathilde</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="4" t="str">
-        <v>Lenore</v>
-      </c>
-      <c r="B4" s="4" t="str">
-        <v>Johns</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>Keshaun_Spinka@hotmail.com</v>
+        <v>Bria</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="4" t="str">
-        <v>Alana</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <v>Spinka</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <v>Damian.OReilly28@hotmail.com</v>
+        <v>Arden</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="4" t="str">
-        <v>Krystel</v>
-      </c>
-      <c r="B6" s="4" t="str">
-        <v>Bernier</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>Sarina_Bogisich@hotmail.com</v>
+        <v>Davion</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="4" t="str">
-        <v>Jerrod</v>
-      </c>
-      <c r="B7" s="4" t="str">
-        <v>Tremblay</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <v>Jack_Altenwerth32@hotmail.com</v>
+        <v>Henderson</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="4" t="str">
-        <v>Orval</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <v>Kunde</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>Tanner_Koch-Boyer85@gmail.com</v>
+        <v>Cyrus</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="4" t="str">
-        <v>Abbie</v>
-      </c>
-      <c r="B9" s="4" t="str">
-        <v>Emmerich</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <v>Travis_Jacobs12@gmail.com</v>
+        <v>Daniella</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="4" t="str">
-        <v>Monserrat</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <v>Walsh</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>Aida_Fisher@hotmail.com</v>
+        <v>Camren</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="4" t="str">
-        <v>Lemuel</v>
-      </c>
-      <c r="B11" s="4" t="str">
-        <v>Brekke</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <v>Roma.Cassin86@yahoo.com</v>
+        <v>Lavern</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="4" t="str">
-        <v>Alvis</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <v>Bechtelar</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>Myah.Wiegand@yahoo.com</v>
+        <v>Seth</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="4" t="str">
-        <v>Cierra</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <v>Greenfelder</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <v>Dena_Kulas@gmail.com</v>
+        <v>Nicolas</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="4" t="str">
-        <v>Alfredo</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <v>Paucek</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <v>Hazel_Sanford33@gmail.com</v>
+        <v>Frida</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="4" t="str">
-        <v>Zackary</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <v>Schneider</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <v>Marcelo_Von36@gmail.com</v>
+        <v>Amir</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="4" t="str">
-        <v>Doyle</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <v>Yost</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <v>Lionel.Krajcik-Kerluke36@yahoo.com</v>
+        <v>Zion</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="4" t="str">
-        <v>Jovani</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <v>Bins</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <v>Jovanny13@yahoo.com</v>
+        <v>Cicero</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="4" t="str">
-        <v>Jerod</v>
-      </c>
-      <c r="B18" s="4" t="str">
-        <v>Gutkowski</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <v>Wanda67@gmail.com</v>
+        <v>Anjali</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="4" t="str">
-        <v>Scarlett</v>
-      </c>
-      <c r="B19" s="4" t="str">
-        <v>Miller-Hodkiewicz</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <v>Nick_Yundt79@gmail.com</v>
+        <v>Sigmund</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="4" t="str">
-        <v>Lonnie</v>
-      </c>
-      <c r="B20" s="4" t="str">
-        <v>Goyette</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <v>Alexandria.Dietrich1@yahoo.com</v>
+        <v>Roslyn</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="4" t="str">
-        <v>Evelyn</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <v>Dietrich</v>
-      </c>
-      <c r="C21" s="4" t="str">
-        <v>Matteo_Cartwright87@hotmail.com</v>
+        <v>Gladyce</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="4" t="str">
-        <v>Horace</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <v>Bechtelar</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <v>Elias.Ratke@gmail.com</v>
+        <v>Cale</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="4" t="str">
-        <v>Dock</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <v>Schiller</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <v>Horace_Lebsack@gmail.com</v>
+        <v>Margarete</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="A24" s="4" t="str">
-        <v>Joey</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <v>Hills</v>
-      </c>
-      <c r="C24" s="4" t="str">
-        <v>Micah50@yahoo.com</v>
+        <v>Nestor</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1">
       <c r="A25" s="4" t="str">
-        <v>Madie</v>
-      </c>
-      <c r="B25" s="4" t="str">
-        <v>Schaden</v>
-      </c>
-      <c r="C25" s="4" t="str">
-        <v>Aliyah_Wiegand@yahoo.com</v>
+        <v>Malika</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1">
       <c r="A26" s="4" t="str">
-        <v>Patience</v>
-      </c>
-      <c r="B26" s="4" t="str">
-        <v>Ankunding</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <v>Lina.McLaughlin67@yahoo.com</v>
+        <v>Gregory</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1">
       <c r="A27" s="4" t="str">
-        <v>Declan</v>
-      </c>
-      <c r="B27" s="4" t="str">
-        <v>Hilpert</v>
-      </c>
-      <c r="C27" s="4" t="str">
-        <v>Doug31@gmail.com</v>
+        <v>Valerie</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1">
       <c r="A28" s="4" t="str">
-        <v>Juana</v>
-      </c>
-      <c r="B28" s="4" t="str">
-        <v>Leffler</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <v>Rylan_Walker@hotmail.com</v>
+        <v>Dillan</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1">
       <c r="A29" s="4" t="str">
-        <v>Stefan</v>
-      </c>
-      <c r="B29" s="4" t="str">
-        <v>Kilback</v>
-      </c>
-      <c r="C29" s="4" t="str">
-        <v>Parker51@yahoo.com</v>
+        <v>Frieda</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1">
       <c r="A30" s="4" t="str">
-        <v>Jakayla</v>
-      </c>
-      <c r="B30" s="4" t="str">
-        <v>Prosacco</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <v>Elmo10@gmail.com</v>
+        <v>Lawrence</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1">
       <c r="A31" s="4" t="str">
-        <v>Eldred</v>
-      </c>
-      <c r="B31" s="4" t="str">
-        <v>Turcotte</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <v>Mertie83@yahoo.com</v>
+        <v>Tristian</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="A32" s="4" t="str">
-        <v>Jazmyn</v>
-      </c>
-      <c r="B32" s="4" t="str">
-        <v>Conroy</v>
-      </c>
-      <c r="C32" s="4" t="str">
-        <v>Georgette.Lind25@hotmail.com</v>
+        <v>Jess</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="A33" s="4" t="str">
-        <v>Clarissa</v>
-      </c>
-      <c r="B33" s="4" t="str">
-        <v>Zulauf</v>
-      </c>
-      <c r="C33" s="4" t="str">
-        <v>Opal_Carter@yahoo.com</v>
+        <v>Franco</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1">
       <c r="A34" s="4" t="str">
-        <v>Quinn</v>
-      </c>
-      <c r="B34" s="4" t="str">
-        <v>Satterfield</v>
-      </c>
-      <c r="C34" s="4" t="str">
-        <v>Joannie18@gmail.com</v>
+        <v>Anya</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1">
       <c r="A35" s="4" t="str">
-        <v>Oral</v>
-      </c>
-      <c r="B35" s="4" t="str">
-        <v>Ruecker</v>
-      </c>
-      <c r="C35" s="4" t="str">
-        <v>Marilyne_Frami@hotmail.com</v>
+        <v>Samson</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1">
       <c r="A36" s="4" t="str">
-        <v>Sammie</v>
-      </c>
-      <c r="B36" s="4" t="str">
-        <v>Stokes</v>
-      </c>
-      <c r="C36" s="4" t="str">
-        <v>Margaretta.Kemmer@yahoo.com</v>
+        <v>Dorris</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1">
       <c r="A37" s="4" t="str">
-        <v>Sandrine</v>
-      </c>
-      <c r="B37" s="4" t="str">
-        <v>Moen</v>
-      </c>
-      <c r="C37" s="4" t="str">
-        <v>Katherine88@hotmail.com</v>
+        <v>Hans</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="4" t="str">
-        <v>Chaya</v>
-      </c>
-      <c r="B38" s="4" t="str">
-        <v>Kub</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <v>Aubree22@gmail.com</v>
+        <v>Lon</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1">
       <c r="A39" s="4" t="str">
-        <v>Janiya</v>
-      </c>
-      <c r="B39" s="4" t="str">
-        <v>Toy-Crooks</v>
-      </c>
-      <c r="C39" s="4" t="str">
-        <v>Shanelle67@yahoo.com</v>
+        <v>Justyn</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1">
       <c r="A40" s="4" t="str">
-        <v>Macey</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <v>Marvin</v>
-      </c>
-      <c r="C40" s="4" t="str">
-        <v>Scot.Jacobs83@yahoo.com</v>
+        <v>Brad</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="A41" s="4" t="str">
-        <v>Taya</v>
-      </c>
-      <c r="B41" s="4" t="str">
-        <v>Abshire</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <v>Braeden13@gmail.com</v>
+        <v>Duane</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1">
       <c r="A42" s="4" t="str">
-        <v>Lila</v>
-      </c>
-      <c r="B42" s="4" t="str">
-        <v>Raynor</v>
-      </c>
-      <c r="C42" s="4" t="str">
-        <v>Noemie_Legros@yahoo.com</v>
+        <v>Camren</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1">
       <c r="A43" s="4" t="str">
-        <v>Norma</v>
-      </c>
-      <c r="B43" s="4" t="str">
-        <v>Davis</v>
-      </c>
-      <c r="C43" s="4" t="str">
-        <v>Anais34@gmail.com</v>
+        <v>Devan</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1">
       <c r="A44" s="4" t="str">
-        <v>Jeromy</v>
-      </c>
-      <c r="B44" s="4" t="str">
-        <v>Zemlak</v>
-      </c>
-      <c r="C44" s="4" t="str">
-        <v>Marietta.Connelly38@gmail.com</v>
+        <v>Nelle</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1">
       <c r="A45" s="4" t="str">
-        <v>Verla</v>
-      </c>
-      <c r="B45" s="4" t="str">
-        <v>Herzog</v>
-      </c>
-      <c r="C45" s="4" t="str">
-        <v>Dorthy_DAmore42@gmail.com</v>
+        <v>Theodore</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1">
       <c r="A46" s="4" t="str">
-        <v>Flavie</v>
-      </c>
-      <c r="B46" s="4" t="str">
-        <v>Wyman</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <v>Brayan25@hotmail.com</v>
+        <v>Ward</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1">
       <c r="A47" s="4" t="str">
-        <v>Adela</v>
-      </c>
-      <c r="B47" s="4" t="str">
-        <v>Berge</v>
-      </c>
-      <c r="C47" s="4" t="str">
-        <v>Bell.Gibson55@gmail.com</v>
+        <v>Dortha</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1">
       <c r="A48" s="4" t="str">
-        <v>Immanuel</v>
-      </c>
-      <c r="B48" s="4" t="str">
-        <v>Lemke</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <v>Darlene_Kuvalis@hotmail.com</v>
+        <v>Luis</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1">
       <c r="A49" s="4" t="str">
-        <v>Casper</v>
-      </c>
-      <c r="B49" s="4" t="str">
-        <v>Durgan</v>
-      </c>
-      <c r="C49" s="4" t="str">
-        <v>Holly96@yahoo.com</v>
+        <v>Ron</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="A50" s="4" t="str">
-        <v>Joanny</v>
-      </c>
-      <c r="B50" s="4" t="str">
-        <v>Reilly</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <v>Nicole_Larson@gmail.com</v>
+        <v>Robert</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1">
       <c r="A51" s="4" t="str">
-        <v>Llewellyn</v>
-      </c>
-      <c r="B51" s="4" t="str">
-        <v>Smith</v>
-      </c>
-      <c r="C51" s="4" t="str">
-        <v>Ezequiel_Bartell@hotmail.com</v>
+        <v>Uriah</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1">
       <c r="A52" s="4" t="str">
-        <v>Gayle</v>
-      </c>
-      <c r="B52" s="4" t="str">
-        <v>Kling-Prosacco</v>
-      </c>
-      <c r="C52" s="4" t="str">
-        <v>Denis_Rau@hotmail.com</v>
+        <v>Freida</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1">
       <c r="A53" s="4" t="str">
-        <v>Talia</v>
-      </c>
-      <c r="B53" s="4" t="str">
-        <v>Moore</v>
-      </c>
-      <c r="C53" s="4" t="str">
-        <v>Cornelius.Tremblay@yahoo.com</v>
+        <v>Carmela</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1">
       <c r="A54" s="4" t="str">
-        <v>Bernardo</v>
-      </c>
-      <c r="B54" s="4" t="str">
-        <v>Crona</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <v>Ismael.Torphy@gmail.com</v>
+        <v>Gia</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1">
       <c r="A55" s="4" t="str">
-        <v>Van</v>
-      </c>
-      <c r="B55" s="4" t="str">
-        <v>Ritchie</v>
-      </c>
-      <c r="C55" s="4" t="str">
-        <v>Frieda.OConner30@yahoo.com</v>
+        <v>Jayden</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1">
       <c r="A56" s="4" t="str">
-        <v>Mina</v>
-      </c>
-      <c r="B56" s="4" t="str">
-        <v>Rempel</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <v>Anastacio.Auer31@hotmail.com</v>
+        <v>Justus</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1">
       <c r="A57" s="4" t="str">
-        <v>Jaylen</v>
-      </c>
-      <c r="B57" s="4" t="str">
-        <v>Greenholt</v>
-      </c>
-      <c r="C57" s="4" t="str">
-        <v>Harvey_McKenzie6@gmail.com</v>
+        <v>Dane</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1">
       <c r="A58" s="4" t="str">
-        <v>Bernie</v>
-      </c>
-      <c r="B58" s="4" t="str">
-        <v>Corwin</v>
-      </c>
-      <c r="C58" s="4" t="str">
-        <v>Lilyan_Gibson@gmail.com</v>
+        <v>Yesenia</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="A59" s="4" t="str">
-        <v>Billie</v>
-      </c>
-      <c r="B59" s="4" t="str">
-        <v>Shields-Bogisich</v>
-      </c>
-      <c r="C59" s="4" t="str">
-        <v>Gwendolyn.Beatty82@yahoo.com</v>
+        <v>Arianna</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1">
       <c r="A60" s="4" t="str">
-        <v>Leanna</v>
-      </c>
-      <c r="B60" s="4" t="str">
-        <v>Conn</v>
-      </c>
-      <c r="C60" s="4" t="str">
-        <v>Donny.Hudson16@gmail.com</v>
+        <v>Dave</v>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1">
       <c r="A61" s="4" t="str">
-        <v>Robyn</v>
-      </c>
-      <c r="B61" s="4" t="str">
-        <v>Homenick</v>
-      </c>
-      <c r="C61" s="4" t="str">
-        <v>Bernita.Klocko@yahoo.com</v>
+        <v>Mollie</v>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1">
       <c r="A62" s="4" t="str">
-        <v>Shawna</v>
-      </c>
-      <c r="B62" s="4" t="str">
-        <v>Carroll</v>
-      </c>
-      <c r="C62" s="4" t="str">
-        <v>Abbigail76@gmail.com</v>
+        <v>Foster</v>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1">
       <c r="A63" s="4" t="str">
-        <v>Roscoe</v>
-      </c>
-      <c r="B63" s="4" t="str">
-        <v>Cronin</v>
-      </c>
-      <c r="C63" s="4" t="str">
-        <v>Retha88@yahoo.com</v>
+        <v>Antone</v>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1">
       <c r="A64" s="4" t="str">
-        <v>Anahi</v>
-      </c>
-      <c r="B64" s="4" t="str">
-        <v>Gutmann</v>
-      </c>
-      <c r="C64" s="4" t="str">
-        <v>Kelley.Jacobi44@hotmail.com</v>
+        <v>Turner</v>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1">
       <c r="A65" s="4" t="str">
-        <v>Carli</v>
-      </c>
-      <c r="B65" s="4" t="str">
-        <v>Rutherford</v>
-      </c>
-      <c r="C65" s="4" t="str">
-        <v>Tate_Von23@hotmail.com</v>
+        <v>Myles</v>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1">
       <c r="A66" s="4" t="str">
-        <v>Rebeka</v>
-      </c>
-      <c r="B66" s="4" t="str">
-        <v>Beahan</v>
-      </c>
-      <c r="C66" s="4" t="str">
-        <v>Estrella_Considine@yahoo.com</v>
+        <v>Felicita</v>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1">
       <c r="A67" s="4" t="str">
-        <v>Thelma</v>
-      </c>
-      <c r="B67" s="4" t="str">
-        <v>Smitham</v>
-      </c>
-      <c r="C67" s="4" t="str">
-        <v>Augusta_Dach39@hotmail.com</v>
+        <v>Augusta</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="A68" s="4" t="str">
-        <v>Courtney</v>
-      </c>
-      <c r="B68" s="4" t="str">
-        <v>Satterfield</v>
-      </c>
-      <c r="C68" s="4" t="str">
-        <v>Carley.Goldner12@gmail.com</v>
+        <v>Daryl</v>
       </c>
     </row>
     <row r="69" ht="30" customHeight="1">
       <c r="A69" s="4" t="str">
-        <v>Carlotta</v>
-      </c>
-      <c r="B69" s="4" t="str">
-        <v>Quigley</v>
-      </c>
-      <c r="C69" s="4" t="str">
-        <v>Imelda26@hotmail.com</v>
+        <v>Emory</v>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1">
       <c r="A70" s="4" t="str">
-        <v>Ramiro</v>
-      </c>
-      <c r="B70" s="4" t="str">
-        <v>Kovacek</v>
-      </c>
-      <c r="C70" s="4" t="str">
-        <v>Kailee90@gmail.com</v>
+        <v>Miles</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1">
       <c r="A71" s="4" t="str">
-        <v>Vicente</v>
-      </c>
-      <c r="B71" s="4" t="str">
-        <v>Ritchie</v>
-      </c>
-      <c r="C71" s="4" t="str">
-        <v>Evans.Denesik96@hotmail.com</v>
+        <v>Rogelio</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1">
       <c r="A72" s="4" t="str">
-        <v>Makenna</v>
-      </c>
-      <c r="B72" s="4" t="str">
-        <v>Wintheiser</v>
-      </c>
-      <c r="C72" s="4" t="str">
-        <v>Brayan76@gmail.com</v>
+        <v>Malvina</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1">
       <c r="A73" s="4" t="str">
-        <v>Germaine</v>
-      </c>
-      <c r="B73" s="4" t="str">
-        <v>Ernser</v>
-      </c>
-      <c r="C73" s="4" t="str">
-        <v>Raquel.Hegmann16@gmail.com</v>
+        <v>Tracy</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1">
       <c r="A74" s="4" t="str">
-        <v>Tamia</v>
-      </c>
-      <c r="B74" s="4" t="str">
-        <v>Parisian</v>
-      </c>
-      <c r="C74" s="4" t="str">
-        <v>Arch77@yahoo.com</v>
+        <v>Elijah</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1">
       <c r="A75" s="4" t="str">
-        <v>Carmella</v>
-      </c>
-      <c r="B75" s="4" t="str">
-        <v>Auer</v>
-      </c>
-      <c r="C75" s="4" t="str">
-        <v>Heidi28@gmail.com</v>
+        <v>Reinhold</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1">
       <c r="A76" s="4" t="str">
-        <v>Ima</v>
-      </c>
-      <c r="B76" s="4" t="str">
-        <v>Shields</v>
-      </c>
-      <c r="C76" s="4" t="str">
-        <v>Damaris99@yahoo.com</v>
+        <v>Delmer</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="A77" s="4" t="str">
-        <v>Austen</v>
-      </c>
-      <c r="B77" s="4" t="str">
-        <v>Kovacek</v>
-      </c>
-      <c r="C77" s="4" t="str">
-        <v>Meggie65@gmail.com</v>
+        <v>Sydney</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1">
       <c r="A78" s="4" t="str">
-        <v>Norbert</v>
-      </c>
-      <c r="B78" s="4" t="str">
-        <v>Cassin</v>
-      </c>
-      <c r="C78" s="4" t="str">
-        <v>Brianne86@yahoo.com</v>
+        <v>Eliseo</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1">
       <c r="A79" s="4" t="str">
-        <v>Jimmy</v>
-      </c>
-      <c r="B79" s="4" t="str">
-        <v>Schaefer</v>
-      </c>
-      <c r="C79" s="4" t="str">
-        <v>Cassandre_Grimes@hotmail.com</v>
+        <v>Jesse</v>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1">
       <c r="A80" s="4" t="str">
-        <v>Pete</v>
-      </c>
-      <c r="B80" s="4" t="str">
-        <v>Boyle</v>
-      </c>
-      <c r="C80" s="4" t="str">
-        <v>Bertha78@hotmail.com</v>
+        <v>Peter</v>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1">
       <c r="A81" s="4" t="str">
-        <v>Allene</v>
-      </c>
-      <c r="B81" s="4" t="str">
-        <v>Kling</v>
-      </c>
-      <c r="C81" s="4" t="str">
-        <v>Wilma50@yahoo.com</v>
+        <v>Rubye</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1">
       <c r="A82" s="4" t="str">
-        <v>Carlie</v>
-      </c>
-      <c r="B82" s="4" t="str">
-        <v>Dietrich</v>
-      </c>
-      <c r="C82" s="4" t="str">
-        <v>Margret_Champlin@gmail.com</v>
+        <v>Carol</v>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1">
       <c r="A83" s="4" t="str">
-        <v>Geovany</v>
-      </c>
-      <c r="B83" s="4" t="str">
-        <v>Towne</v>
-      </c>
-      <c r="C83" s="4" t="str">
-        <v>Coy.Macejkovic12@gmail.com</v>
+        <v>Noelia</v>
       </c>
     </row>
     <row r="84" ht="30" customHeight="1">
       <c r="A84" s="4" t="str">
-        <v>Kellie</v>
-      </c>
-      <c r="B84" s="4" t="str">
-        <v>Durgan</v>
-      </c>
-      <c r="C84" s="4" t="str">
-        <v>Erin.Schiller@gmail.com</v>
+        <v>Caesar</v>
       </c>
     </row>
     <row r="85" ht="30" customHeight="1">
       <c r="A85" s="4" t="str">
-        <v>Cecil</v>
-      </c>
-      <c r="B85" s="4" t="str">
-        <v>Schaefer</v>
-      </c>
-      <c r="C85" s="4" t="str">
-        <v>Raven_Hyatt@yahoo.com</v>
+        <v>Jennifer</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="A86" s="4" t="str">
-        <v>Toby</v>
-      </c>
-      <c r="B86" s="4" t="str">
-        <v>Macejkovic</v>
-      </c>
-      <c r="C86" s="4" t="str">
-        <v>Amir_Schimmel90@hotmail.com</v>
+        <v>Francis</v>
       </c>
     </row>
     <row r="87" ht="30" customHeight="1">
       <c r="A87" s="4" t="str">
-        <v>Dillon</v>
-      </c>
-      <c r="B87" s="4" t="str">
-        <v>Miller</v>
-      </c>
-      <c r="C87" s="4" t="str">
-        <v>Rick_Greenfelder93@yahoo.com</v>
+        <v>Harrison</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1">
       <c r="A88" s="4" t="str">
-        <v>Parker</v>
-      </c>
-      <c r="B88" s="4" t="str">
-        <v>Durgan</v>
-      </c>
-      <c r="C88" s="4" t="str">
-        <v>Alison.Gerhold@gmail.com</v>
+        <v>Annabel</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1">
       <c r="A89" s="4" t="str">
-        <v>Anita</v>
-      </c>
-      <c r="B89" s="4" t="str">
-        <v>Lind</v>
-      </c>
-      <c r="C89" s="4" t="str">
-        <v>Mohamed15@hotmail.com</v>
+        <v>Sibyl</v>
       </c>
     </row>
     <row r="90" ht="30" customHeight="1">
       <c r="A90" s="4" t="str">
-        <v>Armand</v>
-      </c>
-      <c r="B90" s="4" t="str">
-        <v>Graham</v>
-      </c>
-      <c r="C90" s="4" t="str">
-        <v>Alysson_Koch64@gmail.com</v>
+        <v>Mathilde</v>
       </c>
     </row>
     <row r="91" ht="30" customHeight="1">
       <c r="A91" s="4" t="str">
-        <v>Idella</v>
-      </c>
-      <c r="B91" s="4" t="str">
-        <v>Braun</v>
-      </c>
-      <c r="C91" s="4" t="str">
-        <v>Deshawn_Marvin78@gmail.com</v>
+        <v>Kyle</v>
       </c>
     </row>
     <row r="92" ht="30" customHeight="1">
       <c r="A92" s="4" t="str">
-        <v>Eddie</v>
-      </c>
-      <c r="B92" s="4" t="str">
-        <v>Yundt</v>
-      </c>
-      <c r="C92" s="4" t="str">
-        <v>Kylee39@yahoo.com</v>
+        <v>Mohamed</v>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1">
       <c r="A93" s="4" t="str">
-        <v>Allison</v>
-      </c>
-      <c r="B93" s="4" t="str">
-        <v>Oberbrunner</v>
-      </c>
-      <c r="C93" s="4" t="str">
-        <v>Holden_Gleichner64@hotmail.com</v>
+        <v>Domenick</v>
       </c>
     </row>
     <row r="94" ht="30" customHeight="1">
       <c r="A94" s="4" t="str">
-        <v>Nicklaus</v>
-      </c>
-      <c r="B94" s="4" t="str">
-        <v>Hahn</v>
-      </c>
-      <c r="C94" s="4" t="str">
-        <v>Marina52@yahoo.com</v>
+        <v>Clementine</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="A95" s="4" t="str">
-        <v>Violet</v>
-      </c>
-      <c r="B95" s="4" t="str">
-        <v>Farrell</v>
-      </c>
-      <c r="C95" s="4" t="str">
-        <v>Jorge_Hoppe@gmail.com</v>
+        <v>Dax</v>
       </c>
     </row>
     <row r="96" ht="30" customHeight="1">
       <c r="A96" s="4" t="str">
-        <v>Veronica</v>
-      </c>
-      <c r="B96" s="4" t="str">
-        <v>Littel</v>
-      </c>
-      <c r="C96" s="4" t="str">
-        <v>Jaunita91@gmail.com</v>
+        <v>Vida</v>
       </c>
     </row>
     <row r="97" ht="30" customHeight="1">
       <c r="A97" s="4" t="str">
-        <v>Junior</v>
-      </c>
-      <c r="B97" s="4" t="str">
-        <v>Hand</v>
-      </c>
-      <c r="C97" s="4" t="str">
-        <v>Matteo_Kessler29@hotmail.com</v>
+        <v>Sonny</v>
       </c>
     </row>
     <row r="98" ht="30" customHeight="1">
       <c r="A98" s="4" t="str">
-        <v>Joany</v>
-      </c>
-      <c r="B98" s="4" t="str">
-        <v>Boyer</v>
-      </c>
-      <c r="C98" s="4" t="str">
-        <v>Amara.Jacobs49@yahoo.com</v>
+        <v>Virgil</v>
       </c>
     </row>
     <row r="99" ht="30" customHeight="1">
       <c r="A99" s="4" t="str">
-        <v>Allan</v>
-      </c>
-      <c r="B99" s="4" t="str">
-        <v>Sanford</v>
-      </c>
-      <c r="C99" s="4" t="str">
-        <v>Dangelo.Senger-Buckridge33@hotmail.com</v>
+        <v>Frances</v>
       </c>
     </row>
     <row r="100" ht="30" customHeight="1">
       <c r="A100" s="4" t="str">
-        <v>Casimir</v>
-      </c>
-      <c r="B100" s="4" t="str">
-        <v>Nitzsche</v>
-      </c>
-      <c r="C100" s="4" t="str">
-        <v>Edyth53@gmail.com</v>
+        <v>Colby</v>
       </c>
     </row>
     <row r="101" ht="30" customHeight="1">
       <c r="A101" s="4" t="str">
-        <v>Bailey</v>
-      </c>
-      <c r="B101" s="4" t="str">
-        <v>Gerlach</v>
-      </c>
-      <c r="C101" s="4" t="str">
-        <v>Stella_Lemke@yahoo.com</v>
+        <v>Barton</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A101"/>
   </ignoredErrors>
 </worksheet>
 </file>
